--- a/opportunity-samples/Opportunity-FieldsAndStandardValues-DiffWithPrevVersion-V14.3.xlsx
+++ b/opportunity-samples/Opportunity-FieldsAndStandardValues-DiffWithPrevVersion-V14.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksmenon/Documents/CRMDocs/partner-crm-integration-samples/opportunity-samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CE8DEF-5E0C-BD41-8E5B-8C3325427381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ACCDBE-E2DE-C548-B7FC-883CFA22D3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18800" yWindow="-33840" windowWidth="60160" windowHeight="33840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18800" yWindow="-33340" windowWidth="60160" windowHeight="33340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
@@ -1126,12 +1126,6 @@
     <t>Specifies the definitive end date of the contract's effectiveness for the customer engagement related to the opportunity. It signifies the termination date of the agreed-upon engagement period between the customer and the AWS Partner.</t>
   </si>
   <si>
-    <t>For SaaS Revenue Recognition Partners (SRRP) when stage = "Launched"</t>
-  </si>
-  <si>
-    <t>Yes (SRRP Partners Only)</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -4687,6 +4681,12 @@
   </si>
   <si>
     <t xml:space="preserve">Fields: Refined the wording for the description of solutionOffer </t>
+  </si>
+  <si>
+    <t>Yes (For special programs)</t>
+  </si>
+  <si>
+    <t>For special programs when stage = "Launched"</t>
   </si>
 </sst>
 </file>
@@ -5648,7 +5648,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="C35" sqref="C34:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5660,7 +5660,7 @@
     <row r="1" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31"/>
       <c r="B1" s="64" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="31"/>
@@ -5668,7 +5668,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
       <c r="B2" s="60" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="31"/>
@@ -5683,7 +5683,7 @@
       <c r="A4" s="31"/>
       <c r="B4" s="47"/>
       <c r="C4" s="39" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="D4" s="31"/>
     </row>
@@ -5691,7 +5691,7 @@
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
       <c r="C5" s="33" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="D5" s="31"/>
     </row>
@@ -5699,7 +5699,7 @@
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="D6" s="31"/>
     </row>
@@ -5707,7 +5707,7 @@
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
       <c r="C7" s="33" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="D7" s="31"/>
     </row>
@@ -5715,7 +5715,7 @@
       <c r="A8" s="31"/>
       <c r="B8" s="32"/>
       <c r="C8" s="33" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="D8" s="31"/>
     </row>
@@ -5729,7 +5729,7 @@
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="D10" s="31"/>
     </row>
@@ -5737,7 +5737,7 @@
       <c r="A11" s="31"/>
       <c r="B11" s="32"/>
       <c r="C11" s="33" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="D11" s="31"/>
     </row>
@@ -5745,7 +5745,7 @@
       <c r="A12" s="31"/>
       <c r="B12" s="32"/>
       <c r="C12" s="33" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="D12" s="31"/>
     </row>
@@ -5753,7 +5753,7 @@
       <c r="A13" s="31"/>
       <c r="B13" s="32"/>
       <c r="C13" s="33" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="D13" s="31"/>
     </row>
@@ -5761,7 +5761,7 @@
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="D14" s="31"/>
     </row>
@@ -5769,7 +5769,7 @@
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="33" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="D15" s="31"/>
     </row>
@@ -5777,7 +5777,7 @@
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="33" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="D16" s="31"/>
     </row>
@@ -5790,7 +5790,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
       <c r="B18" s="62" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C18" s="63"/>
       <c r="D18" s="31"/>
@@ -5799,7 +5799,7 @@
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
       <c r="C19" s="33" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="D19" s="31"/>
     </row>
@@ -5807,7 +5807,7 @@
       <c r="A20" s="31"/>
       <c r="B20" s="32"/>
       <c r="C20" s="33" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="D20" s="31"/>
     </row>
@@ -5815,7 +5815,7 @@
       <c r="A21" s="31"/>
       <c r="B21" s="32"/>
       <c r="C21" s="33" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="D21" s="31"/>
     </row>
@@ -5823,7 +5823,7 @@
       <c r="A22" s="31"/>
       <c r="B22" s="32"/>
       <c r="C22" s="33" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="D22" s="31"/>
     </row>
@@ -5831,7 +5831,7 @@
       <c r="A23" s="31"/>
       <c r="B23" s="32"/>
       <c r="C23" s="33" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="D23" s="31"/>
     </row>
@@ -5839,7 +5839,7 @@
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="33" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="D24" s="31"/>
     </row>
@@ -5847,7 +5847,7 @@
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
       <c r="C25" s="33" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="D25" s="31"/>
     </row>
@@ -5855,7 +5855,7 @@
       <c r="A26" s="31"/>
       <c r="B26" s="32"/>
       <c r="C26" s="33" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="D26" s="31"/>
     </row>
@@ -5863,14 +5863,14 @@
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="33" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="D27" s="31"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
       <c r="B28" s="62" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C28" s="63"/>
       <c r="D28" s="31"/>
@@ -5879,7 +5879,7 @@
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="33" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="D29" s="31"/>
     </row>
@@ -5887,7 +5887,7 @@
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="33" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="D30" s="31"/>
     </row>
@@ -5895,7 +5895,7 @@
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="33" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="D31" s="31"/>
     </row>
@@ -5903,14 +5903,14 @@
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="33" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="31"/>
       <c r="B33" s="62" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C33" s="63"/>
       <c r="D33" s="31"/>
@@ -5919,7 +5919,7 @@
       <c r="A34" s="31"/>
       <c r="B34" s="47"/>
       <c r="C34" s="33" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D34" s="31"/>
     </row>
@@ -5927,7 +5927,7 @@
       <c r="A35" s="31"/>
       <c r="B35" s="47"/>
       <c r="C35" s="33" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="D35" s="31"/>
     </row>
@@ -5975,9 +5975,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A48" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F38" sqref="F38"/>
+      <selection pane="topRight" activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>1</v>
@@ -6025,16 +6025,16 @@
         <v>5</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="M1" s="18" t="s">
         <v>7</v>
@@ -6075,7 +6075,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>28</v>
@@ -6169,7 +6169,7 @@
         <v>33</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>34</v>
@@ -6634,7 +6634,7 @@
         <v>83</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>85</v>
@@ -6647,7 +6647,7 @@
         <v>87</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>28</v>
@@ -6796,7 +6796,7 @@
         <v>104</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="I17" s="40" t="s">
         <v>34</v>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="H21" s="36"/>
       <c r="I21" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="3" t="s">
@@ -7078,7 +7078,7 @@
         <v>132</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>28</v>
@@ -7127,7 +7127,7 @@
         <v>137</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>19</v>
@@ -7459,20 +7459,20 @@
         <v>175</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>177</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>34</v>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="H39" s="36"/>
       <c r="I39" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>35</v>
@@ -7888,7 +7888,7 @@
       </c>
       <c r="H40" s="36"/>
       <c r="I40" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>35</v>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="H41" s="36"/>
       <c r="I41" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>35</v>
@@ -7944,7 +7944,7 @@
         <v>28</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="M41" s="70" t="s">
         <v>123</v>
@@ -7982,7 +7982,7 @@
       </c>
       <c r="H42" s="36"/>
       <c r="I42" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>35</v>
@@ -7991,7 +7991,7 @@
         <v>28</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="M42" s="70" t="s">
         <v>123</v>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="H43" s="36"/>
       <c r="I43" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>35</v>
@@ -8076,7 +8076,7 @@
       </c>
       <c r="H44" s="36"/>
       <c r="I44" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>35</v>
@@ -8122,7 +8122,7 @@
         <v>240</v>
       </c>
       <c r="H45" s="44" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I45" s="40" t="s">
         <v>28</v>
@@ -8167,7 +8167,7 @@
         <v>244</v>
       </c>
       <c r="H46" s="44" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="I46" s="40" t="s">
         <v>28</v>
@@ -8212,7 +8212,7 @@
         <v>248</v>
       </c>
       <c r="H47" s="44" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="I47" s="40" t="s">
         <v>28</v>
@@ -8257,7 +8257,7 @@
         <v>253</v>
       </c>
       <c r="H48" s="44" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="I48" s="40" t="s">
         <v>28</v>
@@ -8302,7 +8302,7 @@
         <v>257</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="I49" s="40" t="s">
         <v>28</v>
@@ -8348,14 +8348,14 @@
       </c>
       <c r="H50" s="36"/>
       <c r="I50" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="M50" s="70" t="s">
         <v>123</v>
@@ -8393,14 +8393,14 @@
       </c>
       <c r="H51" s="36"/>
       <c r="I51" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="M51" s="70" t="s">
         <v>123</v>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="H57" s="36"/>
       <c r="I57" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>35</v>
@@ -8678,7 +8678,7 @@
         <v>28</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="M57" s="70" t="s">
         <v>123</v>
@@ -8716,7 +8716,7 @@
       </c>
       <c r="H58" s="36"/>
       <c r="I58" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>35</v>
@@ -8725,7 +8725,7 @@
         <v>28</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="M58" s="70" t="s">
         <v>123</v>
@@ -8763,7 +8763,7 @@
       </c>
       <c r="H59" s="36"/>
       <c r="I59" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>35</v>
@@ -8772,7 +8772,7 @@
         <v>28</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="M59" s="70" t="s">
         <v>123</v>
@@ -8810,7 +8810,7 @@
       </c>
       <c r="H60" s="36"/>
       <c r="I60" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>35</v>
@@ -8819,7 +8819,7 @@
         <v>28</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="M60" s="70" t="s">
         <v>123</v>
@@ -8906,7 +8906,7 @@
       </c>
       <c r="H62" s="36"/>
       <c r="I62" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="3" t="s">
@@ -9032,7 +9032,7 @@
         <v>321</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>14</v>
@@ -9045,11 +9045,11 @@
         <v>323</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J65" s="19"/>
       <c r="K65" s="19" t="s">
@@ -9092,7 +9092,7 @@
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J66" s="19"/>
       <c r="K66" s="19" t="s">
@@ -9146,7 +9146,7 @@
         <v>34</v>
       </c>
       <c r="L67" s="36" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="M67" s="70" t="s">
         <v>21</v>
@@ -9186,7 +9186,7 @@
       </c>
       <c r="H68" s="36"/>
       <c r="I68" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>35</v>
@@ -9221,7 +9221,7 @@
         <v>338</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>340</v>
@@ -9283,7 +9283,7 @@
         <v>19</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>348</v>
+        <v>1429</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>28</v>
@@ -9293,7 +9293,7 @@
         <v>21</v>
       </c>
       <c r="N70" s="70" t="s">
-        <v>349</v>
+        <v>1428</v>
       </c>
       <c r="O70" s="70" t="s">
         <v>22</v>
@@ -9307,30 +9307,30 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H71" s="36"/>
       <c r="I71" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>348</v>
+        <v>1429</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>28</v>
@@ -9340,7 +9340,7 @@
         <v>21</v>
       </c>
       <c r="N71" s="70" t="s">
-        <v>349</v>
+        <v>1428</v>
       </c>
       <c r="O71" s="70" t="s">
         <v>22</v>
@@ -9354,28 +9354,28 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H72" s="36"/>
       <c r="I72" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>348</v>
+        <v>1429</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>28</v>
@@ -9385,7 +9385,7 @@
         <v>21</v>
       </c>
       <c r="N72" s="70" t="s">
-        <v>349</v>
+        <v>1428</v>
       </c>
       <c r="O72" s="70" t="s">
         <v>22</v>
@@ -9399,28 +9399,28 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H73" s="36"/>
       <c r="I73" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>348</v>
+        <v>1429</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>28</v>
@@ -9430,7 +9430,7 @@
         <v>21</v>
       </c>
       <c r="N73" s="70" t="s">
-        <v>349</v>
+        <v>1428</v>
       </c>
       <c r="O73" s="70" t="s">
         <v>22</v>
@@ -9444,30 +9444,30 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H74" s="36"/>
       <c r="I74" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>348</v>
+        <v>1429</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>28</v>
@@ -9477,7 +9477,7 @@
         <v>21</v>
       </c>
       <c r="N74" s="70" t="s">
-        <v>349</v>
+        <v>1428</v>
       </c>
       <c r="O74" s="70" t="s">
         <v>22</v>
@@ -9491,27 +9491,27 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H75" s="36"/>
       <c r="I75" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="38" t="s">
@@ -9536,30 +9536,30 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H76" s="36"/>
       <c r="I76" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>28</v>
@@ -9583,32 +9583,32 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I77" s="19" t="s">
         <v>19</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K77" s="19" t="s">
         <v>28</v>
@@ -9632,7 +9632,7 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>123</v>
@@ -9641,16 +9641,16 @@
         <v>120</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H78" s="36"/>
       <c r="I78" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="38" t="s">
@@ -9675,36 +9675,36 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H79" s="36"/>
       <c r="I79" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M79" s="70" t="s">
         <v>21</v>
@@ -9724,7 +9724,7 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>123</v>
@@ -9738,10 +9738,10 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>28</v>
@@ -9769,25 +9769,25 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H81" s="36"/>
       <c r="I81" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>35</v>
@@ -9816,25 +9816,25 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H82" s="36"/>
       <c r="I82" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>35</v>
@@ -9863,25 +9863,25 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H83" s="36"/>
       <c r="I83" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>35</v>
@@ -9910,7 +9910,7 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>123</v>
@@ -9924,11 +9924,11 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H84" s="36"/>
       <c r="I84" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>35</v>
@@ -9957,7 +9957,7 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>123</v>
@@ -9966,16 +9966,16 @@
         <v>91</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H85" s="36"/>
       <c r="I85" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>35</v>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>123</v>
@@ -10018,11 +10018,11 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H86" s="36"/>
       <c r="I86" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="38" t="s">
@@ -10047,7 +10047,7 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>123</v>
@@ -10056,16 +10056,16 @@
         <v>91</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H87" s="36"/>
       <c r="I87" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="38" t="s">
@@ -10090,22 +10090,22 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B88" s="21" t="s">
         <v>123</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
       <c r="F88" s="21"/>
       <c r="G88" s="21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H88" s="21" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="I88" s="21" t="s">
         <v>34</v>
@@ -10133,7 +10133,7 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B89" s="21" t="s">
         <v>123</v>
@@ -10145,10 +10145,10 @@
       <c r="E89" s="21"/>
       <c r="F89" s="21"/>
       <c r="G89" s="21" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H89" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I89" s="21" t="s">
         <v>28</v>
@@ -10176,7 +10176,7 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B90" s="19" t="e">
         <v>#N/A</v>
@@ -10185,27 +10185,27 @@
         <v>14</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E90" s="19"/>
       <c r="F90" s="19" t="s">
         <v>336</v>
       </c>
       <c r="G90" s="19" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H90" s="19" t="s">
         <v>138</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J90" s="19"/>
       <c r="K90" s="19" t="s">
         <v>19</v>
       </c>
       <c r="L90" s="19" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="M90" s="68" t="s">
         <v>123</v>
@@ -10225,30 +10225,30 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>123</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
       <c r="G91" s="19" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J91" s="19"/>
       <c r="K91" s="19" t="s">
         <v>19</v>
       </c>
       <c r="L91" s="19" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="M91" s="68" t="s">
         <v>123</v>
@@ -10268,10 +10268,10 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="29" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C92" s="29" t="s">
         <v>14</v>
@@ -10284,22 +10284,22 @@
         <v>17</v>
       </c>
       <c r="G92" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="H92" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="I92" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="H92" s="29" t="s">
+      <c r="J92" s="66" t="s">
         <v>430</v>
       </c>
-      <c r="I92" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="J92" s="66" t="s">
-        <v>432</v>
-      </c>
       <c r="K92" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L92" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M92" s="66" t="s">
         <v>21</v>
@@ -10319,10 +10319,10 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="29" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C93" s="29" t="s">
         <v>25</v>
@@ -10333,22 +10333,22 @@
       <c r="E93" s="29"/>
       <c r="F93" s="29"/>
       <c r="G93" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="H93" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="I93" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="J93" s="66" t="s">
         <v>435</v>
       </c>
-      <c r="H93" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="I93" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="J93" s="66" t="s">
-        <v>437</v>
-      </c>
       <c r="K93" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L93" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M93" s="66" t="s">
         <v>21</v>
@@ -10368,10 +10368,10 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="29" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C94" s="29" t="s">
         <v>25</v>
@@ -10382,22 +10382,22 @@
       <c r="E94" s="29"/>
       <c r="F94" s="29"/>
       <c r="G94" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="H94" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="I94" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="J94" s="66" t="s">
         <v>440</v>
       </c>
-      <c r="H94" s="29" t="s">
-        <v>441</v>
-      </c>
-      <c r="I94" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="J94" s="66" t="s">
-        <v>442</v>
-      </c>
       <c r="K94" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L94" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M94" s="66" t="s">
         <v>21</v>
@@ -10417,10 +10417,10 @@
     </row>
     <row r="95" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="29" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C95" s="29" t="s">
         <v>14</v>
@@ -10433,22 +10433,22 @@
         <v>17</v>
       </c>
       <c r="G95" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="H95" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="I95" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="J95" s="66" t="s">
         <v>445</v>
       </c>
-      <c r="H95" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="I95" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="J95" s="66" t="s">
-        <v>447</v>
-      </c>
       <c r="K95" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L95" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M95" s="66" t="s">
         <v>21</v>
@@ -10468,10 +10468,10 @@
     </row>
     <row r="96" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="29" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C96" s="29" t="s">
         <v>14</v>
@@ -10484,20 +10484,20 @@
         <v>17</v>
       </c>
       <c r="G96" s="29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H96" s="29"/>
       <c r="I96" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J96" s="66" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K96" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L96" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M96" s="66" t="s">
         <v>21</v>
@@ -10517,7 +10517,7 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B97" s="29" t="e">
         <v>#N/A</v>
@@ -10531,20 +10531,20 @@
       <c r="E97" s="29"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H97" s="29"/>
       <c r="I97" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J97" s="66" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K97" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L97" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M97" s="66" t="s">
         <v>21</v>
@@ -10564,10 +10564,10 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="29" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C98" s="29" t="s">
         <v>14</v>
@@ -10580,22 +10580,22 @@
         <v>17</v>
       </c>
       <c r="G98" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="H98" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="I98" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="J98" s="66" t="s">
         <v>457</v>
       </c>
-      <c r="H98" s="29" t="s">
-        <v>458</v>
-      </c>
-      <c r="I98" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="J98" s="66" t="s">
-        <v>459</v>
-      </c>
       <c r="K98" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L98" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M98" s="66" t="s">
         <v>21</v>
@@ -10615,10 +10615,10 @@
     </row>
     <row r="99" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="29" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C99" s="29" t="s">
         <v>25</v>
@@ -10629,22 +10629,22 @@
       <c r="E99" s="29"/>
       <c r="F99" s="29"/>
       <c r="G99" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="H99" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="I99" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="J99" s="66" t="s">
         <v>462</v>
       </c>
-      <c r="H99" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="I99" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="J99" s="66" t="s">
-        <v>464</v>
-      </c>
       <c r="K99" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L99" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M99" s="66" t="s">
         <v>21</v>
@@ -10664,10 +10664,10 @@
     </row>
     <row r="100" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="29" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C100" s="29" t="s">
         <v>38</v>
@@ -10678,22 +10678,22 @@
       <c r="E100" s="29"/>
       <c r="F100" s="29"/>
       <c r="G100" s="29" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H100" s="29" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I100" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J100" s="66" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K100" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L100" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M100" s="66" t="s">
         <v>21</v>
@@ -10713,10 +10713,10 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="29" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C101" s="29" t="s">
         <v>25</v>
@@ -10727,22 +10727,22 @@
       <c r="E101" s="29"/>
       <c r="F101" s="29"/>
       <c r="G101" s="29" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H101" s="29" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I101" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J101" s="66" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K101" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L101" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M101" s="66" t="s">
         <v>21</v>
@@ -10762,10 +10762,10 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="29" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C102" s="29" t="s">
         <v>14</v>
@@ -10778,22 +10778,22 @@
         <v>32</v>
       </c>
       <c r="G102" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="H102" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="I102" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="J102" s="66" t="s">
         <v>475</v>
       </c>
-      <c r="H102" s="29" t="s">
-        <v>476</v>
-      </c>
-      <c r="I102" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="J102" s="66" t="s">
-        <v>477</v>
-      </c>
       <c r="K102" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L102" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M102" s="66" t="s">
         <v>21</v>
@@ -10830,7 +10830,7 @@
   <dimension ref="A1:AD253"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10865,13 +10865,13 @@
         <v>13</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>321</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>49</v>
@@ -10893,13 +10893,13 @@
         <v>179</v>
       </c>
       <c r="N1" s="49" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>193</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>329</v>
@@ -10908,13 +10908,13 @@
         <v>307</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>114</v>
@@ -10923,16 +10923,16 @@
         <v>96</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>102</v>
@@ -10946,52 +10946,52 @@
     </row>
     <row r="2" spans="1:30" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="57" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>479</v>
+      </c>
+      <c r="C2" s="57" t="s">
         <v>480</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="D2" s="57" t="s">
         <v>481</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="E2" s="57" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F2" s="57" t="s">
         <v>482</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="G2" s="54" t="s">
         <v>483</v>
       </c>
-      <c r="E2" s="57" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F2" s="57" t="s">
+      <c r="H2" s="57" t="s">
         <v>484</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="I2" s="57" t="s">
         <v>485</v>
-      </c>
-      <c r="H2" s="57" t="s">
-        <v>486</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>487</v>
       </c>
       <c r="J2" s="54" t="s">
         <v>333</v>
       </c>
       <c r="K2" s="54" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L2" s="54" t="s">
         <v>198</v>
       </c>
       <c r="M2" s="54" t="s">
+        <v>487</v>
+      </c>
+      <c r="N2" s="50" t="s">
+        <v>488</v>
+      </c>
+      <c r="O2" s="57" t="s">
         <v>489</v>
       </c>
-      <c r="N2" s="50" t="s">
-        <v>490</v>
-      </c>
-      <c r="O2" s="57" t="s">
-        <v>491</v>
-      </c>
       <c r="P2" s="58" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Q2" s="57" t="s">
         <v>328</v>
@@ -11000,13 +11000,13 @@
         <v>307</v>
       </c>
       <c r="S2" s="57" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="T2" s="50" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="U2" s="57" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="V2" s="54" t="s">
         <v>114</v>
@@ -11015,16 +11015,16 @@
         <v>96</v>
       </c>
       <c r="X2" s="54" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Y2" s="57" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Z2" s="57" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AA2" s="57" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AB2" s="54" t="s">
         <v>102</v>
@@ -11038,150 +11038,150 @@
     </row>
     <row r="3" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="I3" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="K3" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="M3" s="41" t="s">
         <v>501</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="N3" s="51" t="s">
         <v>502</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="O3" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="P3" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="S3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="X3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="S3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" s="11" t="s">
+      <c r="Z3" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="X3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y3" s="11" t="s">
+      <c r="AA3" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="AB3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC3" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AD3" s="11" t="s">
         <v>512</v>
-      </c>
-      <c r="AB3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC3" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="AD3" s="11" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="H4" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="M4" s="41" t="s">
         <v>524</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="N4" s="51" t="s">
         <v>525</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="O4" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="P4" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="R4" s="11" t="s">
         <v>529</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>531</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>21</v>
@@ -11196,77 +11196,77 @@
         <v>21</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="X4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="Y4" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="AA4" s="11" t="s">
         <v>533</v>
-      </c>
-      <c r="Z4" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="AA4" s="11" t="s">
-        <v>535</v>
       </c>
       <c r="AB4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="AC4" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AD4" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="H5" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="I5" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="M5" s="41" t="s">
         <v>547</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="N5" s="51" t="s">
         <v>548</v>
       </c>
-      <c r="M5" s="41" t="s">
+      <c r="O5" s="11" t="s">
         <v>549</v>
-      </c>
-      <c r="N5" s="51" t="s">
-        <v>550</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>551</v>
       </c>
       <c r="P5" s="13"/>
       <c r="Q5" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
@@ -11274,69 +11274,69 @@
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
       <c r="W5" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="X5" s="13"/>
       <c r="Y5" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="AA5" s="11" t="s">
         <v>554</v>
-      </c>
-      <c r="Z5" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>556</v>
       </c>
       <c r="AB5" s="13"/>
       <c r="AC5" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AD5" s="11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="I6" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="K6" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="M6" s="41" t="s">
         <v>566</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="N6" s="51" t="s">
         <v>567</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="O6" s="11" t="s">
         <v>568</v>
-      </c>
-      <c r="N6" s="51" t="s">
-        <v>569</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>570</v>
       </c>
       <c r="P6" s="13"/>
       <c r="Q6" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
@@ -11344,67 +11344,67 @@
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
       <c r="W6" s="11" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X6" s="13"/>
       <c r="Y6" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="Z6" s="13"/>
       <c r="AA6" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AB6" s="13"/>
       <c r="AC6" s="10" t="s">
         <v>214</v>
       </c>
       <c r="AD6" s="11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="I7" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="J7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="K7" s="9" t="s">
+      <c r="M7" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="N7" s="51" t="s">
         <v>583</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="O7" s="11" t="s">
         <v>584</v>
-      </c>
-      <c r="N7" s="51" t="s">
-        <v>585</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>586</v>
       </c>
       <c r="P7" s="13"/>
       <c r="Q7" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
@@ -11412,65 +11412,65 @@
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
       <c r="W7" s="11" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="X7" s="13"/>
       <c r="Y7" s="11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="Z7" s="13"/>
       <c r="AA7" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AB7" s="13"/>
       <c r="AC7" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AD7" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="14"/>
       <c r="G8" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="I8" s="12" t="s">
+      <c r="K8" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="L8" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="M8" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="N8" s="51" t="s">
         <v>599</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="O8" s="11" t="s">
         <v>600</v>
-      </c>
-      <c r="N8" s="51" t="s">
-        <v>601</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>602</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
@@ -11478,27 +11478,27 @@
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
       <c r="W8" s="11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="X8" s="13"/>
       <c r="Y8" s="11" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="Z8" s="13"/>
       <c r="AA8" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AB8" s="13"/>
       <c r="AC8" s="10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AD8" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -11506,33 +11506,33 @@
       <c r="E9" s="13"/>
       <c r="F9" s="14"/>
       <c r="G9" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>609</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>611</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="M9" s="41" t="s">
         <v>612</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="N9" s="51" t="s">
         <v>613</v>
       </c>
-      <c r="M9" s="41" t="s">
+      <c r="O9" s="8" t="s">
         <v>614</v>
-      </c>
-      <c r="N9" s="51" t="s">
-        <v>615</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>616</v>
       </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="11" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
@@ -11542,23 +11542,23 @@
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
       <c r="Y9" s="11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="Z9" s="13"/>
       <c r="AA9" s="11" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AB9" s="13"/>
       <c r="AC9" s="10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AD9" s="11" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -11566,29 +11566,29 @@
       <c r="E10" s="13"/>
       <c r="F10" s="14"/>
       <c r="G10" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>623</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>624</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>625</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="M10" s="41" t="s">
+        <v>607</v>
+      </c>
+      <c r="N10" s="51" t="s">
         <v>626</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="O10" s="11" t="s">
         <v>627</v>
-      </c>
-      <c r="M10" s="41" t="s">
-        <v>609</v>
-      </c>
-      <c r="N10" s="51" t="s">
-        <v>628</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>629</v>
       </c>
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
@@ -11600,18 +11600,18 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
       <c r="Y10" s="11" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="Z10" s="13"/>
       <c r="AA10" s="11" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AB10" s="13"/>
       <c r="AC10" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AD10" s="11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -11622,29 +11622,29 @@
       <c r="E11" s="13"/>
       <c r="F11" s="14"/>
       <c r="G11" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>634</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>635</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>636</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="M11" s="41" t="s">
         <v>637</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="N11" s="51" t="s">
         <v>638</v>
       </c>
-      <c r="M11" s="41" t="s">
+      <c r="O11" s="11" t="s">
         <v>639</v>
-      </c>
-      <c r="N11" s="51" t="s">
-        <v>640</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>641</v>
       </c>
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
@@ -11656,18 +11656,18 @@
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
       <c r="Y11" s="11" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="Z11" s="13"/>
       <c r="AA11" s="11" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AB11" s="13"/>
       <c r="AC11" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AD11" s="11" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -11678,29 +11678,29 @@
       <c r="E12" s="13"/>
       <c r="F12" s="14"/>
       <c r="G12" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>646</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>647</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>648</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="M12" s="41" t="s">
         <v>649</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="N12" s="51" t="s">
         <v>650</v>
       </c>
-      <c r="M12" s="41" t="s">
+      <c r="O12" s="11" t="s">
         <v>651</v>
-      </c>
-      <c r="N12" s="51" t="s">
-        <v>652</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>653</v>
       </c>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
@@ -11712,18 +11712,18 @@
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
       <c r="Y12" s="11" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="Z12" s="13"/>
       <c r="AA12" s="11" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AB12" s="13"/>
       <c r="AC12" s="10" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AD12" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -11734,29 +11734,29 @@
       <c r="E13" s="13"/>
       <c r="F13" s="14"/>
       <c r="G13" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>658</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>659</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>660</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="M13" s="41" t="s">
         <v>661</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="N13" s="51" t="s">
         <v>662</v>
       </c>
-      <c r="M13" s="41" t="s">
+      <c r="O13" s="11" t="s">
         <v>663</v>
-      </c>
-      <c r="N13" s="51" t="s">
-        <v>664</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>665</v>
       </c>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
@@ -11768,18 +11768,18 @@
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
       <c r="Y13" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="Z13" s="13"/>
       <c r="AA13" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AB13" s="13"/>
       <c r="AC13" s="10" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AD13" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -11790,27 +11790,27 @@
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
       <c r="G14" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>670</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>671</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>672</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="45" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="41" t="s">
+        <v>672</v>
+      </c>
+      <c r="N14" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="O14" s="11" t="s">
         <v>674</v>
-      </c>
-      <c r="N14" s="51" t="s">
-        <v>675</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>676</v>
       </c>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
@@ -11822,18 +11822,18 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
       <c r="Y14" s="11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="Z14" s="13"/>
       <c r="AA14" s="11" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AB14" s="13"/>
       <c r="AC14" s="10" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AD14" s="11" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -11844,27 +11844,27 @@
       <c r="E15" s="13"/>
       <c r="F15" s="14"/>
       <c r="G15" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>681</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>682</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>683</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="45" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="41" t="s">
+        <v>683</v>
+      </c>
+      <c r="N15" s="51" t="s">
+        <v>684</v>
+      </c>
+      <c r="O15" s="11" t="s">
         <v>685</v>
-      </c>
-      <c r="N15" s="51" t="s">
-        <v>686</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>687</v>
       </c>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
@@ -11876,18 +11876,18 @@
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Z15" s="13"/>
       <c r="AA15" s="11" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AB15" s="13"/>
       <c r="AC15" s="10" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AD15" s="11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -11898,27 +11898,27 @@
       <c r="E16" s="16"/>
       <c r="F16" s="14"/>
       <c r="G16" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="I16" s="12" t="s">
         <v>692</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>693</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>694</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="45" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="41" t="s">
+        <v>694</v>
+      </c>
+      <c r="N16" s="51" t="s">
+        <v>695</v>
+      </c>
+      <c r="O16" s="11" t="s">
         <v>696</v>
-      </c>
-      <c r="N16" s="51" t="s">
-        <v>697</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>698</v>
       </c>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
@@ -11930,16 +11930,16 @@
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
       <c r="Y16" s="11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="Z16" s="13"/>
       <c r="AA16" s="11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AB16" s="13"/>
       <c r="AC16" s="13"/>
       <c r="AD16" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -11950,27 +11950,27 @@
       <c r="E17" s="16"/>
       <c r="F17" s="14"/>
       <c r="G17" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="I17" s="12" t="s">
         <v>702</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>703</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>704</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="45" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="41" t="s">
+        <v>704</v>
+      </c>
+      <c r="N17" s="51" t="s">
+        <v>705</v>
+      </c>
+      <c r="O17" s="15" t="s">
         <v>706</v>
-      </c>
-      <c r="N17" s="51" t="s">
-        <v>707</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>708</v>
       </c>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
@@ -11982,16 +11982,16 @@
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="Z17" s="13"/>
       <c r="AA17" s="11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AB17" s="13"/>
       <c r="AC17" s="13"/>
       <c r="AD17" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12002,27 +12002,27 @@
       <c r="E18" s="16"/>
       <c r="F18" s="14"/>
       <c r="G18" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>712</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>714</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="45" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="L18" s="13"/>
       <c r="M18" s="41" t="s">
+        <v>714</v>
+      </c>
+      <c r="N18" s="51" t="s">
+        <v>715</v>
+      </c>
+      <c r="O18" s="8" t="s">
         <v>716</v>
-      </c>
-      <c r="N18" s="51" t="s">
-        <v>717</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>718</v>
       </c>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
@@ -12034,16 +12034,16 @@
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Z18" s="13"/>
       <c r="AA18" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AB18" s="13"/>
       <c r="AC18" s="13"/>
       <c r="AD18" s="11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12054,27 +12054,27 @@
       <c r="E19" s="16"/>
       <c r="F19" s="14"/>
       <c r="G19" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="I19" s="12" t="s">
         <v>721</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>722</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>723</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="45" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="L19" s="13"/>
       <c r="M19" s="41" t="s">
+        <v>723</v>
+      </c>
+      <c r="N19" s="51" t="s">
+        <v>724</v>
+      </c>
+      <c r="O19" s="46" t="s">
         <v>725</v>
-      </c>
-      <c r="N19" s="51" t="s">
-        <v>726</v>
-      </c>
-      <c r="O19" s="46" t="s">
-        <v>727</v>
       </c>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
@@ -12086,16 +12086,16 @@
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="11" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="Z19" s="13"/>
       <c r="AA19" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AB19" s="13"/>
       <c r="AC19" s="13"/>
       <c r="AD19" s="11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12106,27 +12106,27 @@
       <c r="E20" s="16"/>
       <c r="F20" s="14"/>
       <c r="G20" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="I20" s="12" t="s">
         <v>731</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>732</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>733</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="45" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="41" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N20" s="51" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="O20" s="46" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
@@ -12138,16 +12138,16 @@
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="Z20" s="13"/>
       <c r="AA20" s="11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AB20" s="13"/>
       <c r="AC20" s="13"/>
       <c r="AD20" s="11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12158,22 +12158,22 @@
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="41" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="N21" s="51" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
@@ -12186,16 +12186,16 @@
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="11" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="Z21" s="13"/>
       <c r="AA21" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AB21" s="13"/>
       <c r="AC21" s="13"/>
       <c r="AD21" s="11" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12206,22 +12206,22 @@
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="I22" s="12" t="s">
         <v>746</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>747</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>748</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="41" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="N22" s="51" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
@@ -12236,12 +12236,12 @@
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="11" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="AB22" s="13"/>
       <c r="AC22" s="13"/>
       <c r="AD22" s="11" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12252,22 +12252,22 @@
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="10" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="41" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="N23" s="51" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
@@ -12282,12 +12282,12 @@
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="11" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AB23" s="13"/>
       <c r="AC23" s="13"/>
       <c r="AD23" s="11" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12298,22 +12298,22 @@
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="I24" s="12" t="s">
         <v>758</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>759</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>760</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="41" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="N24" s="51" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
@@ -12328,12 +12328,12 @@
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AB24" s="13"/>
       <c r="AC24" s="13"/>
       <c r="AD24" s="11" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12344,22 +12344,22 @@
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="I25" s="12" t="s">
         <v>765</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>766</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>767</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="41" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="N25" s="51" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
@@ -12374,12 +12374,12 @@
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="11" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AB25" s="13"/>
       <c r="AC25" s="13"/>
       <c r="AD25" s="11" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="34" x14ac:dyDescent="0.2">
@@ -12390,22 +12390,22 @@
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>772</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>773</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>774</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="41" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="N26" s="51" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
@@ -12420,12 +12420,12 @@
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="11" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="AB26" s="13"/>
       <c r="AC26" s="13"/>
       <c r="AD26" s="11" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12436,22 +12436,22 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="I27" s="11" t="s">
         <v>779</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>780</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>781</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="41" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="N27" s="51" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
@@ -12466,12 +12466,12 @@
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="AB27" s="13"/>
       <c r="AC27" s="13"/>
       <c r="AD27" s="11" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12482,22 +12482,22 @@
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="I28" s="11" t="s">
         <v>786</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>787</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>788</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="41" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="N28" s="51" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
@@ -12512,12 +12512,12 @@
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
       <c r="AA28" s="11" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="AB28" s="13"/>
       <c r="AC28" s="13"/>
       <c r="AD28" s="11" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12528,22 +12528,22 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="I29" s="12" t="s">
         <v>793</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>794</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>795</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="41" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="N29" s="51" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
@@ -12558,7 +12558,7 @@
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="11" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="AB29" s="13"/>
       <c r="AC29" s="13"/>
@@ -12572,22 +12572,22 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="I30" s="11" t="s">
         <v>799</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="41" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="N30" s="51" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
@@ -12602,7 +12602,7 @@
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
       <c r="AA30" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AB30" s="13"/>
       <c r="AC30" s="13"/>
@@ -12617,19 +12617,19 @@
       <c r="F31" s="14"/>
       <c r="G31" s="13"/>
       <c r="H31" s="11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="41" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="N31" s="51" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="O31" s="13"/>
       <c r="P31" s="13"/>
@@ -12644,7 +12644,7 @@
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AB31" s="13"/>
       <c r="AC31" s="13"/>
@@ -12659,19 +12659,19 @@
       <c r="F32" s="14"/>
       <c r="G32" s="13"/>
       <c r="H32" s="11" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="41" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="N32" s="51" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O32" s="13"/>
       <c r="P32" s="13"/>
@@ -12686,7 +12686,7 @@
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
       <c r="AA32" s="11" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AB32" s="13"/>
       <c r="AC32" s="13"/>
@@ -12701,19 +12701,19 @@
       <c r="F33" s="14"/>
       <c r="G33" s="13"/>
       <c r="H33" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="41" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="N33" s="51" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="O33" s="13"/>
       <c r="P33" s="13"/>
@@ -12728,7 +12728,7 @@
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
       <c r="AA33" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AB33" s="13"/>
       <c r="AC33" s="13"/>
@@ -12743,19 +12743,19 @@
       <c r="F34" s="14"/>
       <c r="G34" s="13"/>
       <c r="H34" s="11" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="41" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="N34" s="51" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
@@ -12770,7 +12770,7 @@
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
       <c r="AA34" s="11" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AB34" s="13"/>
       <c r="AC34" s="13"/>
@@ -12785,19 +12785,19 @@
       <c r="F35" s="14"/>
       <c r="G35" s="13"/>
       <c r="H35" s="11" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="41" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="N35" s="51" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
@@ -12812,7 +12812,7 @@
       <c r="Y35" s="13"/>
       <c r="Z35" s="13"/>
       <c r="AA35" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AB35" s="13"/>
       <c r="AC35" s="13"/>
@@ -12827,19 +12827,19 @@
       <c r="F36" s="14"/>
       <c r="G36" s="13"/>
       <c r="H36" s="11" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="41" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="N36" s="51" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
@@ -12854,7 +12854,7 @@
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
       <c r="AA36" s="11" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AB36" s="13"/>
       <c r="AC36" s="13"/>
@@ -12869,19 +12869,19 @@
       <c r="F37" s="14"/>
       <c r="G37" s="13"/>
       <c r="H37" s="11" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="41" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="N37" s="51" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
@@ -12896,7 +12896,7 @@
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
       <c r="AA37" s="11" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AB37" s="13"/>
       <c r="AC37" s="13"/>
@@ -12911,19 +12911,19 @@
       <c r="F38" s="14"/>
       <c r="G38" s="13"/>
       <c r="H38" s="11" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="41" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="N38" s="51" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
@@ -12938,7 +12938,7 @@
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
       <c r="AA38" s="11" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AB38" s="13"/>
       <c r="AC38" s="13"/>
@@ -12953,19 +12953,19 @@
       <c r="F39" s="14"/>
       <c r="G39" s="13"/>
       <c r="H39" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="41" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="N39" s="51" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
@@ -12980,7 +12980,7 @@
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
       <c r="AA39" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="AB39" s="13"/>
       <c r="AC39" s="13"/>
@@ -12995,19 +12995,19 @@
       <c r="F40" s="14"/>
       <c r="G40" s="13"/>
       <c r="H40" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="41" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="N40" s="51" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="O40" s="13"/>
       <c r="P40" s="13"/>
@@ -13022,7 +13022,7 @@
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
       <c r="AA40" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="AB40" s="13"/>
       <c r="AC40" s="13"/>
@@ -13037,19 +13037,19 @@
       <c r="F41" s="14"/>
       <c r="G41" s="13"/>
       <c r="H41" s="11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="41" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N41" s="51" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="O41" s="13"/>
       <c r="P41" s="13"/>
@@ -13064,7 +13064,7 @@
       <c r="Y41" s="13"/>
       <c r="Z41" s="13"/>
       <c r="AA41" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AB41" s="13"/>
       <c r="AC41" s="13"/>
@@ -13079,19 +13079,19 @@
       <c r="F42" s="14"/>
       <c r="G42" s="13"/>
       <c r="H42" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="55" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="N42" s="51" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="O42" s="13"/>
       <c r="P42" s="13"/>
@@ -13106,7 +13106,7 @@
       <c r="Y42" s="13"/>
       <c r="Z42" s="13"/>
       <c r="AA42" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AB42" s="13"/>
       <c r="AC42" s="13"/>
@@ -13121,19 +13121,19 @@
       <c r="F43" s="14"/>
       <c r="G43" s="13"/>
       <c r="H43" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
       <c r="M43" s="55" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N43" s="51" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="O43" s="13"/>
       <c r="P43" s="13"/>
@@ -13148,7 +13148,7 @@
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="11" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="AB43" s="13"/>
       <c r="AC43" s="13"/>
@@ -13163,19 +13163,19 @@
       <c r="F44" s="14"/>
       <c r="G44" s="13"/>
       <c r="H44" s="11" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="55" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="N44" s="51" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="O44" s="13"/>
       <c r="P44" s="13"/>
@@ -13190,7 +13190,7 @@
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
       <c r="AA44" s="11" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="AB44" s="13"/>
       <c r="AC44" s="13"/>
@@ -13205,19 +13205,19 @@
       <c r="F45" s="14"/>
       <c r="G45" s="13"/>
       <c r="H45" s="11" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="55" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="N45" s="51" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
@@ -13232,7 +13232,7 @@
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
       <c r="AA45" s="11" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="AB45" s="13"/>
       <c r="AC45" s="13"/>
@@ -13247,19 +13247,19 @@
       <c r="F46" s="14"/>
       <c r="G46" s="13"/>
       <c r="H46" s="11" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="55" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="N46" s="51" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
@@ -13274,7 +13274,7 @@
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="11" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="AB46" s="13"/>
       <c r="AC46" s="13"/>
@@ -13289,19 +13289,19 @@
       <c r="F47" s="14"/>
       <c r="G47" s="13"/>
       <c r="H47" s="11" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
       <c r="M47" s="55" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N47" s="51" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="O47" s="13"/>
       <c r="P47" s="13"/>
@@ -13316,7 +13316,7 @@
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
       <c r="AA47" s="11" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="AB47" s="13"/>
       <c r="AC47" s="13"/>
@@ -13331,19 +13331,19 @@
       <c r="F48" s="14"/>
       <c r="G48" s="13"/>
       <c r="H48" s="11" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="55" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="N48" s="51" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
@@ -13358,7 +13358,7 @@
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
       <c r="AA48" s="11" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="AB48" s="13"/>
       <c r="AC48" s="13"/>
@@ -13373,19 +13373,19 @@
       <c r="F49" s="14"/>
       <c r="G49" s="13"/>
       <c r="H49" s="11" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="55" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N49" s="51" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="O49" s="13"/>
       <c r="P49" s="13"/>
@@ -13400,7 +13400,7 @@
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
       <c r="AA49" s="11" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="AB49" s="13"/>
       <c r="AC49" s="13"/>
@@ -13415,19 +13415,19 @@
       <c r="F50" s="14"/>
       <c r="G50" s="13"/>
       <c r="H50" s="11" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="55" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="N50" s="51" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="O50" s="13"/>
       <c r="P50" s="13"/>
@@ -13442,7 +13442,7 @@
       <c r="Y50" s="13"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="AB50" s="13"/>
       <c r="AC50" s="13"/>
@@ -13457,19 +13457,19 @@
       <c r="F51" s="14"/>
       <c r="G51" s="13"/>
       <c r="H51" s="11" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
       <c r="M51" s="55" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="N51" s="51" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="O51" s="13"/>
       <c r="P51" s="13"/>
@@ -13484,7 +13484,7 @@
       <c r="Y51" s="13"/>
       <c r="Z51" s="13"/>
       <c r="AA51" s="11" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="AB51" s="13"/>
       <c r="AC51" s="13"/>
@@ -13499,19 +13499,19 @@
       <c r="F52" s="14"/>
       <c r="G52" s="13"/>
       <c r="H52" s="11" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
       <c r="M52" s="55" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="N52" s="51" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="O52" s="13"/>
       <c r="P52" s="13"/>
@@ -13526,7 +13526,7 @@
       <c r="Y52" s="13"/>
       <c r="Z52" s="13"/>
       <c r="AA52" s="11" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="AB52" s="13"/>
       <c r="AC52" s="13"/>
@@ -13541,19 +13541,19 @@
       <c r="F53" s="14"/>
       <c r="G53" s="13"/>
       <c r="H53" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
       <c r="M53" s="55" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="N53" s="51" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="O53" s="13"/>
       <c r="P53" s="13"/>
@@ -13568,7 +13568,7 @@
       <c r="Y53" s="13"/>
       <c r="Z53" s="13"/>
       <c r="AA53" s="11" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="AB53" s="13"/>
       <c r="AC53" s="13"/>
@@ -13583,19 +13583,19 @@
       <c r="F54" s="14"/>
       <c r="G54" s="13"/>
       <c r="H54" s="11" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
       <c r="L54" s="13"/>
       <c r="M54" s="55" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N54" s="51" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="O54" s="13"/>
       <c r="P54" s="13"/>
@@ -13610,7 +13610,7 @@
       <c r="Y54" s="13"/>
       <c r="Z54" s="13"/>
       <c r="AA54" s="11" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="AB54" s="13"/>
       <c r="AC54" s="13"/>
@@ -13625,19 +13625,19 @@
       <c r="F55" s="14"/>
       <c r="G55" s="13"/>
       <c r="H55" s="11" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="55" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="N55" s="51" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="O55" s="13"/>
       <c r="P55" s="13"/>
@@ -13652,7 +13652,7 @@
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
       <c r="AA55" s="11" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="AB55" s="13"/>
       <c r="AC55" s="13"/>
@@ -13667,19 +13667,19 @@
       <c r="F56" s="14"/>
       <c r="G56" s="13"/>
       <c r="H56" s="11" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
       <c r="M56" s="55" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N56" s="51" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="O56" s="13"/>
       <c r="P56" s="13"/>
@@ -13694,7 +13694,7 @@
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
       <c r="AA56" s="11" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="AB56" s="13"/>
       <c r="AC56" s="13"/>
@@ -13709,19 +13709,19 @@
       <c r="F57" s="14"/>
       <c r="G57" s="13"/>
       <c r="H57" s="11" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
       <c r="M57" s="55" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="N57" s="51" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O57" s="13"/>
       <c r="P57" s="13"/>
@@ -13736,7 +13736,7 @@
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
       <c r="AA57" s="11" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="AB57" s="13"/>
       <c r="AC57" s="13"/>
@@ -13751,19 +13751,19 @@
       <c r="F58" s="14"/>
       <c r="G58" s="13"/>
       <c r="H58" s="11" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
       <c r="M58" s="55" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="N58" s="51" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="O58" s="13"/>
       <c r="P58" s="13"/>
@@ -13778,7 +13778,7 @@
       <c r="Y58" s="13"/>
       <c r="Z58" s="13"/>
       <c r="AA58" s="11" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="AB58" s="13"/>
       <c r="AC58" s="13"/>
@@ -13793,19 +13793,19 @@
       <c r="F59" s="14"/>
       <c r="G59" s="13"/>
       <c r="H59" s="11" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
       <c r="M59" s="55" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N59" s="51" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="O59" s="13"/>
       <c r="P59" s="13"/>
@@ -13820,7 +13820,7 @@
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
       <c r="AA59" s="11" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="AB59" s="13"/>
       <c r="AC59" s="13"/>
@@ -13835,17 +13835,17 @@
       <c r="F60" s="14"/>
       <c r="G60" s="13"/>
       <c r="H60" s="11" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
       <c r="M60" s="56"/>
       <c r="N60" s="51" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="O60" s="13"/>
       <c r="P60" s="13"/>
@@ -13860,7 +13860,7 @@
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
       <c r="AA60" s="11" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="AB60" s="13"/>
       <c r="AC60" s="13"/>
@@ -13875,17 +13875,17 @@
       <c r="F61" s="14"/>
       <c r="G61" s="13"/>
       <c r="H61" s="11" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
       <c r="M61" s="56"/>
       <c r="N61" s="51" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="O61" s="13"/>
       <c r="P61" s="13"/>
@@ -13900,7 +13900,7 @@
       <c r="Y61" s="13"/>
       <c r="Z61" s="13"/>
       <c r="AA61" s="11" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="AB61" s="13"/>
       <c r="AC61" s="13"/>
@@ -13915,17 +13915,17 @@
       <c r="F62" s="14"/>
       <c r="G62" s="13"/>
       <c r="H62" s="11" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
       <c r="M62" s="56"/>
       <c r="N62" s="51" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="O62" s="13"/>
       <c r="P62" s="13"/>
@@ -13940,7 +13940,7 @@
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
       <c r="AA62" s="11" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="AB62" s="13"/>
       <c r="AC62" s="13"/>
@@ -13955,17 +13955,17 @@
       <c r="F63" s="14"/>
       <c r="G63" s="13"/>
       <c r="H63" s="11" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
       <c r="M63" s="56"/>
       <c r="N63" s="51" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="O63" s="13"/>
       <c r="P63" s="13"/>
@@ -13980,7 +13980,7 @@
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
       <c r="AA63" s="11" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="AB63" s="13"/>
       <c r="AC63" s="13"/>
@@ -13995,17 +13995,17 @@
       <c r="F64" s="14"/>
       <c r="G64" s="13"/>
       <c r="H64" s="11" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
       <c r="M64" s="56"/>
       <c r="N64" s="51" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="O64" s="13"/>
       <c r="P64" s="13"/>
@@ -14020,7 +14020,7 @@
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
       <c r="AA64" s="11" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="AB64" s="13"/>
       <c r="AC64" s="13"/>
@@ -14035,17 +14035,17 @@
       <c r="F65" s="14"/>
       <c r="G65" s="13"/>
       <c r="H65" s="11" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
       <c r="M65" s="56"/>
       <c r="N65" s="51" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="O65" s="13"/>
       <c r="P65" s="13"/>
@@ -14060,7 +14060,7 @@
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
       <c r="AA65" s="11" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="AB65" s="13"/>
       <c r="AC65" s="13"/>
@@ -14075,17 +14075,17 @@
       <c r="F66" s="14"/>
       <c r="G66" s="13"/>
       <c r="H66" s="11" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
       <c r="M66" s="56"/>
       <c r="N66" s="51" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="O66" s="13"/>
       <c r="P66" s="13"/>
@@ -14100,7 +14100,7 @@
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
       <c r="AA66" s="11" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="AB66" s="13"/>
       <c r="AC66" s="13"/>
@@ -14115,17 +14115,17 @@
       <c r="F67" s="14"/>
       <c r="G67" s="13"/>
       <c r="H67" s="11" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J67" s="13"/>
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
       <c r="M67" s="56"/>
       <c r="N67" s="51" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="O67" s="13"/>
       <c r="P67" s="13"/>
@@ -14140,7 +14140,7 @@
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
       <c r="AA67" s="11" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="AB67" s="13"/>
       <c r="AC67" s="13"/>
@@ -14155,17 +14155,17 @@
       <c r="F68" s="14"/>
       <c r="G68" s="13"/>
       <c r="H68" s="11" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="J68" s="13"/>
       <c r="K68" s="13"/>
       <c r="L68" s="13"/>
       <c r="M68" s="56"/>
       <c r="N68" s="51" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="O68" s="13"/>
       <c r="P68" s="13"/>
@@ -14180,7 +14180,7 @@
       <c r="Y68" s="13"/>
       <c r="Z68" s="13"/>
       <c r="AA68" s="11" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="AB68" s="13"/>
       <c r="AC68" s="13"/>
@@ -14195,17 +14195,17 @@
       <c r="F69" s="14"/>
       <c r="G69" s="13"/>
       <c r="H69" s="11" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
       <c r="M69" s="56"/>
       <c r="N69" s="51" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="O69" s="13"/>
       <c r="P69" s="13"/>
@@ -14220,7 +14220,7 @@
       <c r="Y69" s="13"/>
       <c r="Z69" s="13"/>
       <c r="AA69" s="11" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="AB69" s="13"/>
       <c r="AC69" s="13"/>
@@ -14235,17 +14235,17 @@
       <c r="F70" s="14"/>
       <c r="G70" s="13"/>
       <c r="H70" s="11" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
       <c r="M70" s="56"/>
       <c r="N70" s="51" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="O70" s="13"/>
       <c r="P70" s="13"/>
@@ -14260,7 +14260,7 @@
       <c r="Y70" s="13"/>
       <c r="Z70" s="13"/>
       <c r="AA70" s="11" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="AB70" s="13"/>
       <c r="AC70" s="13"/>
@@ -14275,17 +14275,17 @@
       <c r="F71" s="14"/>
       <c r="G71" s="13"/>
       <c r="H71" s="11" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
       <c r="M71" s="56"/>
       <c r="N71" s="51" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O71" s="13"/>
       <c r="P71" s="13"/>
@@ -14300,7 +14300,7 @@
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
       <c r="AA71" s="11" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="AB71" s="13"/>
       <c r="AC71" s="13"/>
@@ -14315,17 +14315,17 @@
       <c r="F72" s="14"/>
       <c r="G72" s="13"/>
       <c r="H72" s="11" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
       <c r="M72" s="56"/>
       <c r="N72" s="51" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="O72" s="13"/>
       <c r="P72" s="13"/>
@@ -14340,7 +14340,7 @@
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
       <c r="AA72" s="11" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="AB72" s="13"/>
       <c r="AC72" s="13"/>
@@ -14355,17 +14355,17 @@
       <c r="F73" s="14"/>
       <c r="G73" s="13"/>
       <c r="H73" s="11" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
       <c r="M73" s="56"/>
       <c r="N73" s="51" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="O73" s="13"/>
       <c r="P73" s="13"/>
@@ -14380,7 +14380,7 @@
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
       <c r="AA73" s="11" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="AB73" s="13"/>
       <c r="AC73" s="13"/>
@@ -14395,17 +14395,17 @@
       <c r="F74" s="14"/>
       <c r="G74" s="13"/>
       <c r="H74" s="11" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
       <c r="M74" s="56"/>
       <c r="N74" s="51" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="O74" s="13"/>
       <c r="P74" s="13"/>
@@ -14420,7 +14420,7 @@
       <c r="Y74" s="13"/>
       <c r="Z74" s="13"/>
       <c r="AA74" s="11" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="AB74" s="13"/>
       <c r="AC74" s="13"/>
@@ -14435,17 +14435,17 @@
       <c r="F75" s="14"/>
       <c r="G75" s="13"/>
       <c r="H75" s="11" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
       <c r="M75" s="56"/>
       <c r="N75" s="51" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="O75" s="13"/>
       <c r="P75" s="13"/>
@@ -14460,7 +14460,7 @@
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
       <c r="AA75" s="11" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="AB75" s="13"/>
       <c r="AC75" s="13"/>
@@ -14475,17 +14475,17 @@
       <c r="F76" s="14"/>
       <c r="G76" s="13"/>
       <c r="H76" s="11" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
       <c r="M76" s="56"/>
       <c r="N76" s="51" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="O76" s="13"/>
       <c r="P76" s="13"/>
@@ -14500,7 +14500,7 @@
       <c r="Y76" s="13"/>
       <c r="Z76" s="13"/>
       <c r="AA76" s="11" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="AB76" s="13"/>
       <c r="AC76" s="13"/>
@@ -14515,17 +14515,17 @@
       <c r="F77" s="14"/>
       <c r="G77" s="13"/>
       <c r="H77" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="J77" s="13"/>
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
       <c r="M77" s="56"/>
       <c r="N77" s="51" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="O77" s="13"/>
       <c r="P77" s="13"/>
@@ -14540,7 +14540,7 @@
       <c r="Y77" s="13"/>
       <c r="Z77" s="13"/>
       <c r="AA77" s="11" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="AB77" s="13"/>
       <c r="AC77" s="13"/>
@@ -14555,17 +14555,17 @@
       <c r="F78" s="14"/>
       <c r="G78" s="13"/>
       <c r="H78" s="11" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="J78" s="13"/>
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
       <c r="M78" s="56"/>
       <c r="N78" s="51" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="O78" s="13"/>
       <c r="P78" s="13"/>
@@ -14580,7 +14580,7 @@
       <c r="Y78" s="13"/>
       <c r="Z78" s="13"/>
       <c r="AA78" s="11" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="AB78" s="13"/>
       <c r="AC78" s="13"/>
@@ -14595,17 +14595,17 @@
       <c r="F79" s="14"/>
       <c r="G79" s="13"/>
       <c r="H79" s="11" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="J79" s="13"/>
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
       <c r="M79" s="56"/>
       <c r="N79" s="51" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="O79" s="13"/>
       <c r="P79" s="13"/>
@@ -14620,7 +14620,7 @@
       <c r="Y79" s="13"/>
       <c r="Z79" s="13"/>
       <c r="AA79" s="11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AB79" s="13"/>
       <c r="AC79" s="13"/>
@@ -14635,17 +14635,17 @@
       <c r="F80" s="14"/>
       <c r="G80" s="13"/>
       <c r="H80" s="11" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="J80" s="13"/>
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
       <c r="M80" s="56"/>
       <c r="N80" s="51" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="O80" s="13"/>
       <c r="P80" s="13"/>
@@ -14660,7 +14660,7 @@
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
       <c r="AA80" s="11" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="AB80" s="13"/>
       <c r="AC80" s="13"/>
@@ -14675,17 +14675,17 @@
       <c r="F81" s="14"/>
       <c r="G81" s="13"/>
       <c r="H81" s="11" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="J81" s="13"/>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
       <c r="M81" s="56"/>
       <c r="N81" s="51" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="O81" s="13"/>
       <c r="P81" s="13"/>
@@ -14700,7 +14700,7 @@
       <c r="Y81" s="13"/>
       <c r="Z81" s="13"/>
       <c r="AA81" s="11" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="AB81" s="13"/>
       <c r="AC81" s="13"/>
@@ -14715,17 +14715,17 @@
       <c r="F82" s="14"/>
       <c r="G82" s="13"/>
       <c r="H82" s="11" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="J82" s="13"/>
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
       <c r="M82" s="56"/>
       <c r="N82" s="51" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="O82" s="13"/>
       <c r="P82" s="13"/>
@@ -14740,7 +14740,7 @@
       <c r="Y82" s="13"/>
       <c r="Z82" s="13"/>
       <c r="AA82" s="11" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="AB82" s="13"/>
       <c r="AC82" s="13"/>
@@ -14755,17 +14755,17 @@
       <c r="F83" s="14"/>
       <c r="G83" s="13"/>
       <c r="H83" s="11" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="J83" s="13"/>
       <c r="K83" s="13"/>
       <c r="L83" s="13"/>
       <c r="M83" s="56"/>
       <c r="N83" s="51" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="O83" s="13"/>
       <c r="P83" s="13"/>
@@ -14780,7 +14780,7 @@
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
       <c r="AA83" s="11" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="AB83" s="13"/>
       <c r="AC83" s="13"/>
@@ -14795,17 +14795,17 @@
       <c r="F84" s="14"/>
       <c r="G84" s="13"/>
       <c r="H84" s="11" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="J84" s="13"/>
       <c r="K84" s="13"/>
       <c r="L84" s="13"/>
       <c r="M84" s="56"/>
       <c r="N84" s="51" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="O84" s="13"/>
       <c r="P84" s="13"/>
@@ -14820,7 +14820,7 @@
       <c r="Y84" s="13"/>
       <c r="Z84" s="13"/>
       <c r="AA84" s="11" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="AB84" s="13"/>
       <c r="AC84" s="13"/>
@@ -14835,17 +14835,17 @@
       <c r="F85" s="14"/>
       <c r="G85" s="13"/>
       <c r="H85" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="J85" s="13"/>
       <c r="K85" s="13"/>
       <c r="L85" s="13"/>
       <c r="M85" s="56"/>
       <c r="N85" s="51" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="O85" s="13"/>
       <c r="P85" s="13"/>
@@ -14860,7 +14860,7 @@
       <c r="Y85" s="13"/>
       <c r="Z85" s="13"/>
       <c r="AA85" s="11" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="AB85" s="13"/>
       <c r="AC85" s="13"/>
@@ -14875,17 +14875,17 @@
       <c r="F86" s="14"/>
       <c r="G86" s="13"/>
       <c r="H86" s="11" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="J86" s="13"/>
       <c r="K86" s="13"/>
       <c r="L86" s="13"/>
       <c r="M86" s="56"/>
       <c r="N86" s="51" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="O86" s="13"/>
       <c r="P86" s="13"/>
@@ -14900,7 +14900,7 @@
       <c r="Y86" s="13"/>
       <c r="Z86" s="13"/>
       <c r="AA86" s="11" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AB86" s="13"/>
       <c r="AC86" s="13"/>
@@ -14915,17 +14915,17 @@
       <c r="F87" s="14"/>
       <c r="G87" s="13"/>
       <c r="H87" s="11" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="J87" s="13"/>
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
       <c r="M87" s="56"/>
       <c r="N87" s="51" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="O87" s="13"/>
       <c r="P87" s="13"/>
@@ -14940,7 +14940,7 @@
       <c r="Y87" s="13"/>
       <c r="Z87" s="13"/>
       <c r="AA87" s="11" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="AB87" s="13"/>
       <c r="AC87" s="13"/>
@@ -14955,17 +14955,17 @@
       <c r="F88" s="14"/>
       <c r="G88" s="13"/>
       <c r="H88" s="11" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J88" s="13"/>
       <c r="K88" s="13"/>
       <c r="L88" s="13"/>
       <c r="M88" s="56"/>
       <c r="N88" s="51" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="O88" s="13"/>
       <c r="P88" s="13"/>
@@ -14980,7 +14980,7 @@
       <c r="Y88" s="13"/>
       <c r="Z88" s="13"/>
       <c r="AA88" s="11" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="AB88" s="13"/>
       <c r="AC88" s="13"/>
@@ -14995,17 +14995,17 @@
       <c r="F89" s="14"/>
       <c r="G89" s="13"/>
       <c r="H89" s="11" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="J89" s="13"/>
       <c r="K89" s="13"/>
       <c r="L89" s="13"/>
       <c r="M89" s="56"/>
       <c r="N89" s="51" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="O89" s="13"/>
       <c r="P89" s="13"/>
@@ -15020,7 +15020,7 @@
       <c r="Y89" s="13"/>
       <c r="Z89" s="13"/>
       <c r="AA89" s="11" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="AB89" s="13"/>
       <c r="AC89" s="13"/>
@@ -15035,10 +15035,10 @@
       <c r="F90" s="14"/>
       <c r="G90" s="13"/>
       <c r="H90" s="11" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="J90" s="13"/>
       <c r="K90" s="13"/>
@@ -15058,7 +15058,7 @@
       <c r="Y90" s="13"/>
       <c r="Z90" s="13"/>
       <c r="AA90" s="11" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AB90" s="13"/>
       <c r="AC90" s="13"/>
@@ -15073,10 +15073,10 @@
       <c r="F91" s="14"/>
       <c r="G91" s="13"/>
       <c r="H91" s="11" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="J91" s="13"/>
       <c r="K91" s="13"/>
@@ -15096,7 +15096,7 @@
       <c r="Y91" s="13"/>
       <c r="Z91" s="13"/>
       <c r="AA91" s="11" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="AB91" s="13"/>
       <c r="AC91" s="13"/>
@@ -15111,10 +15111,10 @@
       <c r="F92" s="14"/>
       <c r="G92" s="13"/>
       <c r="H92" s="11" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="J92" s="13"/>
       <c r="K92" s="13"/>
@@ -15134,7 +15134,7 @@
       <c r="Y92" s="13"/>
       <c r="Z92" s="13"/>
       <c r="AA92" s="11" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="AB92" s="13"/>
       <c r="AC92" s="13"/>
@@ -15149,10 +15149,10 @@
       <c r="F93" s="14"/>
       <c r="G93" s="13"/>
       <c r="H93" s="11" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="J93" s="13"/>
       <c r="K93" s="13"/>
@@ -15172,7 +15172,7 @@
       <c r="Y93" s="13"/>
       <c r="Z93" s="13"/>
       <c r="AA93" s="11" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AB93" s="13"/>
       <c r="AC93" s="13"/>
@@ -15187,10 +15187,10 @@
       <c r="F94" s="14"/>
       <c r="G94" s="13"/>
       <c r="H94" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="J94" s="13"/>
       <c r="K94" s="13"/>
@@ -15210,7 +15210,7 @@
       <c r="Y94" s="13"/>
       <c r="Z94" s="13"/>
       <c r="AA94" s="11" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="AB94" s="13"/>
       <c r="AC94" s="13"/>
@@ -15225,10 +15225,10 @@
       <c r="F95" s="14"/>
       <c r="G95" s="13"/>
       <c r="H95" s="11" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="J95" s="13"/>
       <c r="K95" s="13"/>
@@ -15248,7 +15248,7 @@
       <c r="Y95" s="13"/>
       <c r="Z95" s="13"/>
       <c r="AA95" s="11" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="AB95" s="13"/>
       <c r="AC95" s="13"/>
@@ -15263,10 +15263,10 @@
       <c r="F96" s="14"/>
       <c r="G96" s="13"/>
       <c r="H96" s="11" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="J96" s="13"/>
       <c r="K96" s="13"/>
@@ -15286,7 +15286,7 @@
       <c r="Y96" s="13"/>
       <c r="Z96" s="13"/>
       <c r="AA96" s="11" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AB96" s="13"/>
       <c r="AC96" s="13"/>
@@ -15301,10 +15301,10 @@
       <c r="F97" s="14"/>
       <c r="G97" s="13"/>
       <c r="H97" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="J97" s="13"/>
       <c r="K97" s="13"/>
@@ -15324,7 +15324,7 @@
       <c r="Y97" s="13"/>
       <c r="Z97" s="13"/>
       <c r="AA97" s="11" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AB97" s="13"/>
       <c r="AC97" s="13"/>
@@ -15339,10 +15339,10 @@
       <c r="F98" s="14"/>
       <c r="G98" s="13"/>
       <c r="H98" s="11" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="J98" s="13"/>
       <c r="K98" s="13"/>
@@ -15362,7 +15362,7 @@
       <c r="Y98" s="13"/>
       <c r="Z98" s="13"/>
       <c r="AA98" s="11" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="AB98" s="13"/>
       <c r="AC98" s="13"/>
@@ -15377,10 +15377,10 @@
       <c r="F99" s="14"/>
       <c r="G99" s="13"/>
       <c r="H99" s="11" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="J99" s="13"/>
       <c r="K99" s="13"/>
@@ -15400,7 +15400,7 @@
       <c r="Y99" s="13"/>
       <c r="Z99" s="13"/>
       <c r="AA99" s="11" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="AB99" s="13"/>
       <c r="AC99" s="13"/>
@@ -15415,10 +15415,10 @@
       <c r="F100" s="14"/>
       <c r="G100" s="13"/>
       <c r="H100" s="11" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="J100" s="13"/>
       <c r="K100" s="13"/>
@@ -15438,7 +15438,7 @@
       <c r="Y100" s="13"/>
       <c r="Z100" s="13"/>
       <c r="AA100" s="11" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="AB100" s="13"/>
       <c r="AC100" s="13"/>
@@ -15453,10 +15453,10 @@
       <c r="F101" s="14"/>
       <c r="G101" s="13"/>
       <c r="H101" s="11" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="J101" s="13"/>
       <c r="K101" s="13"/>
@@ -15476,7 +15476,7 @@
       <c r="Y101" s="13"/>
       <c r="Z101" s="13"/>
       <c r="AA101" s="11" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="AB101" s="13"/>
       <c r="AC101" s="13"/>
@@ -15491,10 +15491,10 @@
       <c r="F102" s="14"/>
       <c r="G102" s="13"/>
       <c r="H102" s="11" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="J102" s="13"/>
       <c r="K102" s="13"/>
@@ -15514,7 +15514,7 @@
       <c r="Y102" s="13"/>
       <c r="Z102" s="13"/>
       <c r="AA102" s="11" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="AB102" s="13"/>
       <c r="AC102" s="13"/>
@@ -15529,10 +15529,10 @@
       <c r="F103" s="14"/>
       <c r="G103" s="13"/>
       <c r="H103" s="11" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="J103" s="13"/>
       <c r="K103" s="13"/>
@@ -15552,7 +15552,7 @@
       <c r="Y103" s="13"/>
       <c r="Z103" s="13"/>
       <c r="AA103" s="11" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="AB103" s="13"/>
       <c r="AC103" s="13"/>
@@ -15567,10 +15567,10 @@
       <c r="F104" s="14"/>
       <c r="G104" s="13"/>
       <c r="H104" s="11" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="J104" s="13"/>
       <c r="K104" s="13"/>
@@ -15590,7 +15590,7 @@
       <c r="Y104" s="13"/>
       <c r="Z104" s="13"/>
       <c r="AA104" s="11" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="AB104" s="13"/>
       <c r="AC104" s="13"/>
@@ -15605,10 +15605,10 @@
       <c r="F105" s="14"/>
       <c r="G105" s="13"/>
       <c r="H105" s="11" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="J105" s="13"/>
       <c r="K105" s="13"/>
@@ -15628,7 +15628,7 @@
       <c r="Y105" s="13"/>
       <c r="Z105" s="13"/>
       <c r="AA105" s="11" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="AB105" s="13"/>
       <c r="AC105" s="13"/>
@@ -15643,10 +15643,10 @@
       <c r="F106" s="14"/>
       <c r="G106" s="13"/>
       <c r="H106" s="11" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="J106" s="13"/>
       <c r="K106" s="13"/>
@@ -15666,7 +15666,7 @@
       <c r="Y106" s="13"/>
       <c r="Z106" s="13"/>
       <c r="AA106" s="11" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="AB106" s="13"/>
       <c r="AC106" s="13"/>
@@ -15681,10 +15681,10 @@
       <c r="F107" s="14"/>
       <c r="G107" s="13"/>
       <c r="H107" s="11" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="J107" s="13"/>
       <c r="K107" s="13"/>
@@ -15704,7 +15704,7 @@
       <c r="Y107" s="13"/>
       <c r="Z107" s="13"/>
       <c r="AA107" s="11" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="AB107" s="13"/>
       <c r="AC107" s="13"/>
@@ -15719,10 +15719,10 @@
       <c r="F108" s="14"/>
       <c r="G108" s="13"/>
       <c r="H108" s="11" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="J108" s="13"/>
       <c r="K108" s="13"/>
@@ -15742,7 +15742,7 @@
       <c r="Y108" s="13"/>
       <c r="Z108" s="13"/>
       <c r="AA108" s="11" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="AB108" s="13"/>
       <c r="AC108" s="13"/>
@@ -15757,10 +15757,10 @@
       <c r="F109" s="14"/>
       <c r="G109" s="13"/>
       <c r="H109" s="11" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="J109" s="13"/>
       <c r="K109" s="13"/>
@@ -15780,7 +15780,7 @@
       <c r="Y109" s="13"/>
       <c r="Z109" s="13"/>
       <c r="AA109" s="11" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AB109" s="13"/>
       <c r="AC109" s="13"/>
@@ -15795,10 +15795,10 @@
       <c r="F110" s="14"/>
       <c r="G110" s="13"/>
       <c r="H110" s="11" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="I110" s="12" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="J110" s="13"/>
       <c r="K110" s="13"/>
@@ -15818,7 +15818,7 @@
       <c r="Y110" s="13"/>
       <c r="Z110" s="13"/>
       <c r="AA110" s="11" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="AB110" s="13"/>
       <c r="AC110" s="13"/>
@@ -15833,10 +15833,10 @@
       <c r="F111" s="14"/>
       <c r="G111" s="13"/>
       <c r="H111" s="11" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="J111" s="13"/>
       <c r="K111" s="13"/>
@@ -15856,7 +15856,7 @@
       <c r="Y111" s="13"/>
       <c r="Z111" s="13"/>
       <c r="AA111" s="11" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="AB111" s="13"/>
       <c r="AC111" s="13"/>
@@ -15871,10 +15871,10 @@
       <c r="F112" s="14"/>
       <c r="G112" s="13"/>
       <c r="H112" s="11" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="I112" s="12" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J112" s="13"/>
       <c r="K112" s="13"/>
@@ -15894,7 +15894,7 @@
       <c r="Y112" s="13"/>
       <c r="Z112" s="13"/>
       <c r="AA112" s="11" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="AB112" s="13"/>
       <c r="AC112" s="13"/>
@@ -15909,10 +15909,10 @@
       <c r="F113" s="14"/>
       <c r="G113" s="13"/>
       <c r="H113" s="11" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J113" s="13"/>
       <c r="K113" s="13"/>
@@ -15932,7 +15932,7 @@
       <c r="Y113" s="13"/>
       <c r="Z113" s="13"/>
       <c r="AA113" s="11" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="AB113" s="13"/>
       <c r="AC113" s="13"/>
@@ -15947,10 +15947,10 @@
       <c r="F114" s="14"/>
       <c r="G114" s="13"/>
       <c r="H114" s="11" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="J114" s="13"/>
       <c r="K114" s="13"/>
@@ -15970,7 +15970,7 @@
       <c r="Y114" s="13"/>
       <c r="Z114" s="13"/>
       <c r="AA114" s="11" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="AB114" s="13"/>
       <c r="AC114" s="13"/>
@@ -15985,10 +15985,10 @@
       <c r="F115" s="14"/>
       <c r="G115" s="13"/>
       <c r="H115" s="11" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="J115" s="13"/>
       <c r="K115" s="13"/>
@@ -16008,7 +16008,7 @@
       <c r="Y115" s="13"/>
       <c r="Z115" s="13"/>
       <c r="AA115" s="11" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="AB115" s="13"/>
       <c r="AC115" s="13"/>
@@ -16023,10 +16023,10 @@
       <c r="F116" s="14"/>
       <c r="G116" s="13"/>
       <c r="H116" s="11" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="I116" s="12" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="J116" s="13"/>
       <c r="K116" s="13"/>
@@ -16046,7 +16046,7 @@
       <c r="Y116" s="13"/>
       <c r="Z116" s="13"/>
       <c r="AA116" s="11" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="AB116" s="13"/>
       <c r="AC116" s="13"/>
@@ -16061,10 +16061,10 @@
       <c r="F117" s="14"/>
       <c r="G117" s="13"/>
       <c r="H117" s="11" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="J117" s="13"/>
       <c r="K117" s="13"/>
@@ -16084,7 +16084,7 @@
       <c r="Y117" s="13"/>
       <c r="Z117" s="13"/>
       <c r="AA117" s="11" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="AB117" s="13"/>
       <c r="AC117" s="13"/>
@@ -16099,10 +16099,10 @@
       <c r="F118" s="14"/>
       <c r="G118" s="13"/>
       <c r="H118" s="11" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="I118" s="12" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="J118" s="13"/>
       <c r="K118" s="13"/>
@@ -16122,7 +16122,7 @@
       <c r="Y118" s="13"/>
       <c r="Z118" s="13"/>
       <c r="AA118" s="11" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="AB118" s="13"/>
       <c r="AC118" s="13"/>
@@ -16137,10 +16137,10 @@
       <c r="F119" s="14"/>
       <c r="G119" s="13"/>
       <c r="H119" s="11" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="I119" s="12" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="J119" s="13"/>
       <c r="K119" s="13"/>
@@ -16160,7 +16160,7 @@
       <c r="Y119" s="13"/>
       <c r="Z119" s="13"/>
       <c r="AA119" s="11" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AB119" s="13"/>
       <c r="AC119" s="13"/>
@@ -16175,10 +16175,10 @@
       <c r="F120" s="14"/>
       <c r="G120" s="13"/>
       <c r="H120" s="11" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="I120" s="12" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="J120" s="13"/>
       <c r="K120" s="13"/>
@@ -16198,7 +16198,7 @@
       <c r="Y120" s="13"/>
       <c r="Z120" s="13"/>
       <c r="AA120" s="11" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="AB120" s="13"/>
       <c r="AC120" s="13"/>
@@ -16213,10 +16213,10 @@
       <c r="F121" s="14"/>
       <c r="G121" s="13"/>
       <c r="H121" s="11" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="I121" s="12" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="J121" s="13"/>
       <c r="K121" s="13"/>
@@ -16236,7 +16236,7 @@
       <c r="Y121" s="13"/>
       <c r="Z121" s="13"/>
       <c r="AA121" s="11" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="AB121" s="13"/>
       <c r="AC121" s="13"/>
@@ -16251,10 +16251,10 @@
       <c r="F122" s="14"/>
       <c r="G122" s="13"/>
       <c r="H122" s="11" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="I122" s="12" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="J122" s="13"/>
       <c r="K122" s="13"/>
@@ -16274,7 +16274,7 @@
       <c r="Y122" s="13"/>
       <c r="Z122" s="13"/>
       <c r="AA122" s="11" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="AB122" s="13"/>
       <c r="AC122" s="13"/>
@@ -16289,10 +16289,10 @@
       <c r="F123" s="14"/>
       <c r="G123" s="13"/>
       <c r="H123" s="11" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="I123" s="12" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="J123" s="13"/>
       <c r="K123" s="13"/>
@@ -16312,7 +16312,7 @@
       <c r="Y123" s="13"/>
       <c r="Z123" s="13"/>
       <c r="AA123" s="11" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="AB123" s="13"/>
       <c r="AC123" s="13"/>
@@ -16327,10 +16327,10 @@
       <c r="F124" s="14"/>
       <c r="G124" s="13"/>
       <c r="H124" s="11" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13"/>
@@ -16350,7 +16350,7 @@
       <c r="Y124" s="13"/>
       <c r="Z124" s="13"/>
       <c r="AA124" s="11" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="AB124" s="13"/>
       <c r="AC124" s="13"/>
@@ -16365,10 +16365,10 @@
       <c r="F125" s="14"/>
       <c r="G125" s="13"/>
       <c r="H125" s="11" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="I125" s="12" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="J125" s="13"/>
       <c r="K125" s="13"/>
@@ -16388,7 +16388,7 @@
       <c r="Y125" s="13"/>
       <c r="Z125" s="13"/>
       <c r="AA125" s="11" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="AB125" s="13"/>
       <c r="AC125" s="13"/>
@@ -16403,10 +16403,10 @@
       <c r="F126" s="14"/>
       <c r="G126" s="13"/>
       <c r="H126" s="11" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="I126" s="12" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="J126" s="13"/>
       <c r="K126" s="13"/>
@@ -16426,7 +16426,7 @@
       <c r="Y126" s="13"/>
       <c r="Z126" s="13"/>
       <c r="AA126" s="11" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="AB126" s="13"/>
       <c r="AC126" s="13"/>
@@ -16441,10 +16441,10 @@
       <c r="F127" s="14"/>
       <c r="G127" s="13"/>
       <c r="H127" s="11" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="I127" s="12" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="J127" s="13"/>
       <c r="K127" s="13"/>
@@ -16464,7 +16464,7 @@
       <c r="Y127" s="13"/>
       <c r="Z127" s="13"/>
       <c r="AA127" s="11" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="AB127" s="13"/>
       <c r="AC127" s="13"/>
@@ -16479,10 +16479,10 @@
       <c r="F128" s="14"/>
       <c r="G128" s="13"/>
       <c r="H128" s="11" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="I128" s="12" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="J128" s="13"/>
       <c r="K128" s="13"/>
@@ -16502,7 +16502,7 @@
       <c r="Y128" s="13"/>
       <c r="Z128" s="13"/>
       <c r="AA128" s="11" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AB128" s="13"/>
       <c r="AC128" s="13"/>
@@ -16517,10 +16517,10 @@
       <c r="F129" s="14"/>
       <c r="G129" s="13"/>
       <c r="H129" s="11" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="I129" s="12" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="J129" s="13"/>
       <c r="K129" s="13"/>
@@ -16540,7 +16540,7 @@
       <c r="Y129" s="13"/>
       <c r="Z129" s="13"/>
       <c r="AA129" s="11" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="AB129" s="13"/>
       <c r="AC129" s="13"/>
@@ -16555,10 +16555,10 @@
       <c r="F130" s="14"/>
       <c r="G130" s="13"/>
       <c r="H130" s="11" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="I130" s="12" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="J130" s="13"/>
       <c r="K130" s="13"/>
@@ -16578,7 +16578,7 @@
       <c r="Y130" s="13"/>
       <c r="Z130" s="13"/>
       <c r="AA130" s="11" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="AB130" s="13"/>
       <c r="AC130" s="13"/>
@@ -16593,10 +16593,10 @@
       <c r="F131" s="14"/>
       <c r="G131" s="13"/>
       <c r="H131" s="11" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="I131" s="12" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="J131" s="13"/>
       <c r="K131" s="13"/>
@@ -16616,7 +16616,7 @@
       <c r="Y131" s="13"/>
       <c r="Z131" s="13"/>
       <c r="AA131" s="11" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="AB131" s="13"/>
       <c r="AC131" s="13"/>
@@ -16631,10 +16631,10 @@
       <c r="F132" s="14"/>
       <c r="G132" s="13"/>
       <c r="H132" s="11" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="I132" s="12" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="J132" s="13"/>
       <c r="K132" s="13"/>
@@ -16654,7 +16654,7 @@
       <c r="Y132" s="13"/>
       <c r="Z132" s="13"/>
       <c r="AA132" s="11" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="AB132" s="13"/>
       <c r="AC132" s="13"/>
@@ -16669,10 +16669,10 @@
       <c r="F133" s="14"/>
       <c r="G133" s="13"/>
       <c r="H133" s="11" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="I133" s="12" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="J133" s="13"/>
       <c r="K133" s="13"/>
@@ -16692,7 +16692,7 @@
       <c r="Y133" s="13"/>
       <c r="Z133" s="13"/>
       <c r="AA133" s="11" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="AB133" s="13"/>
       <c r="AC133" s="13"/>
@@ -16707,10 +16707,10 @@
       <c r="F134" s="14"/>
       <c r="G134" s="13"/>
       <c r="H134" s="11" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="J134" s="13"/>
       <c r="K134" s="13"/>
@@ -16730,7 +16730,7 @@
       <c r="Y134" s="13"/>
       <c r="Z134" s="13"/>
       <c r="AA134" s="11" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="AB134" s="13"/>
       <c r="AC134" s="13"/>
@@ -16745,10 +16745,10 @@
       <c r="F135" s="14"/>
       <c r="G135" s="13"/>
       <c r="H135" s="11" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="J135" s="13"/>
       <c r="K135" s="13"/>
@@ -16768,7 +16768,7 @@
       <c r="Y135" s="13"/>
       <c r="Z135" s="13"/>
       <c r="AA135" s="11" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="AB135" s="13"/>
       <c r="AC135" s="13"/>
@@ -16783,10 +16783,10 @@
       <c r="F136" s="14"/>
       <c r="G136" s="13"/>
       <c r="H136" s="11" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="I136" s="12" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="J136" s="13"/>
       <c r="K136" s="13"/>
@@ -16806,7 +16806,7 @@
       <c r="Y136" s="13"/>
       <c r="Z136" s="13"/>
       <c r="AA136" s="11" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AB136" s="13"/>
       <c r="AC136" s="13"/>
@@ -16821,10 +16821,10 @@
       <c r="F137" s="14"/>
       <c r="G137" s="13"/>
       <c r="H137" s="11" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="I137" s="12" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="J137" s="13"/>
       <c r="K137" s="13"/>
@@ -16844,7 +16844,7 @@
       <c r="Y137" s="13"/>
       <c r="Z137" s="13"/>
       <c r="AA137" s="11" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AB137" s="13"/>
       <c r="AC137" s="13"/>
@@ -16859,10 +16859,10 @@
       <c r="F138" s="14"/>
       <c r="G138" s="13"/>
       <c r="H138" s="11" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I138" s="12" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="J138" s="13"/>
       <c r="K138" s="13"/>
@@ -16882,7 +16882,7 @@
       <c r="Y138" s="13"/>
       <c r="Z138" s="13"/>
       <c r="AA138" s="11" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="AB138" s="13"/>
       <c r="AC138" s="13"/>
@@ -16897,10 +16897,10 @@
       <c r="F139" s="14"/>
       <c r="G139" s="13"/>
       <c r="H139" s="11" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="J139" s="13"/>
       <c r="K139" s="13"/>
@@ -16920,7 +16920,7 @@
       <c r="Y139" s="13"/>
       <c r="Z139" s="13"/>
       <c r="AA139" s="11" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="AB139" s="13"/>
       <c r="AC139" s="13"/>
@@ -16935,10 +16935,10 @@
       <c r="F140" s="14"/>
       <c r="G140" s="13"/>
       <c r="H140" s="11" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="J140" s="13"/>
       <c r="K140" s="13"/>
@@ -16958,7 +16958,7 @@
       <c r="Y140" s="13"/>
       <c r="Z140" s="13"/>
       <c r="AA140" s="11" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="AB140" s="13"/>
       <c r="AC140" s="13"/>
@@ -16973,10 +16973,10 @@
       <c r="F141" s="14"/>
       <c r="G141" s="13"/>
       <c r="H141" s="11" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="I141" s="12" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="J141" s="13"/>
       <c r="K141" s="13"/>
@@ -16996,7 +16996,7 @@
       <c r="Y141" s="13"/>
       <c r="Z141" s="13"/>
       <c r="AA141" s="11" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="AB141" s="13"/>
       <c r="AC141" s="13"/>
@@ -17011,10 +17011,10 @@
       <c r="F142" s="14"/>
       <c r="G142" s="13"/>
       <c r="H142" s="11" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="J142" s="13"/>
       <c r="K142" s="13"/>
@@ -17034,7 +17034,7 @@
       <c r="Y142" s="13"/>
       <c r="Z142" s="13"/>
       <c r="AA142" s="11" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="AB142" s="13"/>
       <c r="AC142" s="13"/>
@@ -17049,10 +17049,10 @@
       <c r="F143" s="14"/>
       <c r="G143" s="13"/>
       <c r="H143" s="11" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="J143" s="13"/>
       <c r="K143" s="13"/>
@@ -17072,7 +17072,7 @@
       <c r="Y143" s="13"/>
       <c r="Z143" s="13"/>
       <c r="AA143" s="11" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="AB143" s="13"/>
       <c r="AC143" s="13"/>
@@ -17087,10 +17087,10 @@
       <c r="F144" s="14"/>
       <c r="G144" s="13"/>
       <c r="H144" s="11" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="J144" s="13"/>
       <c r="K144" s="13"/>
@@ -17110,7 +17110,7 @@
       <c r="Y144" s="13"/>
       <c r="Z144" s="13"/>
       <c r="AA144" s="11" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="AB144" s="13"/>
       <c r="AC144" s="13"/>
@@ -17125,10 +17125,10 @@
       <c r="F145" s="14"/>
       <c r="G145" s="13"/>
       <c r="H145" s="11" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="J145" s="13"/>
       <c r="K145" s="13"/>
@@ -17148,7 +17148,7 @@
       <c r="Y145" s="13"/>
       <c r="Z145" s="13"/>
       <c r="AA145" s="11" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="AB145" s="13"/>
       <c r="AC145" s="13"/>
@@ -17163,10 +17163,10 @@
       <c r="F146" s="14"/>
       <c r="G146" s="13"/>
       <c r="H146" s="11" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="J146" s="13"/>
       <c r="K146" s="13"/>
@@ -17186,7 +17186,7 @@
       <c r="Y146" s="13"/>
       <c r="Z146" s="13"/>
       <c r="AA146" s="11" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="AB146" s="13"/>
       <c r="AC146" s="13"/>
@@ -17201,10 +17201,10 @@
       <c r="F147" s="14"/>
       <c r="G147" s="13"/>
       <c r="H147" s="11" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="J147" s="13"/>
       <c r="K147" s="13"/>
@@ -17224,7 +17224,7 @@
       <c r="Y147" s="13"/>
       <c r="Z147" s="13"/>
       <c r="AA147" s="11" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="AB147" s="13"/>
       <c r="AC147" s="13"/>
@@ -17239,10 +17239,10 @@
       <c r="F148" s="14"/>
       <c r="G148" s="13"/>
       <c r="H148" s="11" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="J148" s="13"/>
       <c r="K148" s="13"/>
@@ -17262,7 +17262,7 @@
       <c r="Y148" s="13"/>
       <c r="Z148" s="13"/>
       <c r="AA148" s="11" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="AB148" s="13"/>
       <c r="AC148" s="13"/>
@@ -17277,10 +17277,10 @@
       <c r="F149" s="14"/>
       <c r="G149" s="13"/>
       <c r="H149" s="11" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="I149" s="12" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="J149" s="13"/>
       <c r="K149" s="13"/>
@@ -17300,7 +17300,7 @@
       <c r="Y149" s="13"/>
       <c r="Z149" s="13"/>
       <c r="AA149" s="11" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="AB149" s="13"/>
       <c r="AC149" s="13"/>
@@ -17315,10 +17315,10 @@
       <c r="F150" s="14"/>
       <c r="G150" s="13"/>
       <c r="H150" s="11" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="J150" s="13"/>
       <c r="K150" s="13"/>
@@ -17338,7 +17338,7 @@
       <c r="Y150" s="13"/>
       <c r="Z150" s="13"/>
       <c r="AA150" s="11" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="AB150" s="13"/>
       <c r="AC150" s="13"/>
@@ -17353,10 +17353,10 @@
       <c r="F151" s="14"/>
       <c r="G151" s="13"/>
       <c r="H151" s="11" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="J151" s="13"/>
       <c r="K151" s="13"/>
@@ -17376,7 +17376,7 @@
       <c r="Y151" s="13"/>
       <c r="Z151" s="13"/>
       <c r="AA151" s="11" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="AB151" s="13"/>
       <c r="AC151" s="13"/>
@@ -17391,10 +17391,10 @@
       <c r="F152" s="14"/>
       <c r="G152" s="13"/>
       <c r="H152" s="11" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="J152" s="13"/>
       <c r="K152" s="13"/>
@@ -17414,7 +17414,7 @@
       <c r="Y152" s="13"/>
       <c r="Z152" s="13"/>
       <c r="AA152" s="11" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="AB152" s="13"/>
       <c r="AC152" s="13"/>
@@ -17429,10 +17429,10 @@
       <c r="F153" s="14"/>
       <c r="G153" s="13"/>
       <c r="H153" s="11" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J153" s="13"/>
       <c r="K153" s="13"/>
@@ -17452,7 +17452,7 @@
       <c r="Y153" s="13"/>
       <c r="Z153" s="13"/>
       <c r="AA153" s="11" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="AB153" s="13"/>
       <c r="AC153" s="13"/>
@@ -17467,10 +17467,10 @@
       <c r="F154" s="14"/>
       <c r="G154" s="13"/>
       <c r="H154" s="11" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="J154" s="13"/>
       <c r="K154" s="13"/>
@@ -17490,7 +17490,7 @@
       <c r="Y154" s="13"/>
       <c r="Z154" s="13"/>
       <c r="AA154" s="11" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="AB154" s="13"/>
       <c r="AC154" s="13"/>
@@ -17505,10 +17505,10 @@
       <c r="F155" s="14"/>
       <c r="G155" s="13"/>
       <c r="H155" s="11" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="J155" s="13"/>
       <c r="K155" s="13"/>
@@ -17528,7 +17528,7 @@
       <c r="Y155" s="13"/>
       <c r="Z155" s="13"/>
       <c r="AA155" s="11" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="AB155" s="13"/>
       <c r="AC155" s="13"/>
@@ -17543,10 +17543,10 @@
       <c r="F156" s="14"/>
       <c r="G156" s="13"/>
       <c r="H156" s="11" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="J156" s="13"/>
       <c r="K156" s="13"/>
@@ -17566,7 +17566,7 @@
       <c r="Y156" s="13"/>
       <c r="Z156" s="13"/>
       <c r="AA156" s="11" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="AB156" s="13"/>
       <c r="AC156" s="13"/>
@@ -17581,10 +17581,10 @@
       <c r="F157" s="14"/>
       <c r="G157" s="13"/>
       <c r="H157" s="11" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="J157" s="13"/>
       <c r="K157" s="13"/>
@@ -17604,7 +17604,7 @@
       <c r="Y157" s="13"/>
       <c r="Z157" s="13"/>
       <c r="AA157" s="11" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="AB157" s="13"/>
       <c r="AC157" s="13"/>
@@ -17619,10 +17619,10 @@
       <c r="F158" s="14"/>
       <c r="G158" s="13"/>
       <c r="H158" s="11" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="J158" s="13"/>
       <c r="K158" s="13"/>
@@ -17642,7 +17642,7 @@
       <c r="Y158" s="13"/>
       <c r="Z158" s="13"/>
       <c r="AA158" s="11" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="AB158" s="13"/>
       <c r="AC158" s="13"/>
@@ -17657,10 +17657,10 @@
       <c r="F159" s="14"/>
       <c r="G159" s="13"/>
       <c r="H159" s="11" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="J159" s="13"/>
       <c r="K159" s="13"/>
@@ -17680,7 +17680,7 @@
       <c r="Y159" s="13"/>
       <c r="Z159" s="13"/>
       <c r="AA159" s="11" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="AB159" s="13"/>
       <c r="AC159" s="13"/>
@@ -17695,10 +17695,10 @@
       <c r="F160" s="14"/>
       <c r="G160" s="13"/>
       <c r="H160" s="11" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="J160" s="13"/>
       <c r="K160" s="13"/>
@@ -17718,7 +17718,7 @@
       <c r="Y160" s="13"/>
       <c r="Z160" s="13"/>
       <c r="AA160" s="11" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="AB160" s="13"/>
       <c r="AC160" s="13"/>
@@ -17733,10 +17733,10 @@
       <c r="F161" s="14"/>
       <c r="G161" s="13"/>
       <c r="H161" s="11" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="J161" s="13"/>
       <c r="K161" s="13"/>
@@ -17756,7 +17756,7 @@
       <c r="Y161" s="13"/>
       <c r="Z161" s="13"/>
       <c r="AA161" s="11" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="AB161" s="13"/>
       <c r="AC161" s="13"/>
@@ -17771,10 +17771,10 @@
       <c r="F162" s="14"/>
       <c r="G162" s="13"/>
       <c r="H162" s="11" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="J162" s="13"/>
       <c r="K162" s="13"/>
@@ -17794,7 +17794,7 @@
       <c r="Y162" s="13"/>
       <c r="Z162" s="13"/>
       <c r="AA162" s="11" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="AB162" s="13"/>
       <c r="AC162" s="13"/>
@@ -17809,10 +17809,10 @@
       <c r="F163" s="14"/>
       <c r="G163" s="13"/>
       <c r="H163" s="11" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I163" s="11" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="J163" s="13"/>
       <c r="K163" s="13"/>
@@ -17832,7 +17832,7 @@
       <c r="Y163" s="13"/>
       <c r="Z163" s="13"/>
       <c r="AA163" s="11" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="AB163" s="13"/>
       <c r="AC163" s="13"/>
@@ -17847,10 +17847,10 @@
       <c r="F164" s="14"/>
       <c r="G164" s="13"/>
       <c r="H164" s="11" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="J164" s="13"/>
       <c r="K164" s="13"/>
@@ -17870,7 +17870,7 @@
       <c r="Y164" s="13"/>
       <c r="Z164" s="13"/>
       <c r="AA164" s="11" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="AB164" s="13"/>
       <c r="AC164" s="13"/>
@@ -17885,10 +17885,10 @@
       <c r="F165" s="14"/>
       <c r="G165" s="13"/>
       <c r="H165" s="11" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="I165" s="11" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="J165" s="13"/>
       <c r="K165" s="13"/>
@@ -17908,7 +17908,7 @@
       <c r="Y165" s="13"/>
       <c r="Z165" s="13"/>
       <c r="AA165" s="11" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="AB165" s="13"/>
       <c r="AC165" s="13"/>
@@ -17923,7 +17923,7 @@
       <c r="F166" s="14"/>
       <c r="G166" s="13"/>
       <c r="H166" s="11" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="I166" s="13"/>
       <c r="J166" s="13"/>
@@ -17944,7 +17944,7 @@
       <c r="Y166" s="13"/>
       <c r="Z166" s="13"/>
       <c r="AA166" s="11" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="AB166" s="13"/>
       <c r="AC166" s="13"/>
@@ -17959,7 +17959,7 @@
       <c r="F167" s="14"/>
       <c r="G167" s="13"/>
       <c r="H167" s="11" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I167" s="13"/>
       <c r="J167" s="13"/>
@@ -17980,7 +17980,7 @@
       <c r="Y167" s="13"/>
       <c r="Z167" s="13"/>
       <c r="AA167" s="11" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="AB167" s="13"/>
       <c r="AC167" s="13"/>
@@ -17995,7 +17995,7 @@
       <c r="F168" s="14"/>
       <c r="G168" s="13"/>
       <c r="H168" s="11" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I168" s="13"/>
       <c r="J168" s="13"/>
@@ -18016,7 +18016,7 @@
       <c r="Y168" s="13"/>
       <c r="Z168" s="13"/>
       <c r="AA168" s="11" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="AB168" s="13"/>
       <c r="AC168" s="13"/>
@@ -18031,7 +18031,7 @@
       <c r="F169" s="14"/>
       <c r="G169" s="13"/>
       <c r="H169" s="11" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="I169" s="13"/>
       <c r="J169" s="13"/>
@@ -18052,7 +18052,7 @@
       <c r="Y169" s="13"/>
       <c r="Z169" s="13"/>
       <c r="AA169" s="11" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="AB169" s="13"/>
       <c r="AC169" s="13"/>
@@ -18067,7 +18067,7 @@
       <c r="F170" s="14"/>
       <c r="G170" s="13"/>
       <c r="H170" s="11" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I170" s="13"/>
       <c r="J170" s="13"/>
@@ -18088,7 +18088,7 @@
       <c r="Y170" s="13"/>
       <c r="Z170" s="13"/>
       <c r="AA170" s="11" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="AB170" s="13"/>
       <c r="AC170" s="13"/>
@@ -18103,7 +18103,7 @@
       <c r="F171" s="14"/>
       <c r="G171" s="13"/>
       <c r="H171" s="11" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="I171" s="13"/>
       <c r="J171" s="13"/>
@@ -18137,7 +18137,7 @@
       <c r="F172" s="14"/>
       <c r="G172" s="13"/>
       <c r="H172" s="11" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I172" s="13"/>
       <c r="J172" s="13"/>
@@ -18171,7 +18171,7 @@
       <c r="F173" s="14"/>
       <c r="G173" s="13"/>
       <c r="H173" s="11" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="I173" s="13"/>
       <c r="J173" s="13"/>
@@ -18205,7 +18205,7 @@
       <c r="F174" s="14"/>
       <c r="G174" s="13"/>
       <c r="H174" s="11" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I174" s="13"/>
       <c r="J174" s="13"/>
@@ -18239,7 +18239,7 @@
       <c r="F175" s="14"/>
       <c r="G175" s="13"/>
       <c r="H175" s="11" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I175" s="13"/>
       <c r="J175" s="13"/>
@@ -18273,7 +18273,7 @@
       <c r="F176" s="14"/>
       <c r="G176" s="13"/>
       <c r="H176" s="11" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I176" s="13"/>
       <c r="J176" s="13"/>
@@ -18307,7 +18307,7 @@
       <c r="F177" s="14"/>
       <c r="G177" s="13"/>
       <c r="H177" s="11" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="I177" s="13"/>
       <c r="J177" s="13"/>
@@ -18341,7 +18341,7 @@
       <c r="F178" s="14"/>
       <c r="G178" s="13"/>
       <c r="H178" s="11" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="I178" s="13"/>
       <c r="J178" s="13"/>
@@ -18375,7 +18375,7 @@
       <c r="F179" s="14"/>
       <c r="G179" s="13"/>
       <c r="H179" s="11" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="I179" s="13"/>
       <c r="J179" s="13"/>
@@ -18409,7 +18409,7 @@
       <c r="F180" s="14"/>
       <c r="G180" s="13"/>
       <c r="H180" s="11" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="I180" s="13"/>
       <c r="J180" s="13"/>
@@ -18443,7 +18443,7 @@
       <c r="F181" s="14"/>
       <c r="G181" s="13"/>
       <c r="H181" s="11" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="I181" s="13"/>
       <c r="J181" s="13"/>
@@ -18477,7 +18477,7 @@
       <c r="F182" s="14"/>
       <c r="G182" s="13"/>
       <c r="H182" s="11" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="I182" s="13"/>
       <c r="J182" s="13"/>
@@ -18511,7 +18511,7 @@
       <c r="F183" s="14"/>
       <c r="G183" s="13"/>
       <c r="H183" s="11" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="I183" s="13"/>
       <c r="J183" s="13"/>
@@ -18545,7 +18545,7 @@
       <c r="F184" s="14"/>
       <c r="G184" s="13"/>
       <c r="H184" s="11" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I184" s="13"/>
       <c r="J184" s="13"/>
@@ -18579,7 +18579,7 @@
       <c r="F185" s="14"/>
       <c r="G185" s="13"/>
       <c r="H185" s="11" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I185" s="13"/>
       <c r="J185" s="13"/>
@@ -18613,7 +18613,7 @@
       <c r="F186" s="14"/>
       <c r="G186" s="13"/>
       <c r="H186" s="11" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I186" s="13"/>
       <c r="J186" s="13"/>
@@ -18647,7 +18647,7 @@
       <c r="F187" s="14"/>
       <c r="G187" s="13"/>
       <c r="H187" s="11" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="I187" s="13"/>
       <c r="J187" s="13"/>
@@ -18681,7 +18681,7 @@
       <c r="F188" s="14"/>
       <c r="G188" s="13"/>
       <c r="H188" s="11" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I188" s="13"/>
       <c r="J188" s="13"/>
@@ -18715,7 +18715,7 @@
       <c r="F189" s="14"/>
       <c r="G189" s="13"/>
       <c r="H189" s="11" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I189" s="13"/>
       <c r="J189" s="13"/>
@@ -18749,7 +18749,7 @@
       <c r="F190" s="14"/>
       <c r="G190" s="13"/>
       <c r="H190" s="11" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I190" s="13"/>
       <c r="J190" s="13"/>
@@ -18783,7 +18783,7 @@
       <c r="F191" s="14"/>
       <c r="G191" s="13"/>
       <c r="H191" s="11" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I191" s="13"/>
       <c r="J191" s="13"/>
@@ -18817,7 +18817,7 @@
       <c r="F192" s="14"/>
       <c r="G192" s="13"/>
       <c r="H192" s="11" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I192" s="13"/>
       <c r="J192" s="13"/>
@@ -18851,7 +18851,7 @@
       <c r="F193" s="14"/>
       <c r="G193" s="13"/>
       <c r="H193" s="11" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="I193" s="13"/>
       <c r="J193" s="13"/>
@@ -18885,7 +18885,7 @@
       <c r="F194" s="14"/>
       <c r="G194" s="13"/>
       <c r="H194" s="11" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="I194" s="13"/>
       <c r="J194" s="13"/>
@@ -18919,7 +18919,7 @@
       <c r="F195" s="14"/>
       <c r="G195" s="13"/>
       <c r="H195" s="11" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="I195" s="13"/>
       <c r="J195" s="13"/>
@@ -18953,7 +18953,7 @@
       <c r="F196" s="14"/>
       <c r="G196" s="13"/>
       <c r="H196" s="11" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="I196" s="13"/>
       <c r="J196" s="13"/>
@@ -18987,7 +18987,7 @@
       <c r="F197" s="14"/>
       <c r="G197" s="13"/>
       <c r="H197" s="11" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I197" s="13"/>
       <c r="J197" s="13"/>
@@ -19021,7 +19021,7 @@
       <c r="F198" s="14"/>
       <c r="G198" s="13"/>
       <c r="H198" s="11" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="I198" s="13"/>
       <c r="J198" s="13"/>
@@ -19055,7 +19055,7 @@
       <c r="F199" s="14"/>
       <c r="G199" s="13"/>
       <c r="H199" s="11" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="I199" s="13"/>
       <c r="J199" s="13"/>
@@ -19089,7 +19089,7 @@
       <c r="F200" s="14"/>
       <c r="G200" s="13"/>
       <c r="H200" s="11" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="I200" s="13"/>
       <c r="J200" s="13"/>
@@ -19123,7 +19123,7 @@
       <c r="F201" s="14"/>
       <c r="G201" s="13"/>
       <c r="H201" s="11" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="I201" s="13"/>
       <c r="J201" s="13"/>
@@ -19157,7 +19157,7 @@
       <c r="F202" s="14"/>
       <c r="G202" s="13"/>
       <c r="H202" s="11" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="I202" s="13"/>
       <c r="J202" s="13"/>
@@ -19191,7 +19191,7 @@
       <c r="F203" s="14"/>
       <c r="G203" s="13"/>
       <c r="H203" s="11" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="I203" s="13"/>
       <c r="J203" s="13"/>
@@ -19225,7 +19225,7 @@
       <c r="F204" s="14"/>
       <c r="G204" s="13"/>
       <c r="H204" s="11" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="I204" s="13"/>
       <c r="J204" s="13"/>
@@ -19259,7 +19259,7 @@
       <c r="F205" s="14"/>
       <c r="G205" s="13"/>
       <c r="H205" s="11" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="I205" s="13"/>
       <c r="J205" s="13"/>
@@ -19293,7 +19293,7 @@
       <c r="F206" s="14"/>
       <c r="G206" s="13"/>
       <c r="H206" s="11" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="I206" s="13"/>
       <c r="J206" s="13"/>
@@ -19327,7 +19327,7 @@
       <c r="F207" s="14"/>
       <c r="G207" s="13"/>
       <c r="H207" s="11" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="I207" s="13"/>
       <c r="J207" s="13"/>
@@ -19361,7 +19361,7 @@
       <c r="F208" s="14"/>
       <c r="G208" s="13"/>
       <c r="H208" s="11" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="I208" s="13"/>
       <c r="J208" s="13"/>
@@ -19395,7 +19395,7 @@
       <c r="F209" s="14"/>
       <c r="G209" s="13"/>
       <c r="H209" s="11" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="I209" s="13"/>
       <c r="J209" s="13"/>
@@ -19429,7 +19429,7 @@
       <c r="F210" s="14"/>
       <c r="G210" s="13"/>
       <c r="H210" s="11" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="I210" s="13"/>
       <c r="J210" s="13"/>
@@ -19463,7 +19463,7 @@
       <c r="F211" s="14"/>
       <c r="G211" s="13"/>
       <c r="H211" s="11" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="I211" s="13"/>
       <c r="J211" s="13"/>
@@ -19497,7 +19497,7 @@
       <c r="F212" s="14"/>
       <c r="G212" s="13"/>
       <c r="H212" s="11" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I212" s="13"/>
       <c r="J212" s="13"/>
@@ -19531,7 +19531,7 @@
       <c r="F213" s="14"/>
       <c r="G213" s="13"/>
       <c r="H213" s="11" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="I213" s="13"/>
       <c r="J213" s="13"/>
@@ -19565,7 +19565,7 @@
       <c r="F214" s="14"/>
       <c r="G214" s="13"/>
       <c r="H214" s="11" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I214" s="13"/>
       <c r="J214" s="13"/>
@@ -19599,7 +19599,7 @@
       <c r="F215" s="14"/>
       <c r="G215" s="13"/>
       <c r="H215" s="11" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I215" s="13"/>
       <c r="J215" s="13"/>
@@ -19633,7 +19633,7 @@
       <c r="F216" s="14"/>
       <c r="G216" s="13"/>
       <c r="H216" s="11" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="I216" s="13"/>
       <c r="J216" s="13"/>
@@ -19667,7 +19667,7 @@
       <c r="F217" s="14"/>
       <c r="G217" s="13"/>
       <c r="H217" s="11" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I217" s="13"/>
       <c r="J217" s="13"/>
@@ -19701,7 +19701,7 @@
       <c r="F218" s="14"/>
       <c r="G218" s="13"/>
       <c r="H218" s="11" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="I218" s="13"/>
       <c r="J218" s="13"/>
@@ -19735,7 +19735,7 @@
       <c r="F219" s="14"/>
       <c r="G219" s="13"/>
       <c r="H219" s="11" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I219" s="13"/>
       <c r="J219" s="13"/>
@@ -19769,7 +19769,7 @@
       <c r="F220" s="14"/>
       <c r="G220" s="13"/>
       <c r="H220" s="11" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I220" s="13"/>
       <c r="J220" s="13"/>
@@ -19803,7 +19803,7 @@
       <c r="F221" s="14"/>
       <c r="G221" s="13"/>
       <c r="H221" s="11" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="I221" s="13"/>
       <c r="J221" s="13"/>
@@ -19837,7 +19837,7 @@
       <c r="F222" s="14"/>
       <c r="G222" s="13"/>
       <c r="H222" s="11" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I222" s="13"/>
       <c r="J222" s="13"/>
@@ -19871,7 +19871,7 @@
       <c r="F223" s="14"/>
       <c r="G223" s="13"/>
       <c r="H223" s="11" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="I223" s="13"/>
       <c r="J223" s="13"/>
@@ -19905,7 +19905,7 @@
       <c r="F224" s="14"/>
       <c r="G224" s="13"/>
       <c r="H224" s="11" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I224" s="13"/>
       <c r="J224" s="13"/>
@@ -19939,7 +19939,7 @@
       <c r="F225" s="14"/>
       <c r="G225" s="13"/>
       <c r="H225" s="11" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I225" s="13"/>
       <c r="J225" s="13"/>
@@ -19973,7 +19973,7 @@
       <c r="F226" s="14"/>
       <c r="G226" s="13"/>
       <c r="H226" s="11" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I226" s="13"/>
       <c r="J226" s="13"/>
@@ -20007,7 +20007,7 @@
       <c r="F227" s="14"/>
       <c r="G227" s="13"/>
       <c r="H227" s="11" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="I227" s="13"/>
       <c r="J227" s="13"/>
@@ -20041,7 +20041,7 @@
       <c r="F228" s="14"/>
       <c r="G228" s="13"/>
       <c r="H228" s="11" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="I228" s="13"/>
       <c r="J228" s="13"/>
@@ -20075,7 +20075,7 @@
       <c r="F229" s="14"/>
       <c r="G229" s="13"/>
       <c r="H229" s="11" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="I229" s="13"/>
       <c r="J229" s="13"/>
@@ -20109,7 +20109,7 @@
       <c r="F230" s="14"/>
       <c r="G230" s="13"/>
       <c r="H230" s="11" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="I230" s="13"/>
       <c r="J230" s="13"/>
@@ -20143,7 +20143,7 @@
       <c r="F231" s="14"/>
       <c r="G231" s="13"/>
       <c r="H231" s="11" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="I231" s="13"/>
       <c r="J231" s="13"/>
@@ -20177,7 +20177,7 @@
       <c r="F232" s="14"/>
       <c r="G232" s="13"/>
       <c r="H232" s="11" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I232" s="13"/>
       <c r="J232" s="13"/>
@@ -20211,7 +20211,7 @@
       <c r="F233" s="14"/>
       <c r="G233" s="13"/>
       <c r="H233" s="11" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="I233" s="13"/>
       <c r="J233" s="13"/>
@@ -20245,7 +20245,7 @@
       <c r="F234" s="14"/>
       <c r="G234" s="13"/>
       <c r="H234" s="11" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I234" s="13"/>
       <c r="J234" s="13"/>
@@ -20279,7 +20279,7 @@
       <c r="F235" s="14"/>
       <c r="G235" s="13"/>
       <c r="H235" s="11" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I235" s="13"/>
       <c r="J235" s="13"/>
@@ -20313,7 +20313,7 @@
       <c r="F236" s="14"/>
       <c r="G236" s="13"/>
       <c r="H236" s="11" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="I236" s="13"/>
       <c r="J236" s="13"/>
@@ -20347,7 +20347,7 @@
       <c r="F237" s="14"/>
       <c r="G237" s="13"/>
       <c r="H237" s="11" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I237" s="13"/>
       <c r="J237" s="13"/>
@@ -20381,7 +20381,7 @@
       <c r="F238" s="14"/>
       <c r="G238" s="13"/>
       <c r="H238" s="11" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="I238" s="13"/>
       <c r="J238" s="13"/>
@@ -20415,7 +20415,7 @@
       <c r="F239" s="14"/>
       <c r="G239" s="13"/>
       <c r="H239" s="11" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="I239" s="13"/>
       <c r="J239" s="13"/>
@@ -20449,7 +20449,7 @@
       <c r="F240" s="14"/>
       <c r="G240" s="13"/>
       <c r="H240" s="11" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I240" s="13"/>
       <c r="J240" s="13"/>
@@ -20483,7 +20483,7 @@
       <c r="F241" s="14"/>
       <c r="G241" s="13"/>
       <c r="H241" s="11" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I241" s="13"/>
       <c r="J241" s="13"/>
@@ -20517,7 +20517,7 @@
       <c r="F242" s="14"/>
       <c r="G242" s="13"/>
       <c r="H242" s="11" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I242" s="13"/>
       <c r="J242" s="13"/>
@@ -20551,7 +20551,7 @@
       <c r="F243" s="14"/>
       <c r="G243" s="13"/>
       <c r="H243" s="11" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="I243" s="13"/>
       <c r="J243" s="13"/>
@@ -20585,7 +20585,7 @@
       <c r="F244" s="14"/>
       <c r="G244" s="13"/>
       <c r="H244" s="11" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="I244" s="13"/>
       <c r="J244" s="13"/>
@@ -20619,7 +20619,7 @@
       <c r="F245" s="14"/>
       <c r="G245" s="13"/>
       <c r="H245" s="11" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="I245" s="13"/>
       <c r="J245" s="13"/>
@@ -20653,7 +20653,7 @@
       <c r="F246" s="14"/>
       <c r="G246" s="13"/>
       <c r="H246" s="11" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="I246" s="13"/>
       <c r="J246" s="13"/>
@@ -20687,7 +20687,7 @@
       <c r="F247" s="14"/>
       <c r="G247" s="13"/>
       <c r="H247" s="11" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="I247" s="13"/>
       <c r="J247" s="13"/>
@@ -20721,7 +20721,7 @@
       <c r="F248" s="14"/>
       <c r="G248" s="13"/>
       <c r="H248" s="11" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="I248" s="13"/>
       <c r="J248" s="13"/>
@@ -20755,7 +20755,7 @@
       <c r="F249" s="14"/>
       <c r="G249" s="13"/>
       <c r="H249" s="11" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="I249" s="13"/>
       <c r="J249" s="13"/>
@@ -20789,7 +20789,7 @@
       <c r="F250" s="14"/>
       <c r="G250" s="13"/>
       <c r="H250" s="11" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="I250" s="13"/>
       <c r="J250" s="13"/>
@@ -20823,7 +20823,7 @@
       <c r="F251" s="14"/>
       <c r="G251" s="13"/>
       <c r="H251" s="11" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="I251" s="13"/>
       <c r="J251" s="13"/>
@@ -20857,7 +20857,7 @@
       <c r="F252" s="14"/>
       <c r="G252" s="13"/>
       <c r="H252" s="11" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="I252" s="13"/>
       <c r="J252" s="13"/>
@@ -20891,7 +20891,7 @@
       <c r="F253" s="14"/>
       <c r="G253" s="13"/>
       <c r="H253" s="11" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="I253" s="13"/>
       <c r="J253" s="13"/>

--- a/opportunity-samples/Opportunity-FieldsAndStandardValues-DiffWithPrevVersion-V14.3.xlsx
+++ b/opportunity-samples/Opportunity-FieldsAndStandardValues-DiffWithPrevVersion-V14.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksmenon/Documents/CRMDocs/partner-crm-integration-samples/opportunity-samples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksmenon/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ACCDBE-E2DE-C548-B7FC-883CFA22D3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE07265E-F170-474E-B592-B9458EEA99B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18800" yWindow="-33340" windowWidth="60160" windowHeight="33340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
@@ -1939,9 +1939,6 @@
     <t>Cloud Financial Management</t>
   </si>
   <si>
-    <t>Finalized Deployment Needs</t>
-  </si>
-  <si>
     <t>Financial Services</t>
   </si>
   <si>
@@ -4687,6 +4684,9 @@
   </si>
   <si>
     <t>For special programs when stage = "Launched"</t>
+  </si>
+  <si>
+    <t>Finalized Deployment Need</t>
   </si>
 </sst>
 </file>
@@ -5079,7 +5079,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5250,6 +5250,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5267,33 +5276,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5659,18 +5641,18 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31"/>
-      <c r="B1" s="64" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C1" s="65"/>
+      <c r="B1" s="67" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C1" s="68"/>
       <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
-      <c r="B2" s="60" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C2" s="61"/>
+      <c r="B2" s="63" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C2" s="64"/>
       <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5683,7 +5665,7 @@
       <c r="A4" s="31"/>
       <c r="B4" s="47"/>
       <c r="C4" s="39" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D4" s="31"/>
     </row>
@@ -5691,7 +5673,7 @@
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
       <c r="C5" s="33" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D5" s="31"/>
     </row>
@@ -5699,7 +5681,7 @@
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D6" s="31"/>
     </row>
@@ -5707,7 +5689,7 @@
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
       <c r="C7" s="33" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D7" s="31"/>
     </row>
@@ -5715,7 +5697,7 @@
       <c r="A8" s="31"/>
       <c r="B8" s="32"/>
       <c r="C8" s="33" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D8" s="31"/>
     </row>
@@ -5729,7 +5711,7 @@
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D10" s="31"/>
     </row>
@@ -5737,7 +5719,7 @@
       <c r="A11" s="31"/>
       <c r="B11" s="32"/>
       <c r="C11" s="33" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D11" s="31"/>
     </row>
@@ -5745,7 +5727,7 @@
       <c r="A12" s="31"/>
       <c r="B12" s="32"/>
       <c r="C12" s="33" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D12" s="31"/>
     </row>
@@ -5753,7 +5735,7 @@
       <c r="A13" s="31"/>
       <c r="B13" s="32"/>
       <c r="C13" s="33" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D13" s="31"/>
     </row>
@@ -5761,7 +5743,7 @@
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D14" s="31"/>
     </row>
@@ -5769,7 +5751,7 @@
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="33" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D15" s="31"/>
     </row>
@@ -5777,7 +5759,7 @@
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="33" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D16" s="31"/>
     </row>
@@ -5789,17 +5771,17 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
-      <c r="B18" s="62" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C18" s="63"/>
+      <c r="B18" s="65" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C18" s="66"/>
       <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
       <c r="C19" s="33" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D19" s="31"/>
     </row>
@@ -5807,7 +5789,7 @@
       <c r="A20" s="31"/>
       <c r="B20" s="32"/>
       <c r="C20" s="33" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D20" s="31"/>
     </row>
@@ -5815,7 +5797,7 @@
       <c r="A21" s="31"/>
       <c r="B21" s="32"/>
       <c r="C21" s="33" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D21" s="31"/>
     </row>
@@ -5823,7 +5805,7 @@
       <c r="A22" s="31"/>
       <c r="B22" s="32"/>
       <c r="C22" s="33" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D22" s="31"/>
     </row>
@@ -5831,7 +5813,7 @@
       <c r="A23" s="31"/>
       <c r="B23" s="32"/>
       <c r="C23" s="33" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D23" s="31"/>
     </row>
@@ -5839,7 +5821,7 @@
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="33" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D24" s="31"/>
     </row>
@@ -5847,7 +5829,7 @@
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
       <c r="C25" s="33" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D25" s="31"/>
     </row>
@@ -5855,7 +5837,7 @@
       <c r="A26" s="31"/>
       <c r="B26" s="32"/>
       <c r="C26" s="33" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D26" s="31"/>
     </row>
@@ -5863,23 +5845,23 @@
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="33" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D27" s="31"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
-      <c r="B28" s="62" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C28" s="63"/>
+      <c r="B28" s="65" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C28" s="66"/>
       <c r="D28" s="31"/>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="33" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D29" s="31"/>
     </row>
@@ -5887,7 +5869,7 @@
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="33" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D30" s="31"/>
     </row>
@@ -5895,7 +5877,7 @@
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="33" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D31" s="31"/>
     </row>
@@ -5903,23 +5885,23 @@
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="33" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="31"/>
-      <c r="B33" s="62" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C33" s="63"/>
+      <c r="B33" s="65" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C33" s="66"/>
       <c r="D33" s="31"/>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="31"/>
       <c r="B34" s="47"/>
       <c r="C34" s="33" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D34" s="31"/>
     </row>
@@ -5927,7 +5909,7 @@
       <c r="A35" s="31"/>
       <c r="B35" s="47"/>
       <c r="C35" s="33" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D35" s="31"/>
     </row>
@@ -5975,7 +5957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A48" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A48" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H73" sqref="H73"/>
     </sheetView>
@@ -6007,7 +5989,7 @@
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>1</v>
@@ -6025,16 +6007,16 @@
         <v>5</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="18" t="s">
+        <v>1396</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>1397</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>1398</v>
       </c>
       <c r="M1" s="18" t="s">
         <v>7</v>
@@ -6075,7 +6057,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>28</v>
@@ -6089,19 +6071,19 @@
       <c r="L2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="68" t="s">
+      <c r="M2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="68" t="s">
+      <c r="P2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6132,19 +6114,19 @@
         <v>28</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="70" t="s">
+      <c r="M3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="70" t="s">
+      <c r="O3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6169,7 +6151,7 @@
         <v>33</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>34</v>
@@ -6183,19 +6165,19 @@
       <c r="L4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="71" t="s">
+      <c r="M4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="71" t="s">
+      <c r="P4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6230,19 +6212,19 @@
       <c r="L5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="70" t="s">
+      <c r="M5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="73" t="s">
+      <c r="O5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="70" t="s">
+      <c r="P5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6275,19 +6257,19 @@
         <v>28</v>
       </c>
       <c r="L6" s="19"/>
-      <c r="M6" s="68" t="s">
+      <c r="M6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="68" t="s">
+      <c r="N6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="68" t="s">
+      <c r="O6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6324,19 +6306,19 @@
       <c r="L7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="70" t="s">
+      <c r="M7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="70" t="s">
+      <c r="N7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="73" t="s">
+      <c r="O7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q7" s="70" t="s">
+      <c r="P7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6369,19 +6351,19 @@
         <v>28</v>
       </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="70" t="s">
+      <c r="M8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="70" t="s">
+      <c r="N8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="73" t="s">
+      <c r="O8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" s="70" t="s">
+      <c r="P8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6416,19 +6398,19 @@
       <c r="L9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="70" t="s">
+      <c r="M9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="70" t="s">
+      <c r="N9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="73" t="s">
+      <c r="O9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="70" t="s">
+      <c r="P9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6465,19 +6447,19 @@
       <c r="L10" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="71" t="s">
+      <c r="M10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="71" t="s">
+      <c r="P10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6516,19 +6498,19 @@
       <c r="L11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="70" t="s">
+      <c r="M11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="70" t="s">
+      <c r="O11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="70" t="s">
+      <c r="P11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6563,19 +6545,19 @@
       <c r="L12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="70" t="s">
+      <c r="M12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="70" t="s">
+      <c r="O12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6610,19 +6592,19 @@
         <v>28</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="70" t="s">
+      <c r="M13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="70" t="s">
+      <c r="N13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q13" s="70" t="s">
+      <c r="O13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6634,7 +6616,7 @@
         <v>83</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>85</v>
@@ -6647,7 +6629,7 @@
         <v>87</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>28</v>
@@ -6661,19 +6643,19 @@
       <c r="L14" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="68" t="s">
+      <c r="M14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="68" t="s">
+      <c r="N14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O14" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="P14" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q14" s="68" t="s">
+      <c r="O14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6710,19 +6692,19 @@
       <c r="L15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" s="70" t="s">
+      <c r="M15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" s="70" t="s">
+      <c r="O15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6759,19 +6741,19 @@
       <c r="L16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="70" t="s">
+      <c r="M16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="70" t="s">
+      <c r="N16" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="O16" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P16" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q16" s="70" t="s">
+      <c r="O16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6796,7 +6778,7 @@
         <v>104</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="I17" s="40" t="s">
         <v>34</v>
@@ -6810,19 +6792,19 @@
       <c r="L17" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="74" t="s">
+      <c r="M17" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="74" t="s">
+      <c r="N17" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="O17" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q17" s="74" t="s">
+      <c r="O17" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="40" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6857,19 +6839,19 @@
         <v>28</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="70" t="s">
+      <c r="M18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="70" t="s">
+      <c r="N18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O18" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="70" t="s">
+      <c r="O18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6904,19 +6886,19 @@
         <v>28</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="70" t="s">
+      <c r="M19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="70" t="s">
+      <c r="N19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P19" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q19" s="70" t="s">
+      <c r="O19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6953,19 +6935,19 @@
         <v>28</v>
       </c>
       <c r="L20" s="3"/>
-      <c r="M20" s="70" t="s">
+      <c r="M20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="70" t="s">
+      <c r="N20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O20" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P20" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q20" s="70" t="s">
+      <c r="O20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6989,26 +6971,26 @@
       </c>
       <c r="H21" s="36"/>
       <c r="I21" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="70" t="s">
+      <c r="M21" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N21" s="70" t="s">
+      <c r="N21" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O21" s="70" t="s">
+      <c r="O21" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P21" s="70" t="s">
+      <c r="P21" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q21" s="70" t="s">
+      <c r="Q21" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7041,19 +7023,19 @@
         <v>28</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="70" t="s">
+      <c r="M22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="70" t="s">
+      <c r="N22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O22" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P22" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q22" s="70" t="s">
+      <c r="O22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7078,7 +7060,7 @@
         <v>132</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>28</v>
@@ -7092,19 +7074,19 @@
       <c r="L23" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="M23" s="68" t="s">
+      <c r="M23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="68" t="s">
+      <c r="N23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O23" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="P23" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q23" s="68" t="s">
+      <c r="O23" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7127,7 +7109,7 @@
         <v>137</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>19</v>
@@ -7139,19 +7121,19 @@
         <v>28</v>
       </c>
       <c r="L24" s="19"/>
-      <c r="M24" s="68" t="s">
+      <c r="M24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="68" t="s">
+      <c r="N24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O24" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="68" t="s">
+      <c r="O24" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7186,19 +7168,19 @@
         <v>28</v>
       </c>
       <c r="L25" s="19"/>
-      <c r="M25" s="68" t="s">
+      <c r="M25" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N25" s="68" t="s">
+      <c r="N25" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O25" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="68" t="s">
+      <c r="O25" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7237,19 +7219,19 @@
       <c r="L26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="M26" s="71" t="s">
+      <c r="M26" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="N26" s="71" t="s">
+      <c r="N26" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="P26" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q26" s="71" t="s">
+      <c r="O26" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7286,19 +7268,19 @@
       <c r="L27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M27" s="70" t="s">
+      <c r="M27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="70" t="s">
+      <c r="N27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O27" s="70" t="s">
+      <c r="O27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P27" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q27" s="70" t="s">
+      <c r="P27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7333,19 +7315,19 @@
         <v>28</v>
       </c>
       <c r="L28" s="19"/>
-      <c r="M28" s="68" t="s">
+      <c r="M28" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="68" t="s">
+      <c r="N28" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O28" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="P28" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q28" s="68" t="s">
+      <c r="O28" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P28" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q28" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7384,19 +7366,19 @@
       <c r="L29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M29" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="N29" s="70" t="s">
+      <c r="M29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O29" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P29" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q29" s="70" t="s">
+      <c r="O29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7435,19 +7417,19 @@
       <c r="L30" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="M30" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="N30" s="71" t="s">
+      <c r="M30" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="O30" s="71" t="s">
+      <c r="O30" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="P30" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q30" s="71" t="s">
+      <c r="P30" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q30" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7459,20 +7441,20 @@
         <v>175</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>177</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>34</v>
@@ -7482,19 +7464,19 @@
         <v>28</v>
       </c>
       <c r="L31" s="19"/>
-      <c r="M31" s="68" t="s">
+      <c r="M31" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="68" t="s">
+      <c r="N31" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O31" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="P31" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q31" s="68" t="s">
+      <c r="O31" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P31" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q31" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7533,19 +7515,19 @@
       <c r="L32" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="M32" s="71" t="s">
+      <c r="M32" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="N32" s="71" t="s">
+      <c r="N32" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="O32" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="P32" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q32" s="71" t="s">
+      <c r="O32" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P32" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q32" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7576,19 +7558,19 @@
         <v>28</v>
       </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="70" t="s">
+      <c r="M33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N33" s="70" t="s">
+      <c r="N33" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="O33" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P33" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q33" s="70" t="s">
+      <c r="O33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q33" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7621,19 +7603,19 @@
         <v>28</v>
       </c>
       <c r="L34" s="3"/>
-      <c r="M34" s="70" t="s">
+      <c r="M34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N34" s="70" t="s">
+      <c r="N34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O34" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P34" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q34" s="70" t="s">
+      <c r="O34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q34" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7668,19 +7650,19 @@
         <v>28</v>
       </c>
       <c r="L35" s="21"/>
-      <c r="M35" s="71" t="s">
+      <c r="M35" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="N35" s="71" t="s">
+      <c r="N35" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="O35" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="P35" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q35" s="71" t="s">
+      <c r="O35" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P35" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q35" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7713,19 +7695,19 @@
         <v>28</v>
       </c>
       <c r="L36" s="1"/>
-      <c r="M36" s="70" t="s">
+      <c r="M36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N36" s="70" t="s">
+      <c r="N36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O36" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P36" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q36" s="70" t="s">
+      <c r="O36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q36" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7760,19 +7742,19 @@
       <c r="L37" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="M37" s="70" t="s">
+      <c r="M37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N37" s="70" t="s">
+      <c r="N37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O37" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P37" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q37" s="70" t="s">
+      <c r="O37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q37" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7805,19 +7787,19 @@
         <v>28</v>
       </c>
       <c r="L38" s="3"/>
-      <c r="M38" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="N38" s="70" t="s">
+      <c r="M38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O38" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P38" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q38" s="70" t="s">
+      <c r="O38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q38" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7841,7 +7823,7 @@
       </c>
       <c r="H39" s="36"/>
       <c r="I39" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>35</v>
@@ -7852,19 +7834,19 @@
       <c r="L39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M39" s="70" t="s">
+      <c r="M39" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N39" s="70" t="s">
+      <c r="N39" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O39" s="70" t="s">
+      <c r="O39" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P39" s="70" t="s">
+      <c r="P39" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q39" s="70" t="s">
+      <c r="Q39" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7888,7 +7870,7 @@
       </c>
       <c r="H40" s="36"/>
       <c r="I40" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>35</v>
@@ -7899,19 +7881,19 @@
       <c r="L40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M40" s="70" t="s">
+      <c r="M40" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N40" s="70" t="s">
+      <c r="N40" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O40" s="70" t="s">
+      <c r="O40" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P40" s="70" t="s">
+      <c r="P40" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q40" s="70" t="s">
+      <c r="Q40" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7935,7 +7917,7 @@
       </c>
       <c r="H41" s="36"/>
       <c r="I41" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>35</v>
@@ -7944,21 +7926,21 @@
         <v>28</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>1403</v>
-      </c>
-      <c r="M41" s="70" t="s">
+        <v>1402</v>
+      </c>
+      <c r="M41" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N41" s="70" t="s">
+      <c r="N41" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O41" s="70" t="s">
+      <c r="O41" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P41" s="70" t="s">
+      <c r="P41" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q41" s="70" t="s">
+      <c r="Q41" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7982,7 +7964,7 @@
       </c>
       <c r="H42" s="36"/>
       <c r="I42" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>35</v>
@@ -7991,21 +7973,21 @@
         <v>28</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>1403</v>
-      </c>
-      <c r="M42" s="70" t="s">
+        <v>1402</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N42" s="70" t="s">
+      <c r="N42" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O42" s="70" t="s">
+      <c r="O42" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P42" s="70" t="s">
+      <c r="P42" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q42" s="70" t="s">
+      <c r="Q42" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8029,7 +8011,7 @@
       </c>
       <c r="H43" s="36"/>
       <c r="I43" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>35</v>
@@ -8040,19 +8022,19 @@
       <c r="L43" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M43" s="70" t="s">
+      <c r="M43" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N43" s="70" t="s">
+      <c r="N43" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O43" s="70" t="s">
+      <c r="O43" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P43" s="70" t="s">
+      <c r="P43" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q43" s="70" t="s">
+      <c r="Q43" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8076,7 +8058,7 @@
       </c>
       <c r="H44" s="36"/>
       <c r="I44" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>35</v>
@@ -8087,19 +8069,19 @@
       <c r="L44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M44" s="70" t="s">
+      <c r="M44" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N44" s="70" t="s">
+      <c r="N44" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O44" s="70" t="s">
+      <c r="O44" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P44" s="70" t="s">
+      <c r="P44" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q44" s="70" t="s">
+      <c r="Q44" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8122,7 +8104,7 @@
         <v>240</v>
       </c>
       <c r="H45" s="44" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I45" s="40" t="s">
         <v>28</v>
@@ -8132,19 +8114,19 @@
         <v>28</v>
       </c>
       <c r="L45" s="41"/>
-      <c r="M45" s="74" t="s">
+      <c r="M45" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N45" s="74" t="s">
+      <c r="N45" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="O45" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="P45" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q45" s="74" t="s">
+      <c r="O45" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="P45" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q45" s="40" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8167,7 +8149,7 @@
         <v>244</v>
       </c>
       <c r="H46" s="44" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I46" s="40" t="s">
         <v>28</v>
@@ -8177,19 +8159,19 @@
         <v>28</v>
       </c>
       <c r="L46" s="41"/>
-      <c r="M46" s="74" t="s">
+      <c r="M46" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N46" s="74" t="s">
+      <c r="N46" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="O46" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="P46" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q46" s="74" t="s">
+      <c r="O46" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="P46" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q46" s="40" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8212,7 +8194,7 @@
         <v>248</v>
       </c>
       <c r="H47" s="44" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I47" s="40" t="s">
         <v>28</v>
@@ -8222,19 +8204,19 @@
         <v>28</v>
       </c>
       <c r="L47" s="41"/>
-      <c r="M47" s="74" t="s">
+      <c r="M47" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N47" s="74" t="s">
+      <c r="N47" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="O47" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="P47" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q47" s="74" t="s">
+      <c r="O47" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="P47" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q47" s="40" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8257,7 +8239,7 @@
         <v>253</v>
       </c>
       <c r="H48" s="44" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I48" s="40" t="s">
         <v>28</v>
@@ -8267,19 +8249,19 @@
         <v>28</v>
       </c>
       <c r="L48" s="41"/>
-      <c r="M48" s="74" t="s">
+      <c r="M48" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N48" s="74" t="s">
+      <c r="N48" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="P48" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q48" s="74" t="s">
+      <c r="O48" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="P48" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q48" s="40" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8302,7 +8284,7 @@
         <v>257</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I49" s="40" t="s">
         <v>28</v>
@@ -8312,19 +8294,19 @@
         <v>28</v>
       </c>
       <c r="L49" s="41"/>
-      <c r="M49" s="74" t="s">
+      <c r="M49" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N49" s="74" t="s">
+      <c r="N49" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="O49" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="P49" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q49" s="74" t="s">
+      <c r="O49" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="P49" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q49" s="40" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8348,28 +8330,28 @@
       </c>
       <c r="H50" s="36"/>
       <c r="I50" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="M50" s="70" t="s">
+        <v>1403</v>
+      </c>
+      <c r="M50" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N50" s="70" t="s">
+      <c r="N50" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O50" s="70" t="s">
+      <c r="O50" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P50" s="70" t="s">
+      <c r="P50" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q50" s="70" t="s">
+      <c r="Q50" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8393,28 +8375,28 @@
       </c>
       <c r="H51" s="36"/>
       <c r="I51" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="M51" s="70" t="s">
+        <v>1403</v>
+      </c>
+      <c r="M51" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N51" s="70" t="s">
+      <c r="N51" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O51" s="70" t="s">
+      <c r="O51" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P51" s="70" t="s">
+      <c r="P51" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q51" s="70" t="s">
+      <c r="Q51" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8449,19 +8431,19 @@
       <c r="L52" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M52" s="70" t="s">
+      <c r="M52" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N52" s="70" t="s">
+      <c r="N52" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O52" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P52" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q52" s="70" t="s">
+      <c r="O52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q52" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8496,19 +8478,19 @@
       <c r="L53" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M53" s="70" t="s">
+      <c r="M53" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N53" s="70" t="s">
+      <c r="N53" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O53" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P53" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q53" s="70" t="s">
+      <c r="O53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q53" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8543,19 +8525,19 @@
       <c r="L54" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M54" s="70" t="s">
+      <c r="M54" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N54" s="70" t="s">
+      <c r="N54" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O54" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P54" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q54" s="70" t="s">
+      <c r="O54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q54" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8590,19 +8572,19 @@
       <c r="L55" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M55" s="70" t="s">
+      <c r="M55" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N55" s="70" t="s">
+      <c r="N55" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O55" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P55" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q55" s="70" t="s">
+      <c r="O55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q55" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8633,19 +8615,19 @@
         <v>28</v>
       </c>
       <c r="L56" s="19"/>
-      <c r="M56" s="68" t="s">
+      <c r="M56" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N56" s="68" t="s">
+      <c r="N56" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O56" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="P56" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q56" s="68" t="s">
+      <c r="O56" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P56" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q56" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8669,7 +8651,7 @@
       </c>
       <c r="H57" s="36"/>
       <c r="I57" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>35</v>
@@ -8678,21 +8660,21 @@
         <v>28</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>1405</v>
-      </c>
-      <c r="M57" s="70" t="s">
+        <v>1404</v>
+      </c>
+      <c r="M57" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N57" s="70" t="s">
+      <c r="N57" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O57" s="70" t="s">
+      <c r="O57" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P57" s="70" t="s">
+      <c r="P57" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q57" s="70" t="s">
+      <c r="Q57" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8716,7 +8698,7 @@
       </c>
       <c r="H58" s="36"/>
       <c r="I58" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>35</v>
@@ -8725,21 +8707,21 @@
         <v>28</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>1405</v>
-      </c>
-      <c r="M58" s="70" t="s">
+        <v>1404</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N58" s="70" t="s">
+      <c r="N58" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O58" s="70" t="s">
+      <c r="O58" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P58" s="70" t="s">
+      <c r="P58" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q58" s="70" t="s">
+      <c r="Q58" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8763,7 +8745,7 @@
       </c>
       <c r="H59" s="36"/>
       <c r="I59" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>35</v>
@@ -8772,21 +8754,21 @@
         <v>28</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>1406</v>
-      </c>
-      <c r="M59" s="70" t="s">
+        <v>1405</v>
+      </c>
+      <c r="M59" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N59" s="70" t="s">
+      <c r="N59" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O59" s="70" t="s">
+      <c r="O59" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P59" s="70" t="s">
+      <c r="P59" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q59" s="70" t="s">
+      <c r="Q59" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8810,7 +8792,7 @@
       </c>
       <c r="H60" s="36"/>
       <c r="I60" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>35</v>
@@ -8819,21 +8801,21 @@
         <v>28</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>1406</v>
-      </c>
-      <c r="M60" s="70" t="s">
+        <v>1405</v>
+      </c>
+      <c r="M60" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N60" s="70" t="s">
+      <c r="N60" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O60" s="70" t="s">
+      <c r="O60" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P60" s="70" t="s">
+      <c r="P60" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q60" s="70" t="s">
+      <c r="Q60" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8868,19 +8850,19 @@
       <c r="L61" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="M61" s="70" t="s">
+      <c r="M61" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N61" s="70" t="s">
+      <c r="N61" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O61" s="70" t="s">
+      <c r="O61" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P61" s="70" t="s">
+      <c r="P61" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q61" s="70" t="s">
+      <c r="Q61" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8906,26 +8888,26 @@
       </c>
       <c r="H62" s="36"/>
       <c r="I62" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L62" s="1"/>
-      <c r="M62" s="70" t="s">
+      <c r="M62" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N62" s="70" t="s">
+      <c r="N62" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O62" s="70" t="s">
+      <c r="O62" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P62" s="70" t="s">
+      <c r="P62" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q62" s="70" t="s">
+      <c r="Q62" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8962,19 +8944,19 @@
       <c r="L63" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M63" s="70" t="s">
+      <c r="M63" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N63" s="70" t="s">
+      <c r="N63" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O63" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P63" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q63" s="70" t="s">
+      <c r="O63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q63" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9011,19 +8993,19 @@
       <c r="L64" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M64" s="70" t="s">
+      <c r="M64" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N64" s="70" t="s">
+      <c r="N64" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O64" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P64" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q64" s="70" t="s">
+      <c r="O64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q64" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9032,7 +9014,7 @@
         <v>321</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>14</v>
@@ -9045,30 +9027,30 @@
         <v>323</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J65" s="19"/>
       <c r="K65" s="19" t="s">
         <v>28</v>
       </c>
       <c r="L65" s="19"/>
-      <c r="M65" s="68" t="s">
+      <c r="M65" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="N65" s="68" t="s">
+      <c r="N65" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="O65" s="68" t="s">
+      <c r="O65" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="P65" s="68" t="s">
+      <c r="P65" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="Q65" s="68" t="s">
+      <c r="Q65" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9092,26 +9074,26 @@
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J66" s="19"/>
       <c r="K66" s="19" t="s">
         <v>28</v>
       </c>
       <c r="L66" s="19"/>
-      <c r="M66" s="68" t="s">
+      <c r="M66" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="N66" s="68" t="s">
+      <c r="N66" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="O66" s="68" t="s">
+      <c r="O66" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="P66" s="68" t="s">
+      <c r="P66" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="Q66" s="68" t="s">
+      <c r="Q66" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9146,21 +9128,21 @@
         <v>34</v>
       </c>
       <c r="L67" s="36" t="s">
-        <v>1399</v>
-      </c>
-      <c r="M67" s="70" t="s">
+        <v>1398</v>
+      </c>
+      <c r="M67" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N67" s="70" t="s">
+      <c r="N67" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O67" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P67" s="70" t="s">
+      <c r="O67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P67" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q67" s="70" t="s">
+      <c r="Q67" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9186,7 +9168,7 @@
       </c>
       <c r="H68" s="36"/>
       <c r="I68" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>35</v>
@@ -9197,19 +9179,19 @@
       <c r="L68" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M68" s="70" t="s">
+      <c r="M68" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N68" s="70" t="s">
+      <c r="N68" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O68" s="70" t="s">
+      <c r="O68" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P68" s="70" t="s">
+      <c r="P68" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q68" s="70" t="s">
+      <c r="Q68" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9221,7 +9203,7 @@
         <v>338</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>340</v>
@@ -9244,19 +9226,19 @@
         <v>28</v>
       </c>
       <c r="L69" s="19"/>
-      <c r="M69" s="68" t="s">
+      <c r="M69" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N69" s="68" t="s">
+      <c r="N69" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O69" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="P69" s="68" t="s">
+      <c r="O69" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P69" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="Q69" s="68" t="s">
+      <c r="Q69" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9283,25 +9265,25 @@
         <v>19</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L70" s="3"/>
-      <c r="M70" s="70" t="s">
+      <c r="M70" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N70" s="70" t="s">
-        <v>1428</v>
-      </c>
-      <c r="O70" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P70" s="70" t="s">
+      <c r="N70" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P70" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q70" s="70" t="s">
+      <c r="Q70" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9330,25 +9312,25 @@
         <v>19</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L71" s="3"/>
-      <c r="M71" s="70" t="s">
+      <c r="M71" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N71" s="70" t="s">
-        <v>1428</v>
-      </c>
-      <c r="O71" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P71" s="70" t="s">
+      <c r="N71" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P71" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q71" s="70" t="s">
+      <c r="Q71" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9375,25 +9357,25 @@
         <v>19</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L72" s="3"/>
-      <c r="M72" s="70" t="s">
+      <c r="M72" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N72" s="70" t="s">
-        <v>1428</v>
-      </c>
-      <c r="O72" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P72" s="70" t="s">
+      <c r="N72" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P72" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q72" s="70" t="s">
+      <c r="Q72" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9420,25 +9402,25 @@
         <v>19</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L73" s="3"/>
-      <c r="M73" s="70" t="s">
+      <c r="M73" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N73" s="70" t="s">
-        <v>1428</v>
-      </c>
-      <c r="O73" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P73" s="70" t="s">
+      <c r="N73" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P73" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q73" s="70" t="s">
+      <c r="Q73" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9467,25 +9449,25 @@
         <v>19</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L74" s="3"/>
-      <c r="M74" s="70" t="s">
+      <c r="M74" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N74" s="70" t="s">
-        <v>1428</v>
-      </c>
-      <c r="O74" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P74" s="70" t="s">
+      <c r="N74" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P74" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q74" s="70" t="s">
+      <c r="Q74" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9511,26 +9493,26 @@
       </c>
       <c r="H75" s="36"/>
       <c r="I75" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="38" t="s">
         <v>28</v>
       </c>
       <c r="L75" s="1"/>
-      <c r="M75" s="70" t="s">
+      <c r="M75" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N75" s="70" t="s">
+      <c r="N75" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O75" s="70" t="s">
+      <c r="O75" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P75" s="70" t="s">
+      <c r="P75" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q75" s="70" t="s">
+      <c r="Q75" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9565,19 +9547,19 @@
         <v>28</v>
       </c>
       <c r="L76" s="3"/>
-      <c r="M76" s="70" t="s">
+      <c r="M76" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N76" s="70" t="s">
+      <c r="N76" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O76" s="70" t="s">
+      <c r="O76" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P76" s="70" t="s">
+      <c r="P76" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q76" s="70" t="s">
+      <c r="Q76" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9614,19 +9596,19 @@
         <v>28</v>
       </c>
       <c r="L77" s="19"/>
-      <c r="M77" s="68" t="s">
+      <c r="M77" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N77" s="68" t="s">
+      <c r="N77" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O77" s="68" t="s">
+      <c r="O77" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P77" s="68" t="s">
+      <c r="P77" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="Q77" s="68" t="s">
+      <c r="Q77" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9650,26 +9632,26 @@
       </c>
       <c r="H78" s="36"/>
       <c r="I78" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="38" t="s">
         <v>28</v>
       </c>
       <c r="L78" s="1"/>
-      <c r="M78" s="70" t="s">
+      <c r="M78" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N78" s="70" t="s">
+      <c r="N78" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O78" s="70" t="s">
+      <c r="O78" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P78" s="70" t="s">
+      <c r="P78" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q78" s="70" t="s">
+      <c r="Q78" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9706,19 +9688,19 @@
       <c r="L79" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="M79" s="70" t="s">
+      <c r="M79" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N79" s="70" t="s">
+      <c r="N79" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O79" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P79" s="70" t="s">
+      <c r="O79" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P79" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q79" s="70" t="s">
+      <c r="Q79" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9751,19 +9733,19 @@
         <v>28</v>
       </c>
       <c r="L80" s="1"/>
-      <c r="M80" s="70" t="s">
+      <c r="M80" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N80" s="70" t="s">
+      <c r="N80" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O80" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P80" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q80" s="70" t="s">
+      <c r="O80" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P80" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q80" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9787,7 +9769,7 @@
       </c>
       <c r="H81" s="36"/>
       <c r="I81" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>35</v>
@@ -9798,19 +9780,19 @@
       <c r="L81" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M81" s="70" t="s">
+      <c r="M81" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N81" s="70" t="s">
+      <c r="N81" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O81" s="70" t="s">
+      <c r="O81" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P81" s="70" t="s">
+      <c r="P81" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q81" s="70" t="s">
+      <c r="Q81" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9834,7 +9816,7 @@
       </c>
       <c r="H82" s="36"/>
       <c r="I82" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>35</v>
@@ -9845,19 +9827,19 @@
       <c r="L82" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M82" s="70" t="s">
+      <c r="M82" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N82" s="70" t="s">
+      <c r="N82" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O82" s="70" t="s">
+      <c r="O82" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P82" s="70" t="s">
+      <c r="P82" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q82" s="70" t="s">
+      <c r="Q82" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9881,7 +9863,7 @@
       </c>
       <c r="H83" s="36"/>
       <c r="I83" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>35</v>
@@ -9892,19 +9874,19 @@
       <c r="L83" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M83" s="70" t="s">
+      <c r="M83" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N83" s="70" t="s">
+      <c r="N83" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O83" s="70" t="s">
+      <c r="O83" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P83" s="70" t="s">
+      <c r="P83" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q83" s="70" t="s">
+      <c r="Q83" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9928,7 +9910,7 @@
       </c>
       <c r="H84" s="36"/>
       <c r="I84" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>35</v>
@@ -9939,19 +9921,19 @@
       <c r="L84" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M84" s="70" t="s">
+      <c r="M84" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N84" s="70" t="s">
+      <c r="N84" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O84" s="70" t="s">
+      <c r="O84" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P84" s="70" t="s">
+      <c r="P84" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q84" s="70" t="s">
+      <c r="Q84" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9975,7 +9957,7 @@
       </c>
       <c r="H85" s="36"/>
       <c r="I85" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>35</v>
@@ -9986,19 +9968,19 @@
       <c r="L85" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M85" s="70" t="s">
+      <c r="M85" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N85" s="70" t="s">
+      <c r="N85" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O85" s="70" t="s">
+      <c r="O85" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P85" s="70" t="s">
+      <c r="P85" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q85" s="70" t="s">
+      <c r="Q85" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10022,26 +10004,26 @@
       </c>
       <c r="H86" s="36"/>
       <c r="I86" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="38" t="s">
         <v>28</v>
       </c>
       <c r="L86" s="1"/>
-      <c r="M86" s="70" t="s">
+      <c r="M86" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N86" s="70" t="s">
+      <c r="N86" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O86" s="70" t="s">
+      <c r="O86" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P86" s="70" t="s">
+      <c r="P86" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q86" s="70" t="s">
+      <c r="Q86" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10065,26 +10047,26 @@
       </c>
       <c r="H87" s="36"/>
       <c r="I87" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="38" t="s">
         <v>28</v>
       </c>
       <c r="L87" s="1"/>
-      <c r="M87" s="70" t="s">
+      <c r="M87" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N87" s="70" t="s">
+      <c r="N87" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O87" s="70" t="s">
+      <c r="O87" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P87" s="70" t="s">
+      <c r="P87" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q87" s="70" t="s">
+      <c r="Q87" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10105,7 +10087,7 @@
         <v>415</v>
       </c>
       <c r="H88" s="21" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I88" s="21" t="s">
         <v>34</v>
@@ -10115,19 +10097,19 @@
         <v>34</v>
       </c>
       <c r="L88" s="21"/>
-      <c r="M88" s="71" t="s">
+      <c r="M88" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="N88" s="71" t="s">
+      <c r="N88" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="O88" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="P88" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q88" s="71" t="s">
+      <c r="O88" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P88" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q88" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10158,19 +10140,19 @@
         <v>28</v>
       </c>
       <c r="L89" s="21"/>
-      <c r="M89" s="71" t="s">
+      <c r="M89" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="N89" s="71" t="s">
+      <c r="N89" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="O89" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="P89" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q89" s="71" t="s">
+      <c r="O89" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P89" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q89" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10198,28 +10180,28 @@
         <v>138</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J90" s="19"/>
       <c r="K90" s="19" t="s">
         <v>19</v>
       </c>
       <c r="L90" s="19" t="s">
-        <v>1401</v>
-      </c>
-      <c r="M90" s="68" t="s">
+        <v>1400</v>
+      </c>
+      <c r="M90" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="N90" s="68" t="s">
+      <c r="N90" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="O90" s="68" t="s">
+      <c r="O90" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="P90" s="68" t="s">
+      <c r="P90" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="Q90" s="68" t="s">
+      <c r="Q90" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10241,28 +10223,28 @@
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J91" s="19"/>
       <c r="K91" s="19" t="s">
         <v>19</v>
       </c>
       <c r="L91" s="19" t="s">
-        <v>1402</v>
-      </c>
-      <c r="M91" s="68" t="s">
+        <v>1401</v>
+      </c>
+      <c r="M91" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="N91" s="68" t="s">
+      <c r="N91" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="O91" s="68" t="s">
+      <c r="O91" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="P91" s="68" t="s">
+      <c r="P91" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="Q91" s="68" t="s">
+      <c r="Q91" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10292,7 +10274,7 @@
       <c r="I92" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="J92" s="66" t="s">
+      <c r="J92" s="29" t="s">
         <v>430</v>
       </c>
       <c r="K92" s="29" t="s">
@@ -10301,19 +10283,19 @@
       <c r="L92" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="M92" s="66" t="s">
+      <c r="M92" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N92" s="66" t="s">
+      <c r="N92" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="O92" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="P92" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q92" s="66" t="s">
+      <c r="O92" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P92" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q92" s="29" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10341,7 +10323,7 @@
       <c r="I93" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="J93" s="66" t="s">
+      <c r="J93" s="29" t="s">
         <v>435</v>
       </c>
       <c r="K93" s="29" t="s">
@@ -10350,19 +10332,19 @@
       <c r="L93" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="M93" s="66" t="s">
+      <c r="M93" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N93" s="66" t="s">
+      <c r="N93" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="O93" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="P93" s="66" t="s">
+      <c r="O93" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P93" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q93" s="66" t="s">
+      <c r="Q93" s="29" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10390,7 +10372,7 @@
       <c r="I94" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="J94" s="66" t="s">
+      <c r="J94" s="29" t="s">
         <v>440</v>
       </c>
       <c r="K94" s="29" t="s">
@@ -10399,19 +10381,19 @@
       <c r="L94" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="M94" s="66" t="s">
+      <c r="M94" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N94" s="66" t="s">
+      <c r="N94" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="O94" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="P94" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q94" s="66" t="s">
+      <c r="O94" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P94" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q94" s="29" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10441,7 +10423,7 @@
       <c r="I95" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="J95" s="66" t="s">
+      <c r="J95" s="29" t="s">
         <v>445</v>
       </c>
       <c r="K95" s="29" t="s">
@@ -10450,19 +10432,19 @@
       <c r="L95" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="M95" s="66" t="s">
+      <c r="M95" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N95" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="O95" s="67" t="s">
+      <c r="N95" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O95" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="P95" s="66" t="s">
+      <c r="P95" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q95" s="66" t="s">
+      <c r="Q95" s="29" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10490,7 +10472,7 @@
       <c r="I96" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="J96" s="66" t="s">
+      <c r="J96" s="29" t="s">
         <v>449</v>
       </c>
       <c r="K96" s="29" t="s">
@@ -10499,19 +10481,19 @@
       <c r="L96" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="M96" s="66" t="s">
+      <c r="M96" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N96" s="66" t="s">
+      <c r="N96" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="O96" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="P96" s="66" t="s">
+      <c r="O96" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P96" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q96" s="66" t="s">
+      <c r="Q96" s="29" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10537,7 +10519,7 @@
       <c r="I97" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="J97" s="66" t="s">
+      <c r="J97" s="29" t="s">
         <v>452</v>
       </c>
       <c r="K97" s="29" t="s">
@@ -10546,19 +10528,19 @@
       <c r="L97" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="M97" s="66" t="s">
+      <c r="M97" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N97" s="66" t="s">
+      <c r="N97" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="O97" s="66" t="s">
+      <c r="O97" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="P97" s="66" t="s">
+      <c r="P97" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q97" s="66" t="s">
+      <c r="Q97" s="29" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10588,7 +10570,7 @@
       <c r="I98" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="J98" s="66" t="s">
+      <c r="J98" s="29" t="s">
         <v>457</v>
       </c>
       <c r="K98" s="29" t="s">
@@ -10597,19 +10579,19 @@
       <c r="L98" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="M98" s="66" t="s">
+      <c r="M98" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N98" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="O98" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="P98" s="66" t="s">
+      <c r="N98" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O98" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P98" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q98" s="66" t="s">
+      <c r="Q98" s="29" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10637,7 +10619,7 @@
       <c r="I99" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="J99" s="66" t="s">
+      <c r="J99" s="29" t="s">
         <v>462</v>
       </c>
       <c r="K99" s="29" t="s">
@@ -10646,19 +10628,19 @@
       <c r="L99" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="M99" s="66" t="s">
+      <c r="M99" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N99" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="O99" s="67" t="s">
+      <c r="N99" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O99" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="P99" s="66" t="s">
+      <c r="P99" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q99" s="66" t="s">
+      <c r="Q99" s="29" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10686,7 +10668,7 @@
       <c r="I100" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="J100" s="66" t="s">
+      <c r="J100" s="29" t="s">
         <v>462</v>
       </c>
       <c r="K100" s="29" t="s">
@@ -10695,19 +10677,19 @@
       <c r="L100" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="M100" s="66" t="s">
+      <c r="M100" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N100" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="O100" s="67" t="s">
+      <c r="N100" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O100" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="P100" s="66" t="s">
+      <c r="P100" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q100" s="66" t="s">
+      <c r="Q100" s="29" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10735,7 +10717,7 @@
       <c r="I101" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="J101" s="66" t="s">
+      <c r="J101" s="29" t="s">
         <v>435</v>
       </c>
       <c r="K101" s="29" t="s">
@@ -10744,19 +10726,19 @@
       <c r="L101" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="M101" s="66" t="s">
+      <c r="M101" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N101" s="66" t="s">
+      <c r="N101" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="O101" s="66" t="s">
+      <c r="O101" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="P101" s="66" t="s">
+      <c r="P101" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q101" s="66" t="s">
+      <c r="Q101" s="29" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10786,7 +10768,7 @@
       <c r="I102" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="J102" s="66" t="s">
+      <c r="J102" s="29" t="s">
         <v>475</v>
       </c>
       <c r="K102" s="29" t="s">
@@ -10795,19 +10777,19 @@
       <c r="L102" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="M102" s="66" t="s">
+      <c r="M102" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N102" s="66" t="s">
+      <c r="N102" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="O102" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="P102" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q102" s="66" t="s">
+      <c r="O102" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P102" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q102" s="29" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10829,8 +10811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD253"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10958,7 +10940,7 @@
         <v>481</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F2" s="57" t="s">
         <v>482</v>
@@ -11498,7 +11480,7 @@
     </row>
     <row r="9" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>606</v>
+        <v>1429</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -11506,33 +11488,33 @@
       <c r="E9" s="13"/>
       <c r="F9" s="14"/>
       <c r="G9" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="12" t="s">
         <v>608</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>609</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="M9" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="M9" s="41" t="s">
+      <c r="N9" s="51" t="s">
         <v>612</v>
       </c>
-      <c r="N9" s="51" t="s">
+      <c r="O9" s="8" t="s">
         <v>613</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>614</v>
       </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
@@ -11542,23 +11524,23 @@
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
       <c r="Y9" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="Z9" s="13"/>
       <c r="AA9" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AB9" s="13"/>
       <c r="AC9" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="AD9" s="11" t="s">
         <v>618</v>
-      </c>
-      <c r="AD9" s="11" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -11566,29 +11548,29 @@
       <c r="E10" s="13"/>
       <c r="F10" s="14"/>
       <c r="G10" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="12" t="s">
         <v>622</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>623</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="M10" s="41" t="s">
+        <v>606</v>
+      </c>
+      <c r="N10" s="51" t="s">
         <v>625</v>
       </c>
-      <c r="M10" s="41" t="s">
-        <v>607</v>
-      </c>
-      <c r="N10" s="51" t="s">
+      <c r="O10" s="11" t="s">
         <v>626</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>627</v>
       </c>
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
@@ -11600,18 +11582,18 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
       <c r="Y10" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Z10" s="13"/>
       <c r="AA10" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AB10" s="13"/>
       <c r="AC10" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="AD10" s="11" t="s">
         <v>630</v>
-      </c>
-      <c r="AD10" s="11" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -11622,29 +11604,29 @@
       <c r="E11" s="13"/>
       <c r="F11" s="14"/>
       <c r="G11" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>633</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>634</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="M11" s="41" t="s">
         <v>636</v>
       </c>
-      <c r="M11" s="41" t="s">
+      <c r="N11" s="51" t="s">
         <v>637</v>
       </c>
-      <c r="N11" s="51" t="s">
+      <c r="O11" s="11" t="s">
         <v>638</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>639</v>
       </c>
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
@@ -11656,18 +11638,18 @@
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
       <c r="Y11" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Z11" s="13"/>
       <c r="AA11" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AB11" s="13"/>
       <c r="AC11" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="AD11" s="11" t="s">
         <v>642</v>
-      </c>
-      <c r="AD11" s="11" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -11678,29 +11660,29 @@
       <c r="E12" s="13"/>
       <c r="F12" s="14"/>
       <c r="G12" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="11" t="s">
         <v>645</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>646</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="45" t="s">
+        <v>646</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="M12" s="41" t="s">
         <v>648</v>
       </c>
-      <c r="M12" s="41" t="s">
+      <c r="N12" s="51" t="s">
         <v>649</v>
       </c>
-      <c r="N12" s="51" t="s">
+      <c r="O12" s="11" t="s">
         <v>650</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>651</v>
       </c>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
@@ -11712,18 +11694,18 @@
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
       <c r="Y12" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="Z12" s="13"/>
       <c r="AA12" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AB12" s="13"/>
       <c r="AC12" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="AD12" s="11" t="s">
         <v>654</v>
-      </c>
-      <c r="AD12" s="11" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -11734,29 +11716,29 @@
       <c r="E13" s="13"/>
       <c r="F13" s="14"/>
       <c r="G13" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>656</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="I13" s="12" t="s">
         <v>657</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>658</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="45" t="s">
+        <v>658</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="M13" s="41" t="s">
         <v>660</v>
       </c>
-      <c r="M13" s="41" t="s">
+      <c r="N13" s="51" t="s">
         <v>661</v>
       </c>
-      <c r="N13" s="51" t="s">
+      <c r="O13" s="11" t="s">
         <v>662</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>663</v>
       </c>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
@@ -11768,18 +11750,18 @@
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
       <c r="Y13" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Z13" s="13"/>
       <c r="AA13" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AB13" s="13"/>
       <c r="AC13" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="AD13" s="11" t="s">
         <v>666</v>
-      </c>
-      <c r="AD13" s="11" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -11790,27 +11772,27 @@
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
       <c r="G14" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="I14" s="12" t="s">
         <v>669</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>670</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="45" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="41" t="s">
+        <v>671</v>
+      </c>
+      <c r="N14" s="51" t="s">
         <v>672</v>
       </c>
-      <c r="N14" s="51" t="s">
+      <c r="O14" s="11" t="s">
         <v>673</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>674</v>
       </c>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
@@ -11822,18 +11804,18 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
       <c r="Y14" s="11" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Z14" s="13"/>
       <c r="AA14" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AB14" s="13"/>
       <c r="AC14" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="AD14" s="11" t="s">
         <v>677</v>
-      </c>
-      <c r="AD14" s="11" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -11844,27 +11826,27 @@
       <c r="E15" s="13"/>
       <c r="F15" s="14"/>
       <c r="G15" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="12" t="s">
         <v>680</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>681</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="45" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="N15" s="51" t="s">
         <v>683</v>
       </c>
-      <c r="N15" s="51" t="s">
+      <c r="O15" s="11" t="s">
         <v>684</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>685</v>
       </c>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
@@ -11876,18 +11858,18 @@
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Z15" s="13"/>
       <c r="AA15" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AB15" s="13"/>
       <c r="AC15" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="AD15" s="11" t="s">
         <v>688</v>
-      </c>
-      <c r="AD15" s="11" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -11898,27 +11880,27 @@
       <c r="E16" s="16"/>
       <c r="F16" s="14"/>
       <c r="G16" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="12" t="s">
         <v>691</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>692</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="45" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="41" t="s">
+        <v>693</v>
+      </c>
+      <c r="N16" s="51" t="s">
         <v>694</v>
       </c>
-      <c r="N16" s="51" t="s">
+      <c r="O16" s="11" t="s">
         <v>695</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>696</v>
       </c>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
@@ -11930,16 +11912,16 @@
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
       <c r="Y16" s="11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="Z16" s="13"/>
       <c r="AA16" s="11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AB16" s="13"/>
       <c r="AC16" s="13"/>
       <c r="AD16" s="11" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -11950,27 +11932,27 @@
       <c r="E17" s="16"/>
       <c r="F17" s="14"/>
       <c r="G17" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="I17" s="12" t="s">
         <v>701</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>702</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="41" t="s">
+        <v>703</v>
+      </c>
+      <c r="N17" s="51" t="s">
         <v>704</v>
       </c>
-      <c r="N17" s="51" t="s">
+      <c r="O17" s="15" t="s">
         <v>705</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>706</v>
       </c>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
@@ -11982,16 +11964,16 @@
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Z17" s="13"/>
       <c r="AA17" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AB17" s="13"/>
       <c r="AC17" s="13"/>
       <c r="AD17" s="11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12002,27 +11984,27 @@
       <c r="E18" s="16"/>
       <c r="F18" s="14"/>
       <c r="G18" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="I18" s="12" t="s">
         <v>711</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>712</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="45" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="L18" s="13"/>
       <c r="M18" s="41" t="s">
+        <v>713</v>
+      </c>
+      <c r="N18" s="51" t="s">
         <v>714</v>
       </c>
-      <c r="N18" s="51" t="s">
+      <c r="O18" s="8" t="s">
         <v>715</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>716</v>
       </c>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
@@ -12038,12 +12020,12 @@
       </c>
       <c r="Z18" s="13"/>
       <c r="AA18" s="11" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AB18" s="13"/>
       <c r="AC18" s="13"/>
       <c r="AD18" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12054,27 +12036,27 @@
       <c r="E19" s="16"/>
       <c r="F19" s="14"/>
       <c r="G19" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="I19" s="12" t="s">
         <v>720</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>721</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="45" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L19" s="13"/>
       <c r="M19" s="41" t="s">
+        <v>722</v>
+      </c>
+      <c r="N19" s="51" t="s">
         <v>723</v>
       </c>
-      <c r="N19" s="51" t="s">
+      <c r="O19" s="46" t="s">
         <v>724</v>
-      </c>
-      <c r="O19" s="46" t="s">
-        <v>725</v>
       </c>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
@@ -12086,16 +12068,16 @@
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="Z19" s="13"/>
       <c r="AA19" s="11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AB19" s="13"/>
       <c r="AC19" s="13"/>
       <c r="AD19" s="11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12106,13 +12088,13 @@
       <c r="E20" s="16"/>
       <c r="F20" s="14"/>
       <c r="G20" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="I20" s="12" t="s">
         <v>730</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>731</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="45" t="s">
@@ -12120,13 +12102,13 @@
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="41" t="s">
+        <v>731</v>
+      </c>
+      <c r="N20" s="51" t="s">
         <v>732</v>
       </c>
-      <c r="N20" s="51" t="s">
-        <v>733</v>
-      </c>
       <c r="O20" s="46" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
@@ -12138,16 +12120,16 @@
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="Z20" s="13"/>
       <c r="AA20" s="11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AB20" s="13"/>
       <c r="AC20" s="13"/>
       <c r="AD20" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12161,19 +12143,19 @@
         <v>592</v>
       </c>
       <c r="H21" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>737</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>738</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="41" t="s">
+        <v>738</v>
+      </c>
+      <c r="N21" s="51" t="s">
         <v>739</v>
-      </c>
-      <c r="N21" s="51" t="s">
-        <v>740</v>
       </c>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
@@ -12186,16 +12168,16 @@
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="Z21" s="13"/>
       <c r="AA21" s="11" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AB21" s="13"/>
       <c r="AC21" s="13"/>
       <c r="AD21" s="11" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12206,13 +12188,13 @@
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>744</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="I22" s="12" t="s">
         <v>745</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>746</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
@@ -12221,7 +12203,7 @@
         <v>573</v>
       </c>
       <c r="N22" s="51" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
@@ -12236,12 +12218,12 @@
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AB22" s="13"/>
       <c r="AC22" s="13"/>
       <c r="AD22" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12255,19 +12237,19 @@
         <v>570</v>
       </c>
       <c r="H23" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="I23" s="12" t="s">
         <v>750</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>751</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="41" t="s">
+        <v>751</v>
+      </c>
+      <c r="N23" s="51" t="s">
         <v>752</v>
-      </c>
-      <c r="N23" s="51" t="s">
-        <v>753</v>
       </c>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
@@ -12282,12 +12264,12 @@
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AB23" s="13"/>
       <c r="AC23" s="13"/>
       <c r="AD23" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12298,22 +12280,22 @@
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>756</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="I24" s="12" t="s">
         <v>757</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>758</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="41" t="s">
+        <v>758</v>
+      </c>
+      <c r="N24" s="51" t="s">
         <v>759</v>
-      </c>
-      <c r="N24" s="51" t="s">
-        <v>760</v>
       </c>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
@@ -12328,12 +12310,12 @@
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AB24" s="13"/>
       <c r="AC24" s="13"/>
       <c r="AD24" s="11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12344,22 +12326,22 @@
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>763</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="I25" s="12" t="s">
         <v>764</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>765</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="41" t="s">
+        <v>765</v>
+      </c>
+      <c r="N25" s="51" t="s">
         <v>766</v>
-      </c>
-      <c r="N25" s="51" t="s">
-        <v>767</v>
       </c>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
@@ -12374,12 +12356,12 @@
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AB25" s="13"/>
       <c r="AC25" s="13"/>
       <c r="AD25" s="11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="34" x14ac:dyDescent="0.2">
@@ -12390,22 +12372,22 @@
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>770</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="I26" s="11" t="s">
         <v>771</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>772</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="41" t="s">
+        <v>772</v>
+      </c>
+      <c r="N26" s="51" t="s">
         <v>773</v>
-      </c>
-      <c r="N26" s="51" t="s">
-        <v>774</v>
       </c>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
@@ -12420,12 +12402,12 @@
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AB26" s="13"/>
       <c r="AC26" s="13"/>
       <c r="AD26" s="11" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12436,22 +12418,22 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>777</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="I27" s="11" t="s">
         <v>778</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>779</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="41" t="s">
+        <v>779</v>
+      </c>
+      <c r="N27" s="51" t="s">
         <v>780</v>
-      </c>
-      <c r="N27" s="51" t="s">
-        <v>781</v>
       </c>
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
@@ -12466,12 +12448,12 @@
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AB27" s="13"/>
       <c r="AC27" s="13"/>
       <c r="AD27" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12482,22 +12464,22 @@
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>784</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="I28" s="11" t="s">
         <v>785</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>786</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="41" t="s">
+        <v>786</v>
+      </c>
+      <c r="N28" s="51" t="s">
         <v>787</v>
-      </c>
-      <c r="N28" s="51" t="s">
-        <v>788</v>
       </c>
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
@@ -12512,12 +12494,12 @@
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
       <c r="AA28" s="11" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AB28" s="13"/>
       <c r="AC28" s="13"/>
       <c r="AD28" s="11" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -12528,22 +12510,22 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="H29" s="11" t="s">
         <v>791</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="I29" s="12" t="s">
         <v>792</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>793</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="41" t="s">
+        <v>793</v>
+      </c>
+      <c r="N29" s="51" t="s">
         <v>794</v>
-      </c>
-      <c r="N29" s="51" t="s">
-        <v>795</v>
       </c>
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
@@ -12558,7 +12540,7 @@
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AB29" s="13"/>
       <c r="AC29" s="13"/>
@@ -12572,22 +12554,22 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>797</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="I30" s="11" t="s">
         <v>798</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>799</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="41" t="s">
+        <v>799</v>
+      </c>
+      <c r="N30" s="51" t="s">
         <v>800</v>
-      </c>
-      <c r="N30" s="51" t="s">
-        <v>801</v>
       </c>
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
@@ -12602,7 +12584,7 @@
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
       <c r="AA30" s="11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AB30" s="13"/>
       <c r="AC30" s="13"/>
@@ -12617,16 +12599,16 @@
       <c r="F31" s="14"/>
       <c r="G31" s="13"/>
       <c r="H31" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="I31" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="41" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="N31" s="51" t="s">
         <v>592</v>
@@ -12644,7 +12626,7 @@
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AB31" s="13"/>
       <c r="AC31" s="13"/>
@@ -12659,19 +12641,19 @@
       <c r="F32" s="14"/>
       <c r="G32" s="13"/>
       <c r="H32" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="I32" s="11" t="s">
         <v>807</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>808</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="41" t="s">
+        <v>808</v>
+      </c>
+      <c r="N32" s="51" t="s">
         <v>809</v>
-      </c>
-      <c r="N32" s="51" t="s">
-        <v>810</v>
       </c>
       <c r="O32" s="13"/>
       <c r="P32" s="13"/>
@@ -12686,7 +12668,7 @@
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
       <c r="AA32" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AB32" s="13"/>
       <c r="AC32" s="13"/>
@@ -12701,19 +12683,19 @@
       <c r="F33" s="14"/>
       <c r="G33" s="13"/>
       <c r="H33" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="I33" s="12" t="s">
         <v>812</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>813</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="41" t="s">
+        <v>813</v>
+      </c>
+      <c r="N33" s="51" t="s">
         <v>814</v>
-      </c>
-      <c r="N33" s="51" t="s">
-        <v>815</v>
       </c>
       <c r="O33" s="13"/>
       <c r="P33" s="13"/>
@@ -12728,7 +12710,7 @@
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
       <c r="AA33" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AB33" s="13"/>
       <c r="AC33" s="13"/>
@@ -12743,19 +12725,19 @@
       <c r="F34" s="14"/>
       <c r="G34" s="13"/>
       <c r="H34" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="I34" s="12" t="s">
         <v>817</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>818</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="41" t="s">
+        <v>818</v>
+      </c>
+      <c r="N34" s="51" t="s">
         <v>819</v>
-      </c>
-      <c r="N34" s="51" t="s">
-        <v>820</v>
       </c>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
@@ -12770,7 +12752,7 @@
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
       <c r="AA34" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AB34" s="13"/>
       <c r="AC34" s="13"/>
@@ -12785,19 +12767,19 @@
       <c r="F35" s="14"/>
       <c r="G35" s="13"/>
       <c r="H35" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="I35" s="11" t="s">
         <v>822</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>823</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="41" t="s">
+        <v>823</v>
+      </c>
+      <c r="N35" s="51" t="s">
         <v>824</v>
-      </c>
-      <c r="N35" s="51" t="s">
-        <v>825</v>
       </c>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
@@ -12812,7 +12794,7 @@
       <c r="Y35" s="13"/>
       <c r="Z35" s="13"/>
       <c r="AA35" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AB35" s="13"/>
       <c r="AC35" s="13"/>
@@ -12827,19 +12809,19 @@
       <c r="F36" s="14"/>
       <c r="G36" s="13"/>
       <c r="H36" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="I36" s="12" t="s">
         <v>827</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>828</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="41" t="s">
+        <v>828</v>
+      </c>
+      <c r="N36" s="51" t="s">
         <v>829</v>
-      </c>
-      <c r="N36" s="51" t="s">
-        <v>830</v>
       </c>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
@@ -12854,7 +12836,7 @@
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
       <c r="AA36" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AB36" s="13"/>
       <c r="AC36" s="13"/>
@@ -12869,19 +12851,19 @@
       <c r="F37" s="14"/>
       <c r="G37" s="13"/>
       <c r="H37" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="I37" s="11" t="s">
         <v>832</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>833</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="41" t="s">
+        <v>833</v>
+      </c>
+      <c r="N37" s="51" t="s">
         <v>834</v>
-      </c>
-      <c r="N37" s="51" t="s">
-        <v>835</v>
       </c>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
@@ -12896,7 +12878,7 @@
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
       <c r="AA37" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AB37" s="13"/>
       <c r="AC37" s="13"/>
@@ -12911,19 +12893,19 @@
       <c r="F38" s="14"/>
       <c r="G38" s="13"/>
       <c r="H38" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="I38" s="12" t="s">
         <v>837</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>838</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="41" t="s">
+        <v>838</v>
+      </c>
+      <c r="N38" s="51" t="s">
         <v>839</v>
-      </c>
-      <c r="N38" s="51" t="s">
-        <v>840</v>
       </c>
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
@@ -12938,7 +12920,7 @@
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
       <c r="AA38" s="11" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AB38" s="13"/>
       <c r="AC38" s="13"/>
@@ -12953,19 +12935,19 @@
       <c r="F39" s="14"/>
       <c r="G39" s="13"/>
       <c r="H39" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="I39" s="12" t="s">
         <v>842</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>843</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="41" t="s">
+        <v>843</v>
+      </c>
+      <c r="N39" s="51" t="s">
         <v>844</v>
-      </c>
-      <c r="N39" s="51" t="s">
-        <v>845</v>
       </c>
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
@@ -12980,7 +12962,7 @@
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
       <c r="AA39" s="11" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AB39" s="13"/>
       <c r="AC39" s="13"/>
@@ -12995,19 +12977,19 @@
       <c r="F40" s="14"/>
       <c r="G40" s="13"/>
       <c r="H40" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="I40" s="12" t="s">
         <v>847</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>848</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="41" t="s">
+        <v>848</v>
+      </c>
+      <c r="N40" s="51" t="s">
         <v>849</v>
-      </c>
-      <c r="N40" s="51" t="s">
-        <v>850</v>
       </c>
       <c r="O40" s="13"/>
       <c r="P40" s="13"/>
@@ -13022,7 +13004,7 @@
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
       <c r="AA40" s="11" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AB40" s="13"/>
       <c r="AC40" s="13"/>
@@ -13037,19 +13019,19 @@
       <c r="F41" s="14"/>
       <c r="G41" s="13"/>
       <c r="H41" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="I41" s="12" t="s">
         <v>852</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>853</v>
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="41" t="s">
+        <v>853</v>
+      </c>
+      <c r="N41" s="51" t="s">
         <v>854</v>
-      </c>
-      <c r="N41" s="51" t="s">
-        <v>855</v>
       </c>
       <c r="O41" s="13"/>
       <c r="P41" s="13"/>
@@ -13064,7 +13046,7 @@
       <c r="Y41" s="13"/>
       <c r="Z41" s="13"/>
       <c r="AA41" s="11" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AB41" s="13"/>
       <c r="AC41" s="13"/>
@@ -13079,19 +13061,19 @@
       <c r="F42" s="14"/>
       <c r="G42" s="13"/>
       <c r="H42" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="I42" s="12" t="s">
         <v>857</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>858</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="55" t="s">
+        <v>858</v>
+      </c>
+      <c r="N42" s="51" t="s">
         <v>859</v>
-      </c>
-      <c r="N42" s="51" t="s">
-        <v>860</v>
       </c>
       <c r="O42" s="13"/>
       <c r="P42" s="13"/>
@@ -13106,7 +13088,7 @@
       <c r="Y42" s="13"/>
       <c r="Z42" s="13"/>
       <c r="AA42" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AB42" s="13"/>
       <c r="AC42" s="13"/>
@@ -13121,19 +13103,19 @@
       <c r="F43" s="14"/>
       <c r="G43" s="13"/>
       <c r="H43" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="I43" s="12" t="s">
         <v>862</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>863</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
       <c r="M43" s="55" t="s">
+        <v>863</v>
+      </c>
+      <c r="N43" s="51" t="s">
         <v>864</v>
-      </c>
-      <c r="N43" s="51" t="s">
-        <v>865</v>
       </c>
       <c r="O43" s="13"/>
       <c r="P43" s="13"/>
@@ -13148,7 +13130,7 @@
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AB43" s="13"/>
       <c r="AC43" s="13"/>
@@ -13163,10 +13145,10 @@
       <c r="F44" s="14"/>
       <c r="G44" s="13"/>
       <c r="H44" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="I44" s="11" t="s">
         <v>867</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>868</v>
       </c>
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
@@ -13175,7 +13157,7 @@
         <v>590</v>
       </c>
       <c r="N44" s="51" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="O44" s="13"/>
       <c r="P44" s="13"/>
@@ -13190,7 +13172,7 @@
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
       <c r="AA44" s="11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AB44" s="13"/>
       <c r="AC44" s="13"/>
@@ -13205,19 +13187,19 @@
       <c r="F45" s="14"/>
       <c r="G45" s="13"/>
       <c r="H45" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="I45" s="12" t="s">
         <v>871</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>872</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="55" t="s">
+        <v>872</v>
+      </c>
+      <c r="N45" s="51" t="s">
         <v>873</v>
-      </c>
-      <c r="N45" s="51" t="s">
-        <v>874</v>
       </c>
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
@@ -13232,7 +13214,7 @@
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
       <c r="AA45" s="11" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AB45" s="13"/>
       <c r="AC45" s="13"/>
@@ -13247,10 +13229,10 @@
       <c r="F46" s="14"/>
       <c r="G46" s="13"/>
       <c r="H46" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="I46" s="12" t="s">
         <v>876</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>877</v>
       </c>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
@@ -13259,7 +13241,7 @@
         <v>582</v>
       </c>
       <c r="N46" s="51" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
@@ -13274,7 +13256,7 @@
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="11" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AB46" s="13"/>
       <c r="AC46" s="13"/>
@@ -13289,19 +13271,19 @@
       <c r="F47" s="14"/>
       <c r="G47" s="13"/>
       <c r="H47" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="I47" s="12" t="s">
         <v>880</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>881</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
       <c r="M47" s="55" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N47" s="51" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="O47" s="13"/>
       <c r="P47" s="13"/>
@@ -13316,7 +13298,7 @@
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
       <c r="AA47" s="11" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AB47" s="13"/>
       <c r="AC47" s="13"/>
@@ -13331,19 +13313,19 @@
       <c r="F48" s="14"/>
       <c r="G48" s="13"/>
       <c r="H48" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="I48" s="12" t="s">
         <v>884</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>885</v>
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="55" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N48" s="51" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
@@ -13358,7 +13340,7 @@
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
       <c r="AA48" s="11" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AB48" s="13"/>
       <c r="AC48" s="13"/>
@@ -13373,19 +13355,19 @@
       <c r="F49" s="14"/>
       <c r="G49" s="13"/>
       <c r="H49" s="11" t="s">
+        <v>887</v>
+      </c>
+      <c r="I49" s="12" t="s">
         <v>888</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>889</v>
       </c>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="55" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N49" s="51" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="O49" s="13"/>
       <c r="P49" s="13"/>
@@ -13400,7 +13382,7 @@
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
       <c r="AA49" s="11" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AB49" s="13"/>
       <c r="AC49" s="13"/>
@@ -13415,19 +13397,19 @@
       <c r="F50" s="14"/>
       <c r="G50" s="13"/>
       <c r="H50" s="11" t="s">
+        <v>891</v>
+      </c>
+      <c r="I50" s="12" t="s">
         <v>892</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>893</v>
       </c>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="55" t="s">
+        <v>893</v>
+      </c>
+      <c r="N50" s="51" t="s">
         <v>894</v>
-      </c>
-      <c r="N50" s="51" t="s">
-        <v>895</v>
       </c>
       <c r="O50" s="13"/>
       <c r="P50" s="13"/>
@@ -13442,7 +13424,7 @@
       <c r="Y50" s="13"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AB50" s="13"/>
       <c r="AC50" s="13"/>
@@ -13457,19 +13439,19 @@
       <c r="F51" s="14"/>
       <c r="G51" s="13"/>
       <c r="H51" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="I51" s="12" t="s">
         <v>897</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>898</v>
       </c>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
       <c r="M51" s="55" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="N51" s="51" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="O51" s="13"/>
       <c r="P51" s="13"/>
@@ -13484,7 +13466,7 @@
       <c r="Y51" s="13"/>
       <c r="Z51" s="13"/>
       <c r="AA51" s="11" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AB51" s="13"/>
       <c r="AC51" s="13"/>
@@ -13499,19 +13481,19 @@
       <c r="F52" s="14"/>
       <c r="G52" s="13"/>
       <c r="H52" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="I52" s="12" t="s">
         <v>901</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>902</v>
       </c>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
       <c r="M52" s="55" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N52" s="51" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O52" s="13"/>
       <c r="P52" s="13"/>
@@ -13526,7 +13508,7 @@
       <c r="Y52" s="13"/>
       <c r="Z52" s="13"/>
       <c r="AA52" s="11" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AB52" s="13"/>
       <c r="AC52" s="13"/>
@@ -13541,19 +13523,19 @@
       <c r="F53" s="14"/>
       <c r="G53" s="13"/>
       <c r="H53" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="I53" s="11" t="s">
         <v>905</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>906</v>
       </c>
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
       <c r="M53" s="55" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N53" s="51" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="O53" s="13"/>
       <c r="P53" s="13"/>
@@ -13568,7 +13550,7 @@
       <c r="Y53" s="13"/>
       <c r="Z53" s="13"/>
       <c r="AA53" s="11" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AB53" s="13"/>
       <c r="AC53" s="13"/>
@@ -13583,19 +13565,19 @@
       <c r="F54" s="14"/>
       <c r="G54" s="13"/>
       <c r="H54" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="I54" s="11" t="s">
         <v>909</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>910</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
       <c r="L54" s="13"/>
       <c r="M54" s="55" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N54" s="51" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="O54" s="13"/>
       <c r="P54" s="13"/>
@@ -13610,7 +13592,7 @@
       <c r="Y54" s="13"/>
       <c r="Z54" s="13"/>
       <c r="AA54" s="11" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AB54" s="13"/>
       <c r="AC54" s="13"/>
@@ -13625,19 +13607,19 @@
       <c r="F55" s="14"/>
       <c r="G55" s="13"/>
       <c r="H55" s="11" t="s">
+        <v>912</v>
+      </c>
+      <c r="I55" s="11" t="s">
         <v>913</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>914</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="55" t="s">
+        <v>914</v>
+      </c>
+      <c r="N55" s="51" t="s">
         <v>915</v>
-      </c>
-      <c r="N55" s="51" t="s">
-        <v>916</v>
       </c>
       <c r="O55" s="13"/>
       <c r="P55" s="13"/>
@@ -13652,7 +13634,7 @@
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
       <c r="AA55" s="11" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AB55" s="13"/>
       <c r="AC55" s="13"/>
@@ -13667,19 +13649,19 @@
       <c r="F56" s="14"/>
       <c r="G56" s="13"/>
       <c r="H56" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="I56" s="12" t="s">
         <v>918</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>919</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
       <c r="M56" s="55" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N56" s="51" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="O56" s="13"/>
       <c r="P56" s="13"/>
@@ -13694,7 +13676,7 @@
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
       <c r="AA56" s="11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AB56" s="13"/>
       <c r="AC56" s="13"/>
@@ -13709,19 +13691,19 @@
       <c r="F57" s="14"/>
       <c r="G57" s="13"/>
       <c r="H57" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="I57" s="11" t="s">
         <v>922</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>923</v>
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
       <c r="M57" s="55" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="N57" s="51" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="O57" s="13"/>
       <c r="P57" s="13"/>
@@ -13736,7 +13718,7 @@
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
       <c r="AA57" s="11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AB57" s="13"/>
       <c r="AC57" s="13"/>
@@ -13751,19 +13733,19 @@
       <c r="F58" s="14"/>
       <c r="G58" s="13"/>
       <c r="H58" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="I58" s="12" t="s">
         <v>926</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>927</v>
       </c>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
       <c r="M58" s="55" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="N58" s="51" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="O58" s="13"/>
       <c r="P58" s="13"/>
@@ -13778,7 +13760,7 @@
       <c r="Y58" s="13"/>
       <c r="Z58" s="13"/>
       <c r="AA58" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AB58" s="13"/>
       <c r="AC58" s="13"/>
@@ -13793,19 +13775,19 @@
       <c r="F59" s="14"/>
       <c r="G59" s="13"/>
       <c r="H59" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="I59" s="12" t="s">
         <v>930</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>931</v>
       </c>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
       <c r="M59" s="55" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="N59" s="51" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="O59" s="13"/>
       <c r="P59" s="13"/>
@@ -13820,7 +13802,7 @@
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
       <c r="AA59" s="11" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="AB59" s="13"/>
       <c r="AC59" s="13"/>
@@ -13835,17 +13817,17 @@
       <c r="F60" s="14"/>
       <c r="G60" s="13"/>
       <c r="H60" s="11" t="s">
+        <v>933</v>
+      </c>
+      <c r="I60" s="12" t="s">
         <v>934</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>935</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
       <c r="M60" s="56"/>
       <c r="N60" s="51" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="O60" s="13"/>
       <c r="P60" s="13"/>
@@ -13860,7 +13842,7 @@
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
       <c r="AA60" s="11" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AB60" s="13"/>
       <c r="AC60" s="13"/>
@@ -13875,17 +13857,17 @@
       <c r="F61" s="14"/>
       <c r="G61" s="13"/>
       <c r="H61" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="I61" s="11" t="s">
         <v>938</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>939</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
       <c r="M61" s="56"/>
       <c r="N61" s="51" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O61" s="13"/>
       <c r="P61" s="13"/>
@@ -13900,7 +13882,7 @@
       <c r="Y61" s="13"/>
       <c r="Z61" s="13"/>
       <c r="AA61" s="11" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AB61" s="13"/>
       <c r="AC61" s="13"/>
@@ -13915,17 +13897,17 @@
       <c r="F62" s="14"/>
       <c r="G62" s="13"/>
       <c r="H62" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="I62" s="12" t="s">
         <v>942</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>943</v>
       </c>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
       <c r="M62" s="56"/>
       <c r="N62" s="51" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="O62" s="13"/>
       <c r="P62" s="13"/>
@@ -13940,7 +13922,7 @@
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
       <c r="AA62" s="11" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AB62" s="13"/>
       <c r="AC62" s="13"/>
@@ -13955,17 +13937,17 @@
       <c r="F63" s="14"/>
       <c r="G63" s="13"/>
       <c r="H63" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="I63" s="11" t="s">
         <v>946</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>947</v>
       </c>
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
       <c r="M63" s="56"/>
       <c r="N63" s="51" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="O63" s="13"/>
       <c r="P63" s="13"/>
@@ -13980,7 +13962,7 @@
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
       <c r="AA63" s="11" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AB63" s="13"/>
       <c r="AC63" s="13"/>
@@ -13995,17 +13977,17 @@
       <c r="F64" s="14"/>
       <c r="G64" s="13"/>
       <c r="H64" s="11" t="s">
+        <v>949</v>
+      </c>
+      <c r="I64" s="12" t="s">
         <v>950</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>951</v>
       </c>
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
       <c r="M64" s="56"/>
       <c r="N64" s="51" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="O64" s="13"/>
       <c r="P64" s="13"/>
@@ -14020,7 +14002,7 @@
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
       <c r="AA64" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AB64" s="13"/>
       <c r="AC64" s="13"/>
@@ -14035,17 +14017,17 @@
       <c r="F65" s="14"/>
       <c r="G65" s="13"/>
       <c r="H65" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="I65" s="12" t="s">
         <v>954</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>955</v>
       </c>
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
       <c r="M65" s="56"/>
       <c r="N65" s="51" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="O65" s="13"/>
       <c r="P65" s="13"/>
@@ -14060,7 +14042,7 @@
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
       <c r="AA65" s="11" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AB65" s="13"/>
       <c r="AC65" s="13"/>
@@ -14075,17 +14057,17 @@
       <c r="F66" s="14"/>
       <c r="G66" s="13"/>
       <c r="H66" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="I66" s="12" t="s">
         <v>958</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>959</v>
       </c>
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
       <c r="M66" s="56"/>
       <c r="N66" s="51" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="O66" s="13"/>
       <c r="P66" s="13"/>
@@ -14100,7 +14082,7 @@
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
       <c r="AA66" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AB66" s="13"/>
       <c r="AC66" s="13"/>
@@ -14115,17 +14097,17 @@
       <c r="F67" s="14"/>
       <c r="G67" s="13"/>
       <c r="H67" s="11" t="s">
+        <v>961</v>
+      </c>
+      <c r="I67" s="12" t="s">
         <v>962</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>963</v>
       </c>
       <c r="J67" s="13"/>
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
       <c r="M67" s="56"/>
       <c r="N67" s="51" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O67" s="13"/>
       <c r="P67" s="13"/>
@@ -14140,7 +14122,7 @@
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
       <c r="AA67" s="11" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AB67" s="13"/>
       <c r="AC67" s="13"/>
@@ -14155,17 +14137,17 @@
       <c r="F68" s="14"/>
       <c r="G68" s="13"/>
       <c r="H68" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="I68" s="12" t="s">
         <v>966</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>967</v>
       </c>
       <c r="J68" s="13"/>
       <c r="K68" s="13"/>
       <c r="L68" s="13"/>
       <c r="M68" s="56"/>
       <c r="N68" s="51" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="O68" s="13"/>
       <c r="P68" s="13"/>
@@ -14180,7 +14162,7 @@
       <c r="Y68" s="13"/>
       <c r="Z68" s="13"/>
       <c r="AA68" s="11" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AB68" s="13"/>
       <c r="AC68" s="13"/>
@@ -14195,17 +14177,17 @@
       <c r="F69" s="14"/>
       <c r="G69" s="13"/>
       <c r="H69" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="I69" s="11" t="s">
         <v>970</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>971</v>
       </c>
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
       <c r="M69" s="56"/>
       <c r="N69" s="51" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="O69" s="13"/>
       <c r="P69" s="13"/>
@@ -14220,7 +14202,7 @@
       <c r="Y69" s="13"/>
       <c r="Z69" s="13"/>
       <c r="AA69" s="11" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AB69" s="13"/>
       <c r="AC69" s="13"/>
@@ -14235,17 +14217,17 @@
       <c r="F70" s="14"/>
       <c r="G70" s="13"/>
       <c r="H70" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="I70" s="12" t="s">
         <v>974</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>975</v>
       </c>
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
       <c r="M70" s="56"/>
       <c r="N70" s="51" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="O70" s="13"/>
       <c r="P70" s="13"/>
@@ -14260,7 +14242,7 @@
       <c r="Y70" s="13"/>
       <c r="Z70" s="13"/>
       <c r="AA70" s="11" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AB70" s="13"/>
       <c r="AC70" s="13"/>
@@ -14275,17 +14257,17 @@
       <c r="F71" s="14"/>
       <c r="G71" s="13"/>
       <c r="H71" s="11" t="s">
+        <v>977</v>
+      </c>
+      <c r="I71" s="12" t="s">
         <v>978</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>979</v>
       </c>
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
       <c r="M71" s="56"/>
       <c r="N71" s="51" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O71" s="13"/>
       <c r="P71" s="13"/>
@@ -14300,7 +14282,7 @@
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
       <c r="AA71" s="11" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AB71" s="13"/>
       <c r="AC71" s="13"/>
@@ -14315,17 +14297,17 @@
       <c r="F72" s="14"/>
       <c r="G72" s="13"/>
       <c r="H72" s="11" t="s">
+        <v>981</v>
+      </c>
+      <c r="I72" s="11" t="s">
         <v>982</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>983</v>
       </c>
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
       <c r="M72" s="56"/>
       <c r="N72" s="51" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="O72" s="13"/>
       <c r="P72" s="13"/>
@@ -14340,7 +14322,7 @@
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
       <c r="AA72" s="11" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AB72" s="13"/>
       <c r="AC72" s="13"/>
@@ -14355,17 +14337,17 @@
       <c r="F73" s="14"/>
       <c r="G73" s="13"/>
       <c r="H73" s="11" t="s">
+        <v>985</v>
+      </c>
+      <c r="I73" s="12" t="s">
         <v>986</v>
-      </c>
-      <c r="I73" s="12" t="s">
-        <v>987</v>
       </c>
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
       <c r="M73" s="56"/>
       <c r="N73" s="51" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="O73" s="13"/>
       <c r="P73" s="13"/>
@@ -14380,7 +14362,7 @@
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
       <c r="AA73" s="11" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AB73" s="13"/>
       <c r="AC73" s="13"/>
@@ -14395,17 +14377,17 @@
       <c r="F74" s="14"/>
       <c r="G74" s="13"/>
       <c r="H74" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="I74" s="12" t="s">
         <v>990</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>991</v>
       </c>
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
       <c r="M74" s="56"/>
       <c r="N74" s="51" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="O74" s="13"/>
       <c r="P74" s="13"/>
@@ -14420,7 +14402,7 @@
       <c r="Y74" s="13"/>
       <c r="Z74" s="13"/>
       <c r="AA74" s="11" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AB74" s="13"/>
       <c r="AC74" s="13"/>
@@ -14435,17 +14417,17 @@
       <c r="F75" s="14"/>
       <c r="G75" s="13"/>
       <c r="H75" s="11" t="s">
+        <v>993</v>
+      </c>
+      <c r="I75" s="11" t="s">
         <v>994</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>995</v>
       </c>
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
       <c r="M75" s="56"/>
       <c r="N75" s="51" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="O75" s="13"/>
       <c r="P75" s="13"/>
@@ -14460,7 +14442,7 @@
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
       <c r="AA75" s="11" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AB75" s="13"/>
       <c r="AC75" s="13"/>
@@ -14475,17 +14457,17 @@
       <c r="F76" s="14"/>
       <c r="G76" s="13"/>
       <c r="H76" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="I76" s="11" t="s">
         <v>998</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>999</v>
       </c>
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
       <c r="M76" s="56"/>
       <c r="N76" s="51" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O76" s="13"/>
       <c r="P76" s="13"/>
@@ -14500,7 +14482,7 @@
       <c r="Y76" s="13"/>
       <c r="Z76" s="13"/>
       <c r="AA76" s="11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AB76" s="13"/>
       <c r="AC76" s="13"/>
@@ -14515,17 +14497,17 @@
       <c r="F77" s="14"/>
       <c r="G77" s="13"/>
       <c r="H77" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I77" s="11" t="s">
         <v>1002</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>1003</v>
       </c>
       <c r="J77" s="13"/>
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
       <c r="M77" s="56"/>
       <c r="N77" s="51" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="O77" s="13"/>
       <c r="P77" s="13"/>
@@ -14540,7 +14522,7 @@
       <c r="Y77" s="13"/>
       <c r="Z77" s="13"/>
       <c r="AA77" s="11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AB77" s="13"/>
       <c r="AC77" s="13"/>
@@ -14555,17 +14537,17 @@
       <c r="F78" s="14"/>
       <c r="G78" s="13"/>
       <c r="H78" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I78" s="12" t="s">
         <v>1006</v>
-      </c>
-      <c r="I78" s="12" t="s">
-        <v>1007</v>
       </c>
       <c r="J78" s="13"/>
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
       <c r="M78" s="56"/>
       <c r="N78" s="51" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="O78" s="13"/>
       <c r="P78" s="13"/>
@@ -14580,7 +14562,7 @@
       <c r="Y78" s="13"/>
       <c r="Z78" s="13"/>
       <c r="AA78" s="11" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AB78" s="13"/>
       <c r="AC78" s="13"/>
@@ -14595,17 +14577,17 @@
       <c r="F79" s="14"/>
       <c r="G79" s="13"/>
       <c r="H79" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I79" s="11" t="s">
         <v>1010</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>1011</v>
       </c>
       <c r="J79" s="13"/>
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
       <c r="M79" s="56"/>
       <c r="N79" s="51" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="O79" s="13"/>
       <c r="P79" s="13"/>
@@ -14620,7 +14602,7 @@
       <c r="Y79" s="13"/>
       <c r="Z79" s="13"/>
       <c r="AA79" s="11" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AB79" s="13"/>
       <c r="AC79" s="13"/>
@@ -14635,17 +14617,17 @@
       <c r="F80" s="14"/>
       <c r="G80" s="13"/>
       <c r="H80" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I80" s="11" t="s">
         <v>1014</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>1015</v>
       </c>
       <c r="J80" s="13"/>
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
       <c r="M80" s="56"/>
       <c r="N80" s="51" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="O80" s="13"/>
       <c r="P80" s="13"/>
@@ -14660,7 +14642,7 @@
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
       <c r="AA80" s="11" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AB80" s="13"/>
       <c r="AC80" s="13"/>
@@ -14675,17 +14657,17 @@
       <c r="F81" s="14"/>
       <c r="G81" s="13"/>
       <c r="H81" s="11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I81" s="11" t="s">
         <v>1018</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>1019</v>
       </c>
       <c r="J81" s="13"/>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
       <c r="M81" s="56"/>
       <c r="N81" s="51" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O81" s="13"/>
       <c r="P81" s="13"/>
@@ -14700,7 +14682,7 @@
       <c r="Y81" s="13"/>
       <c r="Z81" s="13"/>
       <c r="AA81" s="11" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AB81" s="13"/>
       <c r="AC81" s="13"/>
@@ -14715,17 +14697,17 @@
       <c r="F82" s="14"/>
       <c r="G82" s="13"/>
       <c r="H82" s="11" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I82" s="11" t="s">
         <v>1022</v>
-      </c>
-      <c r="I82" s="11" t="s">
-        <v>1023</v>
       </c>
       <c r="J82" s="13"/>
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
       <c r="M82" s="56"/>
       <c r="N82" s="51" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O82" s="13"/>
       <c r="P82" s="13"/>
@@ -14740,7 +14722,7 @@
       <c r="Y82" s="13"/>
       <c r="Z82" s="13"/>
       <c r="AA82" s="11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AB82" s="13"/>
       <c r="AC82" s="13"/>
@@ -14755,17 +14737,17 @@
       <c r="F83" s="14"/>
       <c r="G83" s="13"/>
       <c r="H83" s="11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I83" s="12" t="s">
         <v>1026</v>
-      </c>
-      <c r="I83" s="12" t="s">
-        <v>1027</v>
       </c>
       <c r="J83" s="13"/>
       <c r="K83" s="13"/>
       <c r="L83" s="13"/>
       <c r="M83" s="56"/>
       <c r="N83" s="51" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="O83" s="13"/>
       <c r="P83" s="13"/>
@@ -14780,7 +14762,7 @@
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
       <c r="AA83" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AB83" s="13"/>
       <c r="AC83" s="13"/>
@@ -14795,17 +14777,17 @@
       <c r="F84" s="14"/>
       <c r="G84" s="13"/>
       <c r="H84" s="11" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I84" s="11" t="s">
         <v>1030</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>1031</v>
       </c>
       <c r="J84" s="13"/>
       <c r="K84" s="13"/>
       <c r="L84" s="13"/>
       <c r="M84" s="56"/>
       <c r="N84" s="51" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="O84" s="13"/>
       <c r="P84" s="13"/>
@@ -14820,7 +14802,7 @@
       <c r="Y84" s="13"/>
       <c r="Z84" s="13"/>
       <c r="AA84" s="11" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AB84" s="13"/>
       <c r="AC84" s="13"/>
@@ -14835,17 +14817,17 @@
       <c r="F85" s="14"/>
       <c r="G85" s="13"/>
       <c r="H85" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="J85" s="13"/>
       <c r="K85" s="13"/>
       <c r="L85" s="13"/>
       <c r="M85" s="56"/>
       <c r="N85" s="51" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O85" s="13"/>
       <c r="P85" s="13"/>
@@ -14860,7 +14842,7 @@
       <c r="Y85" s="13"/>
       <c r="Z85" s="13"/>
       <c r="AA85" s="11" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AB85" s="13"/>
       <c r="AC85" s="13"/>
@@ -14875,17 +14857,17 @@
       <c r="F86" s="14"/>
       <c r="G86" s="13"/>
       <c r="H86" s="11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I86" s="12" t="s">
         <v>1037</v>
-      </c>
-      <c r="I86" s="12" t="s">
-        <v>1038</v>
       </c>
       <c r="J86" s="13"/>
       <c r="K86" s="13"/>
       <c r="L86" s="13"/>
       <c r="M86" s="56"/>
       <c r="N86" s="51" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O86" s="13"/>
       <c r="P86" s="13"/>
@@ -14900,7 +14882,7 @@
       <c r="Y86" s="13"/>
       <c r="Z86" s="13"/>
       <c r="AA86" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AB86" s="13"/>
       <c r="AC86" s="13"/>
@@ -14915,17 +14897,17 @@
       <c r="F87" s="14"/>
       <c r="G87" s="13"/>
       <c r="H87" s="11" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I87" s="12" t="s">
         <v>1041</v>
-      </c>
-      <c r="I87" s="12" t="s">
-        <v>1042</v>
       </c>
       <c r="J87" s="13"/>
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
       <c r="M87" s="56"/>
       <c r="N87" s="51" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O87" s="13"/>
       <c r="P87" s="13"/>
@@ -14940,7 +14922,7 @@
       <c r="Y87" s="13"/>
       <c r="Z87" s="13"/>
       <c r="AA87" s="11" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AB87" s="13"/>
       <c r="AC87" s="13"/>
@@ -14955,17 +14937,17 @@
       <c r="F88" s="14"/>
       <c r="G88" s="13"/>
       <c r="H88" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I88" s="12" t="s">
         <v>1045</v>
-      </c>
-      <c r="I88" s="12" t="s">
-        <v>1046</v>
       </c>
       <c r="J88" s="13"/>
       <c r="K88" s="13"/>
       <c r="L88" s="13"/>
       <c r="M88" s="56"/>
       <c r="N88" s="51" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="O88" s="13"/>
       <c r="P88" s="13"/>
@@ -14980,7 +14962,7 @@
       <c r="Y88" s="13"/>
       <c r="Z88" s="13"/>
       <c r="AA88" s="11" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AB88" s="13"/>
       <c r="AC88" s="13"/>
@@ -14995,17 +14977,17 @@
       <c r="F89" s="14"/>
       <c r="G89" s="13"/>
       <c r="H89" s="11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I89" s="11" t="s">
         <v>1049</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>1050</v>
       </c>
       <c r="J89" s="13"/>
       <c r="K89" s="13"/>
       <c r="L89" s="13"/>
       <c r="M89" s="56"/>
       <c r="N89" s="51" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="O89" s="13"/>
       <c r="P89" s="13"/>
@@ -15020,7 +15002,7 @@
       <c r="Y89" s="13"/>
       <c r="Z89" s="13"/>
       <c r="AA89" s="11" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AB89" s="13"/>
       <c r="AC89" s="13"/>
@@ -15035,10 +15017,10 @@
       <c r="F90" s="14"/>
       <c r="G90" s="13"/>
       <c r="H90" s="11" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I90" s="12" t="s">
         <v>1053</v>
-      </c>
-      <c r="I90" s="12" t="s">
-        <v>1054</v>
       </c>
       <c r="J90" s="13"/>
       <c r="K90" s="13"/>
@@ -15058,7 +15040,7 @@
       <c r="Y90" s="13"/>
       <c r="Z90" s="13"/>
       <c r="AA90" s="11" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AB90" s="13"/>
       <c r="AC90" s="13"/>
@@ -15073,10 +15055,10 @@
       <c r="F91" s="14"/>
       <c r="G91" s="13"/>
       <c r="H91" s="11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I91" s="11" t="s">
         <v>1056</v>
-      </c>
-      <c r="I91" s="11" t="s">
-        <v>1057</v>
       </c>
       <c r="J91" s="13"/>
       <c r="K91" s="13"/>
@@ -15096,7 +15078,7 @@
       <c r="Y91" s="13"/>
       <c r="Z91" s="13"/>
       <c r="AA91" s="11" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AB91" s="13"/>
       <c r="AC91" s="13"/>
@@ -15111,10 +15093,10 @@
       <c r="F92" s="14"/>
       <c r="G92" s="13"/>
       <c r="H92" s="11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I92" s="12" t="s">
         <v>1059</v>
-      </c>
-      <c r="I92" s="12" t="s">
-        <v>1060</v>
       </c>
       <c r="J92" s="13"/>
       <c r="K92" s="13"/>
@@ -15134,7 +15116,7 @@
       <c r="Y92" s="13"/>
       <c r="Z92" s="13"/>
       <c r="AA92" s="11" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AB92" s="13"/>
       <c r="AC92" s="13"/>
@@ -15149,10 +15131,10 @@
       <c r="F93" s="14"/>
       <c r="G93" s="13"/>
       <c r="H93" s="11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I93" s="12" t="s">
         <v>1062</v>
-      </c>
-      <c r="I93" s="12" t="s">
-        <v>1063</v>
       </c>
       <c r="J93" s="13"/>
       <c r="K93" s="13"/>
@@ -15172,7 +15154,7 @@
       <c r="Y93" s="13"/>
       <c r="Z93" s="13"/>
       <c r="AA93" s="11" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AB93" s="13"/>
       <c r="AC93" s="13"/>
@@ -15187,10 +15169,10 @@
       <c r="F94" s="14"/>
       <c r="G94" s="13"/>
       <c r="H94" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="J94" s="13"/>
       <c r="K94" s="13"/>
@@ -15210,7 +15192,7 @@
       <c r="Y94" s="13"/>
       <c r="Z94" s="13"/>
       <c r="AA94" s="11" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AB94" s="13"/>
       <c r="AC94" s="13"/>
@@ -15225,10 +15207,10 @@
       <c r="F95" s="14"/>
       <c r="G95" s="13"/>
       <c r="H95" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I95" s="11" t="s">
         <v>1067</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>1068</v>
       </c>
       <c r="J95" s="13"/>
       <c r="K95" s="13"/>
@@ -15248,7 +15230,7 @@
       <c r="Y95" s="13"/>
       <c r="Z95" s="13"/>
       <c r="AA95" s="11" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AB95" s="13"/>
       <c r="AC95" s="13"/>
@@ -15263,10 +15245,10 @@
       <c r="F96" s="14"/>
       <c r="G96" s="13"/>
       <c r="H96" s="11" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I96" s="11" t="s">
         <v>1070</v>
-      </c>
-      <c r="I96" s="11" t="s">
-        <v>1071</v>
       </c>
       <c r="J96" s="13"/>
       <c r="K96" s="13"/>
@@ -15286,7 +15268,7 @@
       <c r="Y96" s="13"/>
       <c r="Z96" s="13"/>
       <c r="AA96" s="11" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AB96" s="13"/>
       <c r="AC96" s="13"/>
@@ -15301,10 +15283,10 @@
       <c r="F97" s="14"/>
       <c r="G97" s="13"/>
       <c r="H97" s="11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I97" s="12" t="s">
         <v>1073</v>
-      </c>
-      <c r="I97" s="12" t="s">
-        <v>1074</v>
       </c>
       <c r="J97" s="13"/>
       <c r="K97" s="13"/>
@@ -15324,7 +15306,7 @@
       <c r="Y97" s="13"/>
       <c r="Z97" s="13"/>
       <c r="AA97" s="11" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AB97" s="13"/>
       <c r="AC97" s="13"/>
@@ -15339,10 +15321,10 @@
       <c r="F98" s="14"/>
       <c r="G98" s="13"/>
       <c r="H98" s="11" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I98" s="12" t="s">
         <v>1076</v>
-      </c>
-      <c r="I98" s="12" t="s">
-        <v>1077</v>
       </c>
       <c r="J98" s="13"/>
       <c r="K98" s="13"/>
@@ -15362,7 +15344,7 @@
       <c r="Y98" s="13"/>
       <c r="Z98" s="13"/>
       <c r="AA98" s="11" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AB98" s="13"/>
       <c r="AC98" s="13"/>
@@ -15377,10 +15359,10 @@
       <c r="F99" s="14"/>
       <c r="G99" s="13"/>
       <c r="H99" s="11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I99" s="11" t="s">
         <v>1079</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>1080</v>
       </c>
       <c r="J99" s="13"/>
       <c r="K99" s="13"/>
@@ -15400,7 +15382,7 @@
       <c r="Y99" s="13"/>
       <c r="Z99" s="13"/>
       <c r="AA99" s="11" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AB99" s="13"/>
       <c r="AC99" s="13"/>
@@ -15415,10 +15397,10 @@
       <c r="F100" s="14"/>
       <c r="G100" s="13"/>
       <c r="H100" s="11" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I100" s="12" t="s">
         <v>1082</v>
-      </c>
-      <c r="I100" s="12" t="s">
-        <v>1083</v>
       </c>
       <c r="J100" s="13"/>
       <c r="K100" s="13"/>
@@ -15438,7 +15420,7 @@
       <c r="Y100" s="13"/>
       <c r="Z100" s="13"/>
       <c r="AA100" s="11" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AB100" s="13"/>
       <c r="AC100" s="13"/>
@@ -15453,10 +15435,10 @@
       <c r="F101" s="14"/>
       <c r="G101" s="13"/>
       <c r="H101" s="11" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I101" s="11" t="s">
         <v>1085</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>1086</v>
       </c>
       <c r="J101" s="13"/>
       <c r="K101" s="13"/>
@@ -15476,7 +15458,7 @@
       <c r="Y101" s="13"/>
       <c r="Z101" s="13"/>
       <c r="AA101" s="11" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AB101" s="13"/>
       <c r="AC101" s="13"/>
@@ -15491,10 +15473,10 @@
       <c r="F102" s="14"/>
       <c r="G102" s="13"/>
       <c r="H102" s="11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I102" s="11" t="s">
         <v>1088</v>
-      </c>
-      <c r="I102" s="11" t="s">
-        <v>1089</v>
       </c>
       <c r="J102" s="13"/>
       <c r="K102" s="13"/>
@@ -15514,7 +15496,7 @@
       <c r="Y102" s="13"/>
       <c r="Z102" s="13"/>
       <c r="AA102" s="11" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AB102" s="13"/>
       <c r="AC102" s="13"/>
@@ -15529,10 +15511,10 @@
       <c r="F103" s="14"/>
       <c r="G103" s="13"/>
       <c r="H103" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I103" s="11" t="s">
         <v>1091</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>1092</v>
       </c>
       <c r="J103" s="13"/>
       <c r="K103" s="13"/>
@@ -15552,7 +15534,7 @@
       <c r="Y103" s="13"/>
       <c r="Z103" s="13"/>
       <c r="AA103" s="11" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AB103" s="13"/>
       <c r="AC103" s="13"/>
@@ -15567,10 +15549,10 @@
       <c r="F104" s="14"/>
       <c r="G104" s="13"/>
       <c r="H104" s="11" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I104" s="12" t="s">
         <v>1094</v>
-      </c>
-      <c r="I104" s="12" t="s">
-        <v>1095</v>
       </c>
       <c r="J104" s="13"/>
       <c r="K104" s="13"/>
@@ -15590,7 +15572,7 @@
       <c r="Y104" s="13"/>
       <c r="Z104" s="13"/>
       <c r="AA104" s="11" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="AB104" s="13"/>
       <c r="AC104" s="13"/>
@@ -15605,10 +15587,10 @@
       <c r="F105" s="14"/>
       <c r="G105" s="13"/>
       <c r="H105" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I105" s="12" t="s">
         <v>1097</v>
-      </c>
-      <c r="I105" s="12" t="s">
-        <v>1098</v>
       </c>
       <c r="J105" s="13"/>
       <c r="K105" s="13"/>
@@ -15628,7 +15610,7 @@
       <c r="Y105" s="13"/>
       <c r="Z105" s="13"/>
       <c r="AA105" s="11" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AB105" s="13"/>
       <c r="AC105" s="13"/>
@@ -15643,10 +15625,10 @@
       <c r="F106" s="14"/>
       <c r="G106" s="13"/>
       <c r="H106" s="11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I106" s="12" t="s">
         <v>1100</v>
-      </c>
-      <c r="I106" s="12" t="s">
-        <v>1101</v>
       </c>
       <c r="J106" s="13"/>
       <c r="K106" s="13"/>
@@ -15666,7 +15648,7 @@
       <c r="Y106" s="13"/>
       <c r="Z106" s="13"/>
       <c r="AA106" s="11" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AB106" s="13"/>
       <c r="AC106" s="13"/>
@@ -15681,10 +15663,10 @@
       <c r="F107" s="14"/>
       <c r="G107" s="13"/>
       <c r="H107" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I107" s="12" t="s">
         <v>1103</v>
-      </c>
-      <c r="I107" s="12" t="s">
-        <v>1104</v>
       </c>
       <c r="J107" s="13"/>
       <c r="K107" s="13"/>
@@ -15704,7 +15686,7 @@
       <c r="Y107" s="13"/>
       <c r="Z107" s="13"/>
       <c r="AA107" s="11" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AB107" s="13"/>
       <c r="AC107" s="13"/>
@@ -15719,10 +15701,10 @@
       <c r="F108" s="14"/>
       <c r="G108" s="13"/>
       <c r="H108" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I108" s="11" t="s">
         <v>1106</v>
-      </c>
-      <c r="I108" s="11" t="s">
-        <v>1107</v>
       </c>
       <c r="J108" s="13"/>
       <c r="K108" s="13"/>
@@ -15742,7 +15724,7 @@
       <c r="Y108" s="13"/>
       <c r="Z108" s="13"/>
       <c r="AA108" s="11" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AB108" s="13"/>
       <c r="AC108" s="13"/>
@@ -15757,10 +15739,10 @@
       <c r="F109" s="14"/>
       <c r="G109" s="13"/>
       <c r="H109" s="11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I109" s="11" t="s">
         <v>1109</v>
-      </c>
-      <c r="I109" s="11" t="s">
-        <v>1110</v>
       </c>
       <c r="J109" s="13"/>
       <c r="K109" s="13"/>
@@ -15780,7 +15762,7 @@
       <c r="Y109" s="13"/>
       <c r="Z109" s="13"/>
       <c r="AA109" s="11" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="AB109" s="13"/>
       <c r="AC109" s="13"/>
@@ -15795,10 +15777,10 @@
       <c r="F110" s="14"/>
       <c r="G110" s="13"/>
       <c r="H110" s="11" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I110" s="12" t="s">
         <v>1112</v>
-      </c>
-      <c r="I110" s="12" t="s">
-        <v>1113</v>
       </c>
       <c r="J110" s="13"/>
       <c r="K110" s="13"/>
@@ -15818,7 +15800,7 @@
       <c r="Y110" s="13"/>
       <c r="Z110" s="13"/>
       <c r="AA110" s="11" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="AB110" s="13"/>
       <c r="AC110" s="13"/>
@@ -15833,10 +15815,10 @@
       <c r="F111" s="14"/>
       <c r="G111" s="13"/>
       <c r="H111" s="11" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I111" s="11" t="s">
         <v>1115</v>
-      </c>
-      <c r="I111" s="11" t="s">
-        <v>1116</v>
       </c>
       <c r="J111" s="13"/>
       <c r="K111" s="13"/>
@@ -15856,7 +15838,7 @@
       <c r="Y111" s="13"/>
       <c r="Z111" s="13"/>
       <c r="AA111" s="11" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AB111" s="13"/>
       <c r="AC111" s="13"/>
@@ -15871,10 +15853,10 @@
       <c r="F112" s="14"/>
       <c r="G112" s="13"/>
       <c r="H112" s="11" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I112" s="12" t="s">
         <v>1118</v>
-      </c>
-      <c r="I112" s="12" t="s">
-        <v>1119</v>
       </c>
       <c r="J112" s="13"/>
       <c r="K112" s="13"/>
@@ -15894,7 +15876,7 @@
       <c r="Y112" s="13"/>
       <c r="Z112" s="13"/>
       <c r="AA112" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AB112" s="13"/>
       <c r="AC112" s="13"/>
@@ -15909,10 +15891,10 @@
       <c r="F113" s="14"/>
       <c r="G113" s="13"/>
       <c r="H113" s="11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I113" s="11" t="s">
         <v>1121</v>
-      </c>
-      <c r="I113" s="11" t="s">
-        <v>1122</v>
       </c>
       <c r="J113" s="13"/>
       <c r="K113" s="13"/>
@@ -15932,7 +15914,7 @@
       <c r="Y113" s="13"/>
       <c r="Z113" s="13"/>
       <c r="AA113" s="11" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AB113" s="13"/>
       <c r="AC113" s="13"/>
@@ -15947,10 +15929,10 @@
       <c r="F114" s="14"/>
       <c r="G114" s="13"/>
       <c r="H114" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I114" s="11" t="s">
         <v>1124</v>
-      </c>
-      <c r="I114" s="11" t="s">
-        <v>1125</v>
       </c>
       <c r="J114" s="13"/>
       <c r="K114" s="13"/>
@@ -15970,7 +15952,7 @@
       <c r="Y114" s="13"/>
       <c r="Z114" s="13"/>
       <c r="AA114" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AB114" s="13"/>
       <c r="AC114" s="13"/>
@@ -15985,10 +15967,10 @@
       <c r="F115" s="14"/>
       <c r="G115" s="13"/>
       <c r="H115" s="11" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I115" s="12" t="s">
         <v>1127</v>
-      </c>
-      <c r="I115" s="12" t="s">
-        <v>1128</v>
       </c>
       <c r="J115" s="13"/>
       <c r="K115" s="13"/>
@@ -16008,7 +15990,7 @@
       <c r="Y115" s="13"/>
       <c r="Z115" s="13"/>
       <c r="AA115" s="11" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AB115" s="13"/>
       <c r="AC115" s="13"/>
@@ -16023,10 +16005,10 @@
       <c r="F116" s="14"/>
       <c r="G116" s="13"/>
       <c r="H116" s="11" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I116" s="12" t="s">
         <v>1130</v>
-      </c>
-      <c r="I116" s="12" t="s">
-        <v>1131</v>
       </c>
       <c r="J116" s="13"/>
       <c r="K116" s="13"/>
@@ -16046,7 +16028,7 @@
       <c r="Y116" s="13"/>
       <c r="Z116" s="13"/>
       <c r="AA116" s="11" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="AB116" s="13"/>
       <c r="AC116" s="13"/>
@@ -16061,10 +16043,10 @@
       <c r="F117" s="14"/>
       <c r="G117" s="13"/>
       <c r="H117" s="11" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I117" s="11" t="s">
         <v>1133</v>
-      </c>
-      <c r="I117" s="11" t="s">
-        <v>1134</v>
       </c>
       <c r="J117" s="13"/>
       <c r="K117" s="13"/>
@@ -16084,7 +16066,7 @@
       <c r="Y117" s="13"/>
       <c r="Z117" s="13"/>
       <c r="AA117" s="11" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AB117" s="13"/>
       <c r="AC117" s="13"/>
@@ -16099,10 +16081,10 @@
       <c r="F118" s="14"/>
       <c r="G118" s="13"/>
       <c r="H118" s="11" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I118" s="12" t="s">
         <v>1136</v>
-      </c>
-      <c r="I118" s="12" t="s">
-        <v>1137</v>
       </c>
       <c r="J118" s="13"/>
       <c r="K118" s="13"/>
@@ -16122,7 +16104,7 @@
       <c r="Y118" s="13"/>
       <c r="Z118" s="13"/>
       <c r="AA118" s="11" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AB118" s="13"/>
       <c r="AC118" s="13"/>
@@ -16137,10 +16119,10 @@
       <c r="F119" s="14"/>
       <c r="G119" s="13"/>
       <c r="H119" s="11" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I119" s="12" t="s">
         <v>1139</v>
-      </c>
-      <c r="I119" s="12" t="s">
-        <v>1140</v>
       </c>
       <c r="J119" s="13"/>
       <c r="K119" s="13"/>
@@ -16160,7 +16142,7 @@
       <c r="Y119" s="13"/>
       <c r="Z119" s="13"/>
       <c r="AA119" s="11" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AB119" s="13"/>
       <c r="AC119" s="13"/>
@@ -16175,10 +16157,10 @@
       <c r="F120" s="14"/>
       <c r="G120" s="13"/>
       <c r="H120" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I120" s="12" t="s">
         <v>1142</v>
-      </c>
-      <c r="I120" s="12" t="s">
-        <v>1143</v>
       </c>
       <c r="J120" s="13"/>
       <c r="K120" s="13"/>
@@ -16198,7 +16180,7 @@
       <c r="Y120" s="13"/>
       <c r="Z120" s="13"/>
       <c r="AA120" s="11" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AB120" s="13"/>
       <c r="AC120" s="13"/>
@@ -16213,10 +16195,10 @@
       <c r="F121" s="14"/>
       <c r="G121" s="13"/>
       <c r="H121" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I121" s="12" t="s">
         <v>1145</v>
-      </c>
-      <c r="I121" s="12" t="s">
-        <v>1146</v>
       </c>
       <c r="J121" s="13"/>
       <c r="K121" s="13"/>
@@ -16236,7 +16218,7 @@
       <c r="Y121" s="13"/>
       <c r="Z121" s="13"/>
       <c r="AA121" s="11" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AB121" s="13"/>
       <c r="AC121" s="13"/>
@@ -16251,10 +16233,10 @@
       <c r="F122" s="14"/>
       <c r="G122" s="13"/>
       <c r="H122" s="11" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I122" s="12" t="s">
         <v>1148</v>
-      </c>
-      <c r="I122" s="12" t="s">
-        <v>1149</v>
       </c>
       <c r="J122" s="13"/>
       <c r="K122" s="13"/>
@@ -16274,7 +16256,7 @@
       <c r="Y122" s="13"/>
       <c r="Z122" s="13"/>
       <c r="AA122" s="11" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AB122" s="13"/>
       <c r="AC122" s="13"/>
@@ -16289,10 +16271,10 @@
       <c r="F123" s="14"/>
       <c r="G123" s="13"/>
       <c r="H123" s="11" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I123" s="12" t="s">
         <v>1151</v>
-      </c>
-      <c r="I123" s="12" t="s">
-        <v>1152</v>
       </c>
       <c r="J123" s="13"/>
       <c r="K123" s="13"/>
@@ -16312,7 +16294,7 @@
       <c r="Y123" s="13"/>
       <c r="Z123" s="13"/>
       <c r="AA123" s="11" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AB123" s="13"/>
       <c r="AC123" s="13"/>
@@ -16327,10 +16309,10 @@
       <c r="F124" s="14"/>
       <c r="G124" s="13"/>
       <c r="H124" s="11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="I124" s="11" t="s">
         <v>1154</v>
-      </c>
-      <c r="I124" s="11" t="s">
-        <v>1155</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13"/>
@@ -16350,7 +16332,7 @@
       <c r="Y124" s="13"/>
       <c r="Z124" s="13"/>
       <c r="AA124" s="11" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AB124" s="13"/>
       <c r="AC124" s="13"/>
@@ -16365,10 +16347,10 @@
       <c r="F125" s="14"/>
       <c r="G125" s="13"/>
       <c r="H125" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I125" s="12" t="s">
         <v>1157</v>
-      </c>
-      <c r="I125" s="12" t="s">
-        <v>1158</v>
       </c>
       <c r="J125" s="13"/>
       <c r="K125" s="13"/>
@@ -16388,7 +16370,7 @@
       <c r="Y125" s="13"/>
       <c r="Z125" s="13"/>
       <c r="AA125" s="11" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AB125" s="13"/>
       <c r="AC125" s="13"/>
@@ -16403,10 +16385,10 @@
       <c r="F126" s="14"/>
       <c r="G126" s="13"/>
       <c r="H126" s="11" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I126" s="12" t="s">
         <v>1160</v>
-      </c>
-      <c r="I126" s="12" t="s">
-        <v>1161</v>
       </c>
       <c r="J126" s="13"/>
       <c r="K126" s="13"/>
@@ -16426,7 +16408,7 @@
       <c r="Y126" s="13"/>
       <c r="Z126" s="13"/>
       <c r="AA126" s="11" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AB126" s="13"/>
       <c r="AC126" s="13"/>
@@ -16441,10 +16423,10 @@
       <c r="F127" s="14"/>
       <c r="G127" s="13"/>
       <c r="H127" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I127" s="12" t="s">
         <v>1163</v>
-      </c>
-      <c r="I127" s="12" t="s">
-        <v>1164</v>
       </c>
       <c r="J127" s="13"/>
       <c r="K127" s="13"/>
@@ -16464,7 +16446,7 @@
       <c r="Y127" s="13"/>
       <c r="Z127" s="13"/>
       <c r="AA127" s="11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AB127" s="13"/>
       <c r="AC127" s="13"/>
@@ -16479,10 +16461,10 @@
       <c r="F128" s="14"/>
       <c r="G128" s="13"/>
       <c r="H128" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I128" s="12" t="s">
         <v>1166</v>
-      </c>
-      <c r="I128" s="12" t="s">
-        <v>1167</v>
       </c>
       <c r="J128" s="13"/>
       <c r="K128" s="13"/>
@@ -16502,7 +16484,7 @@
       <c r="Y128" s="13"/>
       <c r="Z128" s="13"/>
       <c r="AA128" s="11" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AB128" s="13"/>
       <c r="AC128" s="13"/>
@@ -16517,10 +16499,10 @@
       <c r="F129" s="14"/>
       <c r="G129" s="13"/>
       <c r="H129" s="11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I129" s="12" t="s">
         <v>1169</v>
-      </c>
-      <c r="I129" s="12" t="s">
-        <v>1170</v>
       </c>
       <c r="J129" s="13"/>
       <c r="K129" s="13"/>
@@ -16540,7 +16522,7 @@
       <c r="Y129" s="13"/>
       <c r="Z129" s="13"/>
       <c r="AA129" s="11" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AB129" s="13"/>
       <c r="AC129" s="13"/>
@@ -16555,10 +16537,10 @@
       <c r="F130" s="14"/>
       <c r="G130" s="13"/>
       <c r="H130" s="11" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I130" s="12" t="s">
         <v>1172</v>
-      </c>
-      <c r="I130" s="12" t="s">
-        <v>1173</v>
       </c>
       <c r="J130" s="13"/>
       <c r="K130" s="13"/>
@@ -16578,7 +16560,7 @@
       <c r="Y130" s="13"/>
       <c r="Z130" s="13"/>
       <c r="AA130" s="11" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AB130" s="13"/>
       <c r="AC130" s="13"/>
@@ -16593,10 +16575,10 @@
       <c r="F131" s="14"/>
       <c r="G131" s="13"/>
       <c r="H131" s="11" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I131" s="12" t="s">
         <v>1175</v>
-      </c>
-      <c r="I131" s="12" t="s">
-        <v>1176</v>
       </c>
       <c r="J131" s="13"/>
       <c r="K131" s="13"/>
@@ -16616,7 +16598,7 @@
       <c r="Y131" s="13"/>
       <c r="Z131" s="13"/>
       <c r="AA131" s="11" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AB131" s="13"/>
       <c r="AC131" s="13"/>
@@ -16631,10 +16613,10 @@
       <c r="F132" s="14"/>
       <c r="G132" s="13"/>
       <c r="H132" s="11" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I132" s="12" t="s">
         <v>1178</v>
-      </c>
-      <c r="I132" s="12" t="s">
-        <v>1179</v>
       </c>
       <c r="J132" s="13"/>
       <c r="K132" s="13"/>
@@ -16654,7 +16636,7 @@
       <c r="Y132" s="13"/>
       <c r="Z132" s="13"/>
       <c r="AA132" s="11" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AB132" s="13"/>
       <c r="AC132" s="13"/>
@@ -16669,10 +16651,10 @@
       <c r="F133" s="14"/>
       <c r="G133" s="13"/>
       <c r="H133" s="11" t="s">
+        <v>1180</v>
+      </c>
+      <c r="I133" s="12" t="s">
         <v>1181</v>
-      </c>
-      <c r="I133" s="12" t="s">
-        <v>1182</v>
       </c>
       <c r="J133" s="13"/>
       <c r="K133" s="13"/>
@@ -16692,7 +16674,7 @@
       <c r="Y133" s="13"/>
       <c r="Z133" s="13"/>
       <c r="AA133" s="11" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AB133" s="13"/>
       <c r="AC133" s="13"/>
@@ -16707,10 +16689,10 @@
       <c r="F134" s="14"/>
       <c r="G134" s="13"/>
       <c r="H134" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I134" s="11" t="s">
         <v>1184</v>
-      </c>
-      <c r="I134" s="11" t="s">
-        <v>1185</v>
       </c>
       <c r="J134" s="13"/>
       <c r="K134" s="13"/>
@@ -16730,7 +16712,7 @@
       <c r="Y134" s="13"/>
       <c r="Z134" s="13"/>
       <c r="AA134" s="11" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AB134" s="13"/>
       <c r="AC134" s="13"/>
@@ -16745,10 +16727,10 @@
       <c r="F135" s="14"/>
       <c r="G135" s="13"/>
       <c r="H135" s="11" t="s">
+        <v>1186</v>
+      </c>
+      <c r="I135" s="11" t="s">
         <v>1187</v>
-      </c>
-      <c r="I135" s="11" t="s">
-        <v>1188</v>
       </c>
       <c r="J135" s="13"/>
       <c r="K135" s="13"/>
@@ -16768,7 +16750,7 @@
       <c r="Y135" s="13"/>
       <c r="Z135" s="13"/>
       <c r="AA135" s="11" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="AB135" s="13"/>
       <c r="AC135" s="13"/>
@@ -16783,10 +16765,10 @@
       <c r="F136" s="14"/>
       <c r="G136" s="13"/>
       <c r="H136" s="11" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I136" s="12" t="s">
         <v>1190</v>
-      </c>
-      <c r="I136" s="12" t="s">
-        <v>1191</v>
       </c>
       <c r="J136" s="13"/>
       <c r="K136" s="13"/>
@@ -16806,7 +16788,7 @@
       <c r="Y136" s="13"/>
       <c r="Z136" s="13"/>
       <c r="AA136" s="11" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AB136" s="13"/>
       <c r="AC136" s="13"/>
@@ -16821,10 +16803,10 @@
       <c r="F137" s="14"/>
       <c r="G137" s="13"/>
       <c r="H137" s="11" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I137" s="12" t="s">
         <v>1193</v>
-      </c>
-      <c r="I137" s="12" t="s">
-        <v>1194</v>
       </c>
       <c r="J137" s="13"/>
       <c r="K137" s="13"/>
@@ -16844,7 +16826,7 @@
       <c r="Y137" s="13"/>
       <c r="Z137" s="13"/>
       <c r="AA137" s="11" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="AB137" s="13"/>
       <c r="AC137" s="13"/>
@@ -16859,10 +16841,10 @@
       <c r="F138" s="14"/>
       <c r="G138" s="13"/>
       <c r="H138" s="11" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I138" s="12" t="s">
         <v>1196</v>
-      </c>
-      <c r="I138" s="12" t="s">
-        <v>1197</v>
       </c>
       <c r="J138" s="13"/>
       <c r="K138" s="13"/>
@@ -16882,7 +16864,7 @@
       <c r="Y138" s="13"/>
       <c r="Z138" s="13"/>
       <c r="AA138" s="11" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AB138" s="13"/>
       <c r="AC138" s="13"/>
@@ -16897,10 +16879,10 @@
       <c r="F139" s="14"/>
       <c r="G139" s="13"/>
       <c r="H139" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I139" s="11" t="s">
         <v>1199</v>
-      </c>
-      <c r="I139" s="11" t="s">
-        <v>1200</v>
       </c>
       <c r="J139" s="13"/>
       <c r="K139" s="13"/>
@@ -16920,7 +16902,7 @@
       <c r="Y139" s="13"/>
       <c r="Z139" s="13"/>
       <c r="AA139" s="11" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AB139" s="13"/>
       <c r="AC139" s="13"/>
@@ -16935,10 +16917,10 @@
       <c r="F140" s="14"/>
       <c r="G140" s="13"/>
       <c r="H140" s="11" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I140" s="11" t="s">
         <v>1202</v>
-      </c>
-      <c r="I140" s="11" t="s">
-        <v>1203</v>
       </c>
       <c r="J140" s="13"/>
       <c r="K140" s="13"/>
@@ -16958,7 +16940,7 @@
       <c r="Y140" s="13"/>
       <c r="Z140" s="13"/>
       <c r="AA140" s="11" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AB140" s="13"/>
       <c r="AC140" s="13"/>
@@ -16973,10 +16955,10 @@
       <c r="F141" s="14"/>
       <c r="G141" s="13"/>
       <c r="H141" s="11" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I141" s="12" t="s">
         <v>1205</v>
-      </c>
-      <c r="I141" s="12" t="s">
-        <v>1206</v>
       </c>
       <c r="J141" s="13"/>
       <c r="K141" s="13"/>
@@ -16996,7 +16978,7 @@
       <c r="Y141" s="13"/>
       <c r="Z141" s="13"/>
       <c r="AA141" s="11" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AB141" s="13"/>
       <c r="AC141" s="13"/>
@@ -17011,10 +16993,10 @@
       <c r="F142" s="14"/>
       <c r="G142" s="13"/>
       <c r="H142" s="11" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="J142" s="13"/>
       <c r="K142" s="13"/>
@@ -17034,7 +17016,7 @@
       <c r="Y142" s="13"/>
       <c r="Z142" s="13"/>
       <c r="AA142" s="11" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AB142" s="13"/>
       <c r="AC142" s="13"/>
@@ -17049,10 +17031,10 @@
       <c r="F143" s="14"/>
       <c r="G143" s="13"/>
       <c r="H143" s="11" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I143" s="12" t="s">
         <v>1210</v>
-      </c>
-      <c r="I143" s="12" t="s">
-        <v>1211</v>
       </c>
       <c r="J143" s="13"/>
       <c r="K143" s="13"/>
@@ -17072,7 +17054,7 @@
       <c r="Y143" s="13"/>
       <c r="Z143" s="13"/>
       <c r="AA143" s="11" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="AB143" s="13"/>
       <c r="AC143" s="13"/>
@@ -17087,10 +17069,10 @@
       <c r="F144" s="14"/>
       <c r="G144" s="13"/>
       <c r="H144" s="11" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I144" s="12" t="s">
         <v>1213</v>
-      </c>
-      <c r="I144" s="12" t="s">
-        <v>1214</v>
       </c>
       <c r="J144" s="13"/>
       <c r="K144" s="13"/>
@@ -17110,7 +17092,7 @@
       <c r="Y144" s="13"/>
       <c r="Z144" s="13"/>
       <c r="AA144" s="11" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="AB144" s="13"/>
       <c r="AC144" s="13"/>
@@ -17125,10 +17107,10 @@
       <c r="F145" s="14"/>
       <c r="G145" s="13"/>
       <c r="H145" s="11" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I145" s="11" t="s">
         <v>1216</v>
-      </c>
-      <c r="I145" s="11" t="s">
-        <v>1217</v>
       </c>
       <c r="J145" s="13"/>
       <c r="K145" s="13"/>
@@ -17148,7 +17130,7 @@
       <c r="Y145" s="13"/>
       <c r="Z145" s="13"/>
       <c r="AA145" s="11" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AB145" s="13"/>
       <c r="AC145" s="13"/>
@@ -17163,10 +17145,10 @@
       <c r="F146" s="14"/>
       <c r="G146" s="13"/>
       <c r="H146" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I146" s="12" t="s">
         <v>1219</v>
-      </c>
-      <c r="I146" s="12" t="s">
-        <v>1220</v>
       </c>
       <c r="J146" s="13"/>
       <c r="K146" s="13"/>
@@ -17186,7 +17168,7 @@
       <c r="Y146" s="13"/>
       <c r="Z146" s="13"/>
       <c r="AA146" s="11" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AB146" s="13"/>
       <c r="AC146" s="13"/>
@@ -17201,10 +17183,10 @@
       <c r="F147" s="14"/>
       <c r="G147" s="13"/>
       <c r="H147" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I147" s="12" t="s">
         <v>1222</v>
-      </c>
-      <c r="I147" s="12" t="s">
-        <v>1223</v>
       </c>
       <c r="J147" s="13"/>
       <c r="K147" s="13"/>
@@ -17224,7 +17206,7 @@
       <c r="Y147" s="13"/>
       <c r="Z147" s="13"/>
       <c r="AA147" s="11" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AB147" s="13"/>
       <c r="AC147" s="13"/>
@@ -17239,10 +17221,10 @@
       <c r="F148" s="14"/>
       <c r="G148" s="13"/>
       <c r="H148" s="11" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I148" s="11" t="s">
         <v>1225</v>
-      </c>
-      <c r="I148" s="11" t="s">
-        <v>1226</v>
       </c>
       <c r="J148" s="13"/>
       <c r="K148" s="13"/>
@@ -17262,7 +17244,7 @@
       <c r="Y148" s="13"/>
       <c r="Z148" s="13"/>
       <c r="AA148" s="11" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AB148" s="13"/>
       <c r="AC148" s="13"/>
@@ -17277,10 +17259,10 @@
       <c r="F149" s="14"/>
       <c r="G149" s="13"/>
       <c r="H149" s="11" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I149" s="12" t="s">
         <v>1228</v>
-      </c>
-      <c r="I149" s="12" t="s">
-        <v>1229</v>
       </c>
       <c r="J149" s="13"/>
       <c r="K149" s="13"/>
@@ -17300,7 +17282,7 @@
       <c r="Y149" s="13"/>
       <c r="Z149" s="13"/>
       <c r="AA149" s="11" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AB149" s="13"/>
       <c r="AC149" s="13"/>
@@ -17315,10 +17297,10 @@
       <c r="F150" s="14"/>
       <c r="G150" s="13"/>
       <c r="H150" s="11" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I150" s="11" t="s">
         <v>1231</v>
-      </c>
-      <c r="I150" s="11" t="s">
-        <v>1232</v>
       </c>
       <c r="J150" s="13"/>
       <c r="K150" s="13"/>
@@ -17338,7 +17320,7 @@
       <c r="Y150" s="13"/>
       <c r="Z150" s="13"/>
       <c r="AA150" s="11" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="AB150" s="13"/>
       <c r="AC150" s="13"/>
@@ -17353,10 +17335,10 @@
       <c r="F151" s="14"/>
       <c r="G151" s="13"/>
       <c r="H151" s="11" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I151" s="11" t="s">
         <v>1234</v>
-      </c>
-      <c r="I151" s="11" t="s">
-        <v>1235</v>
       </c>
       <c r="J151" s="13"/>
       <c r="K151" s="13"/>
@@ -17376,7 +17358,7 @@
       <c r="Y151" s="13"/>
       <c r="Z151" s="13"/>
       <c r="AA151" s="11" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AB151" s="13"/>
       <c r="AC151" s="13"/>
@@ -17391,10 +17373,10 @@
       <c r="F152" s="14"/>
       <c r="G152" s="13"/>
       <c r="H152" s="11" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I152" s="11" t="s">
         <v>1237</v>
-      </c>
-      <c r="I152" s="11" t="s">
-        <v>1238</v>
       </c>
       <c r="J152" s="13"/>
       <c r="K152" s="13"/>
@@ -17414,7 +17396,7 @@
       <c r="Y152" s="13"/>
       <c r="Z152" s="13"/>
       <c r="AA152" s="11" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="AB152" s="13"/>
       <c r="AC152" s="13"/>
@@ -17429,10 +17411,10 @@
       <c r="F153" s="14"/>
       <c r="G153" s="13"/>
       <c r="H153" s="11" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I153" s="12" t="s">
         <v>1240</v>
-      </c>
-      <c r="I153" s="12" t="s">
-        <v>1241</v>
       </c>
       <c r="J153" s="13"/>
       <c r="K153" s="13"/>
@@ -17452,7 +17434,7 @@
       <c r="Y153" s="13"/>
       <c r="Z153" s="13"/>
       <c r="AA153" s="11" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="AB153" s="13"/>
       <c r="AC153" s="13"/>
@@ -17467,10 +17449,10 @@
       <c r="F154" s="14"/>
       <c r="G154" s="13"/>
       <c r="H154" s="11" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I154" s="12" t="s">
         <v>1243</v>
-      </c>
-      <c r="I154" s="12" t="s">
-        <v>1244</v>
       </c>
       <c r="J154" s="13"/>
       <c r="K154" s="13"/>
@@ -17490,7 +17472,7 @@
       <c r="Y154" s="13"/>
       <c r="Z154" s="13"/>
       <c r="AA154" s="11" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="AB154" s="13"/>
       <c r="AC154" s="13"/>
@@ -17505,10 +17487,10 @@
       <c r="F155" s="14"/>
       <c r="G155" s="13"/>
       <c r="H155" s="11" t="s">
+        <v>1245</v>
+      </c>
+      <c r="I155" s="11" t="s">
         <v>1246</v>
-      </c>
-      <c r="I155" s="11" t="s">
-        <v>1247</v>
       </c>
       <c r="J155" s="13"/>
       <c r="K155" s="13"/>
@@ -17528,7 +17510,7 @@
       <c r="Y155" s="13"/>
       <c r="Z155" s="13"/>
       <c r="AA155" s="11" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="AB155" s="13"/>
       <c r="AC155" s="13"/>
@@ -17543,10 +17525,10 @@
       <c r="F156" s="14"/>
       <c r="G156" s="13"/>
       <c r="H156" s="11" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I156" s="11" t="s">
         <v>1249</v>
-      </c>
-      <c r="I156" s="11" t="s">
-        <v>1250</v>
       </c>
       <c r="J156" s="13"/>
       <c r="K156" s="13"/>
@@ -17566,7 +17548,7 @@
       <c r="Y156" s="13"/>
       <c r="Z156" s="13"/>
       <c r="AA156" s="11" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="AB156" s="13"/>
       <c r="AC156" s="13"/>
@@ -17581,10 +17563,10 @@
       <c r="F157" s="14"/>
       <c r="G157" s="13"/>
       <c r="H157" s="11" t="s">
+        <v>1251</v>
+      </c>
+      <c r="I157" s="11" t="s">
         <v>1252</v>
-      </c>
-      <c r="I157" s="11" t="s">
-        <v>1253</v>
       </c>
       <c r="J157" s="13"/>
       <c r="K157" s="13"/>
@@ -17604,7 +17586,7 @@
       <c r="Y157" s="13"/>
       <c r="Z157" s="13"/>
       <c r="AA157" s="11" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="AB157" s="13"/>
       <c r="AC157" s="13"/>
@@ -17619,10 +17601,10 @@
       <c r="F158" s="14"/>
       <c r="G158" s="13"/>
       <c r="H158" s="11" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I158" s="12" t="s">
         <v>1255</v>
-      </c>
-      <c r="I158" s="12" t="s">
-        <v>1256</v>
       </c>
       <c r="J158" s="13"/>
       <c r="K158" s="13"/>
@@ -17642,7 +17624,7 @@
       <c r="Y158" s="13"/>
       <c r="Z158" s="13"/>
       <c r="AA158" s="11" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="AB158" s="13"/>
       <c r="AC158" s="13"/>
@@ -17657,10 +17639,10 @@
       <c r="F159" s="14"/>
       <c r="G159" s="13"/>
       <c r="H159" s="11" t="s">
+        <v>1257</v>
+      </c>
+      <c r="I159" s="12" t="s">
         <v>1258</v>
-      </c>
-      <c r="I159" s="12" t="s">
-        <v>1259</v>
       </c>
       <c r="J159" s="13"/>
       <c r="K159" s="13"/>
@@ -17680,7 +17662,7 @@
       <c r="Y159" s="13"/>
       <c r="Z159" s="13"/>
       <c r="AA159" s="11" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="AB159" s="13"/>
       <c r="AC159" s="13"/>
@@ -17695,10 +17677,10 @@
       <c r="F160" s="14"/>
       <c r="G160" s="13"/>
       <c r="H160" s="11" t="s">
+        <v>1260</v>
+      </c>
+      <c r="I160" s="12" t="s">
         <v>1261</v>
-      </c>
-      <c r="I160" s="12" t="s">
-        <v>1262</v>
       </c>
       <c r="J160" s="13"/>
       <c r="K160" s="13"/>
@@ -17718,7 +17700,7 @@
       <c r="Y160" s="13"/>
       <c r="Z160" s="13"/>
       <c r="AA160" s="11" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="AB160" s="13"/>
       <c r="AC160" s="13"/>
@@ -17733,10 +17715,10 @@
       <c r="F161" s="14"/>
       <c r="G161" s="13"/>
       <c r="H161" s="11" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I161" s="12" t="s">
         <v>1264</v>
-      </c>
-      <c r="I161" s="12" t="s">
-        <v>1265</v>
       </c>
       <c r="J161" s="13"/>
       <c r="K161" s="13"/>
@@ -17756,7 +17738,7 @@
       <c r="Y161" s="13"/>
       <c r="Z161" s="13"/>
       <c r="AA161" s="11" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="AB161" s="13"/>
       <c r="AC161" s="13"/>
@@ -17771,10 +17753,10 @@
       <c r="F162" s="14"/>
       <c r="G162" s="13"/>
       <c r="H162" s="11" t="s">
+        <v>1266</v>
+      </c>
+      <c r="I162" s="12" t="s">
         <v>1267</v>
-      </c>
-      <c r="I162" s="12" t="s">
-        <v>1268</v>
       </c>
       <c r="J162" s="13"/>
       <c r="K162" s="13"/>
@@ -17794,7 +17776,7 @@
       <c r="Y162" s="13"/>
       <c r="Z162" s="13"/>
       <c r="AA162" s="11" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="AB162" s="13"/>
       <c r="AC162" s="13"/>
@@ -17809,10 +17791,10 @@
       <c r="F163" s="14"/>
       <c r="G163" s="13"/>
       <c r="H163" s="11" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I163" s="11" t="s">
         <v>1270</v>
-      </c>
-      <c r="I163" s="11" t="s">
-        <v>1271</v>
       </c>
       <c r="J163" s="13"/>
       <c r="K163" s="13"/>
@@ -17832,7 +17814,7 @@
       <c r="Y163" s="13"/>
       <c r="Z163" s="13"/>
       <c r="AA163" s="11" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="AB163" s="13"/>
       <c r="AC163" s="13"/>
@@ -17847,10 +17829,10 @@
       <c r="F164" s="14"/>
       <c r="G164" s="13"/>
       <c r="H164" s="11" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I164" s="11" t="s">
         <v>1273</v>
-      </c>
-      <c r="I164" s="11" t="s">
-        <v>1274</v>
       </c>
       <c r="J164" s="13"/>
       <c r="K164" s="13"/>
@@ -17870,7 +17852,7 @@
       <c r="Y164" s="13"/>
       <c r="Z164" s="13"/>
       <c r="AA164" s="11" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="AB164" s="13"/>
       <c r="AC164" s="13"/>
@@ -17885,10 +17867,10 @@
       <c r="F165" s="14"/>
       <c r="G165" s="13"/>
       <c r="H165" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I165" s="11" t="s">
         <v>1276</v>
-      </c>
-      <c r="I165" s="11" t="s">
-        <v>1277</v>
       </c>
       <c r="J165" s="13"/>
       <c r="K165" s="13"/>
@@ -17908,7 +17890,7 @@
       <c r="Y165" s="13"/>
       <c r="Z165" s="13"/>
       <c r="AA165" s="11" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="AB165" s="13"/>
       <c r="AC165" s="13"/>
@@ -17923,7 +17905,7 @@
       <c r="F166" s="14"/>
       <c r="G166" s="13"/>
       <c r="H166" s="11" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I166" s="13"/>
       <c r="J166" s="13"/>
@@ -17944,7 +17926,7 @@
       <c r="Y166" s="13"/>
       <c r="Z166" s="13"/>
       <c r="AA166" s="11" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="AB166" s="13"/>
       <c r="AC166" s="13"/>
@@ -17959,7 +17941,7 @@
       <c r="F167" s="14"/>
       <c r="G167" s="13"/>
       <c r="H167" s="11" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I167" s="13"/>
       <c r="J167" s="13"/>
@@ -17980,7 +17962,7 @@
       <c r="Y167" s="13"/>
       <c r="Z167" s="13"/>
       <c r="AA167" s="11" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="AB167" s="13"/>
       <c r="AC167" s="13"/>
@@ -17995,7 +17977,7 @@
       <c r="F168" s="14"/>
       <c r="G168" s="13"/>
       <c r="H168" s="11" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I168" s="13"/>
       <c r="J168" s="13"/>
@@ -18016,7 +17998,7 @@
       <c r="Y168" s="13"/>
       <c r="Z168" s="13"/>
       <c r="AA168" s="11" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AB168" s="13"/>
       <c r="AC168" s="13"/>
@@ -18031,7 +18013,7 @@
       <c r="F169" s="14"/>
       <c r="G169" s="13"/>
       <c r="H169" s="11" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I169" s="13"/>
       <c r="J169" s="13"/>
@@ -18052,7 +18034,7 @@
       <c r="Y169" s="13"/>
       <c r="Z169" s="13"/>
       <c r="AA169" s="11" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="AB169" s="13"/>
       <c r="AC169" s="13"/>
@@ -18067,7 +18049,7 @@
       <c r="F170" s="14"/>
       <c r="G170" s="13"/>
       <c r="H170" s="11" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="I170" s="13"/>
       <c r="J170" s="13"/>
@@ -18088,7 +18070,7 @@
       <c r="Y170" s="13"/>
       <c r="Z170" s="13"/>
       <c r="AA170" s="11" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="AB170" s="13"/>
       <c r="AC170" s="13"/>
@@ -18103,7 +18085,7 @@
       <c r="F171" s="14"/>
       <c r="G171" s="13"/>
       <c r="H171" s="11" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I171" s="13"/>
       <c r="J171" s="13"/>
@@ -18137,7 +18119,7 @@
       <c r="F172" s="14"/>
       <c r="G172" s="13"/>
       <c r="H172" s="11" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I172" s="13"/>
       <c r="J172" s="13"/>
@@ -18171,7 +18153,7 @@
       <c r="F173" s="14"/>
       <c r="G173" s="13"/>
       <c r="H173" s="11" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="I173" s="13"/>
       <c r="J173" s="13"/>
@@ -18205,7 +18187,7 @@
       <c r="F174" s="14"/>
       <c r="G174" s="13"/>
       <c r="H174" s="11" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="I174" s="13"/>
       <c r="J174" s="13"/>
@@ -18239,7 +18221,7 @@
       <c r="F175" s="14"/>
       <c r="G175" s="13"/>
       <c r="H175" s="11" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I175" s="13"/>
       <c r="J175" s="13"/>
@@ -18273,7 +18255,7 @@
       <c r="F176" s="14"/>
       <c r="G176" s="13"/>
       <c r="H176" s="11" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I176" s="13"/>
       <c r="J176" s="13"/>
@@ -18307,7 +18289,7 @@
       <c r="F177" s="14"/>
       <c r="G177" s="13"/>
       <c r="H177" s="11" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I177" s="13"/>
       <c r="J177" s="13"/>
@@ -18341,7 +18323,7 @@
       <c r="F178" s="14"/>
       <c r="G178" s="13"/>
       <c r="H178" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="I178" s="13"/>
       <c r="J178" s="13"/>
@@ -18375,7 +18357,7 @@
       <c r="F179" s="14"/>
       <c r="G179" s="13"/>
       <c r="H179" s="11" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I179" s="13"/>
       <c r="J179" s="13"/>
@@ -18409,7 +18391,7 @@
       <c r="F180" s="14"/>
       <c r="G180" s="13"/>
       <c r="H180" s="11" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I180" s="13"/>
       <c r="J180" s="13"/>
@@ -18443,7 +18425,7 @@
       <c r="F181" s="14"/>
       <c r="G181" s="13"/>
       <c r="H181" s="11" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I181" s="13"/>
       <c r="J181" s="13"/>
@@ -18477,7 +18459,7 @@
       <c r="F182" s="14"/>
       <c r="G182" s="13"/>
       <c r="H182" s="11" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I182" s="13"/>
       <c r="J182" s="13"/>
@@ -18511,7 +18493,7 @@
       <c r="F183" s="14"/>
       <c r="G183" s="13"/>
       <c r="H183" s="11" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="I183" s="13"/>
       <c r="J183" s="13"/>
@@ -18545,7 +18527,7 @@
       <c r="F184" s="14"/>
       <c r="G184" s="13"/>
       <c r="H184" s="11" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I184" s="13"/>
       <c r="J184" s="13"/>
@@ -18579,7 +18561,7 @@
       <c r="F185" s="14"/>
       <c r="G185" s="13"/>
       <c r="H185" s="11" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I185" s="13"/>
       <c r="J185" s="13"/>
@@ -18613,7 +18595,7 @@
       <c r="F186" s="14"/>
       <c r="G186" s="13"/>
       <c r="H186" s="11" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I186" s="13"/>
       <c r="J186" s="13"/>
@@ -18647,7 +18629,7 @@
       <c r="F187" s="14"/>
       <c r="G187" s="13"/>
       <c r="H187" s="11" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I187" s="13"/>
       <c r="J187" s="13"/>
@@ -18681,7 +18663,7 @@
       <c r="F188" s="14"/>
       <c r="G188" s="13"/>
       <c r="H188" s="11" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I188" s="13"/>
       <c r="J188" s="13"/>
@@ -18715,7 +18697,7 @@
       <c r="F189" s="14"/>
       <c r="G189" s="13"/>
       <c r="H189" s="11" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I189" s="13"/>
       <c r="J189" s="13"/>
@@ -18749,7 +18731,7 @@
       <c r="F190" s="14"/>
       <c r="G190" s="13"/>
       <c r="H190" s="11" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I190" s="13"/>
       <c r="J190" s="13"/>
@@ -18783,7 +18765,7 @@
       <c r="F191" s="14"/>
       <c r="G191" s="13"/>
       <c r="H191" s="11" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I191" s="13"/>
       <c r="J191" s="13"/>
@@ -18817,7 +18799,7 @@
       <c r="F192" s="14"/>
       <c r="G192" s="13"/>
       <c r="H192" s="11" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I192" s="13"/>
       <c r="J192" s="13"/>
@@ -18851,7 +18833,7 @@
       <c r="F193" s="14"/>
       <c r="G193" s="13"/>
       <c r="H193" s="11" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I193" s="13"/>
       <c r="J193" s="13"/>
@@ -18885,7 +18867,7 @@
       <c r="F194" s="14"/>
       <c r="G194" s="13"/>
       <c r="H194" s="11" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I194" s="13"/>
       <c r="J194" s="13"/>
@@ -18919,7 +18901,7 @@
       <c r="F195" s="14"/>
       <c r="G195" s="13"/>
       <c r="H195" s="11" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I195" s="13"/>
       <c r="J195" s="13"/>
@@ -18953,7 +18935,7 @@
       <c r="F196" s="14"/>
       <c r="G196" s="13"/>
       <c r="H196" s="11" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I196" s="13"/>
       <c r="J196" s="13"/>
@@ -18987,7 +18969,7 @@
       <c r="F197" s="14"/>
       <c r="G197" s="13"/>
       <c r="H197" s="11" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I197" s="13"/>
       <c r="J197" s="13"/>
@@ -19021,7 +19003,7 @@
       <c r="F198" s="14"/>
       <c r="G198" s="13"/>
       <c r="H198" s="11" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I198" s="13"/>
       <c r="J198" s="13"/>
@@ -19055,7 +19037,7 @@
       <c r="F199" s="14"/>
       <c r="G199" s="13"/>
       <c r="H199" s="11" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I199" s="13"/>
       <c r="J199" s="13"/>
@@ -19089,7 +19071,7 @@
       <c r="F200" s="14"/>
       <c r="G200" s="13"/>
       <c r="H200" s="11" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I200" s="13"/>
       <c r="J200" s="13"/>
@@ -19123,7 +19105,7 @@
       <c r="F201" s="14"/>
       <c r="G201" s="13"/>
       <c r="H201" s="11" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I201" s="13"/>
       <c r="J201" s="13"/>
@@ -19157,7 +19139,7 @@
       <c r="F202" s="14"/>
       <c r="G202" s="13"/>
       <c r="H202" s="11" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I202" s="13"/>
       <c r="J202" s="13"/>
@@ -19191,7 +19173,7 @@
       <c r="F203" s="14"/>
       <c r="G203" s="13"/>
       <c r="H203" s="11" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I203" s="13"/>
       <c r="J203" s="13"/>
@@ -19225,7 +19207,7 @@
       <c r="F204" s="14"/>
       <c r="G204" s="13"/>
       <c r="H204" s="11" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I204" s="13"/>
       <c r="J204" s="13"/>
@@ -19259,7 +19241,7 @@
       <c r="F205" s="14"/>
       <c r="G205" s="13"/>
       <c r="H205" s="11" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I205" s="13"/>
       <c r="J205" s="13"/>
@@ -19293,7 +19275,7 @@
       <c r="F206" s="14"/>
       <c r="G206" s="13"/>
       <c r="H206" s="11" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I206" s="13"/>
       <c r="J206" s="13"/>
@@ -19327,7 +19309,7 @@
       <c r="F207" s="14"/>
       <c r="G207" s="13"/>
       <c r="H207" s="11" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I207" s="13"/>
       <c r="J207" s="13"/>
@@ -19361,7 +19343,7 @@
       <c r="F208" s="14"/>
       <c r="G208" s="13"/>
       <c r="H208" s="11" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I208" s="13"/>
       <c r="J208" s="13"/>
@@ -19395,7 +19377,7 @@
       <c r="F209" s="14"/>
       <c r="G209" s="13"/>
       <c r="H209" s="11" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I209" s="13"/>
       <c r="J209" s="13"/>
@@ -19429,7 +19411,7 @@
       <c r="F210" s="14"/>
       <c r="G210" s="13"/>
       <c r="H210" s="11" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I210" s="13"/>
       <c r="J210" s="13"/>
@@ -19463,7 +19445,7 @@
       <c r="F211" s="14"/>
       <c r="G211" s="13"/>
       <c r="H211" s="11" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I211" s="13"/>
       <c r="J211" s="13"/>
@@ -19497,7 +19479,7 @@
       <c r="F212" s="14"/>
       <c r="G212" s="13"/>
       <c r="H212" s="11" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I212" s="13"/>
       <c r="J212" s="13"/>
@@ -19531,7 +19513,7 @@
       <c r="F213" s="14"/>
       <c r="G213" s="13"/>
       <c r="H213" s="11" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I213" s="13"/>
       <c r="J213" s="13"/>
@@ -19565,7 +19547,7 @@
       <c r="F214" s="14"/>
       <c r="G214" s="13"/>
       <c r="H214" s="11" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I214" s="13"/>
       <c r="J214" s="13"/>
@@ -19599,7 +19581,7 @@
       <c r="F215" s="14"/>
       <c r="G215" s="13"/>
       <c r="H215" s="11" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I215" s="13"/>
       <c r="J215" s="13"/>
@@ -19633,7 +19615,7 @@
       <c r="F216" s="14"/>
       <c r="G216" s="13"/>
       <c r="H216" s="11" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I216" s="13"/>
       <c r="J216" s="13"/>
@@ -19667,7 +19649,7 @@
       <c r="F217" s="14"/>
       <c r="G217" s="13"/>
       <c r="H217" s="11" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I217" s="13"/>
       <c r="J217" s="13"/>
@@ -19701,7 +19683,7 @@
       <c r="F218" s="14"/>
       <c r="G218" s="13"/>
       <c r="H218" s="11" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I218" s="13"/>
       <c r="J218" s="13"/>
@@ -19735,7 +19717,7 @@
       <c r="F219" s="14"/>
       <c r="G219" s="13"/>
       <c r="H219" s="11" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I219" s="13"/>
       <c r="J219" s="13"/>
@@ -19769,7 +19751,7 @@
       <c r="F220" s="14"/>
       <c r="G220" s="13"/>
       <c r="H220" s="11" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I220" s="13"/>
       <c r="J220" s="13"/>
@@ -19803,7 +19785,7 @@
       <c r="F221" s="14"/>
       <c r="G221" s="13"/>
       <c r="H221" s="11" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I221" s="13"/>
       <c r="J221" s="13"/>
@@ -19837,7 +19819,7 @@
       <c r="F222" s="14"/>
       <c r="G222" s="13"/>
       <c r="H222" s="11" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="I222" s="13"/>
       <c r="J222" s="13"/>
@@ -19871,7 +19853,7 @@
       <c r="F223" s="14"/>
       <c r="G223" s="13"/>
       <c r="H223" s="11" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I223" s="13"/>
       <c r="J223" s="13"/>
@@ -19905,7 +19887,7 @@
       <c r="F224" s="14"/>
       <c r="G224" s="13"/>
       <c r="H224" s="11" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I224" s="13"/>
       <c r="J224" s="13"/>
@@ -19939,7 +19921,7 @@
       <c r="F225" s="14"/>
       <c r="G225" s="13"/>
       <c r="H225" s="11" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I225" s="13"/>
       <c r="J225" s="13"/>
@@ -19973,7 +19955,7 @@
       <c r="F226" s="14"/>
       <c r="G226" s="13"/>
       <c r="H226" s="11" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I226" s="13"/>
       <c r="J226" s="13"/>
@@ -20007,7 +19989,7 @@
       <c r="F227" s="14"/>
       <c r="G227" s="13"/>
       <c r="H227" s="11" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I227" s="13"/>
       <c r="J227" s="13"/>
@@ -20041,7 +20023,7 @@
       <c r="F228" s="14"/>
       <c r="G228" s="13"/>
       <c r="H228" s="11" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I228" s="13"/>
       <c r="J228" s="13"/>
@@ -20075,7 +20057,7 @@
       <c r="F229" s="14"/>
       <c r="G229" s="13"/>
       <c r="H229" s="11" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I229" s="13"/>
       <c r="J229" s="13"/>
@@ -20109,7 +20091,7 @@
       <c r="F230" s="14"/>
       <c r="G230" s="13"/>
       <c r="H230" s="11" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I230" s="13"/>
       <c r="J230" s="13"/>
@@ -20143,7 +20125,7 @@
       <c r="F231" s="14"/>
       <c r="G231" s="13"/>
       <c r="H231" s="11" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I231" s="13"/>
       <c r="J231" s="13"/>
@@ -20177,7 +20159,7 @@
       <c r="F232" s="14"/>
       <c r="G232" s="13"/>
       <c r="H232" s="11" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="I232" s="13"/>
       <c r="J232" s="13"/>
@@ -20211,7 +20193,7 @@
       <c r="F233" s="14"/>
       <c r="G233" s="13"/>
       <c r="H233" s="11" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="I233" s="13"/>
       <c r="J233" s="13"/>
@@ -20245,7 +20227,7 @@
       <c r="F234" s="14"/>
       <c r="G234" s="13"/>
       <c r="H234" s="11" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="I234" s="13"/>
       <c r="J234" s="13"/>
@@ -20279,7 +20261,7 @@
       <c r="F235" s="14"/>
       <c r="G235" s="13"/>
       <c r="H235" s="11" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="I235" s="13"/>
       <c r="J235" s="13"/>
@@ -20313,7 +20295,7 @@
       <c r="F236" s="14"/>
       <c r="G236" s="13"/>
       <c r="H236" s="11" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="I236" s="13"/>
       <c r="J236" s="13"/>
@@ -20347,7 +20329,7 @@
       <c r="F237" s="14"/>
       <c r="G237" s="13"/>
       <c r="H237" s="11" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I237" s="13"/>
       <c r="J237" s="13"/>
@@ -20381,7 +20363,7 @@
       <c r="F238" s="14"/>
       <c r="G238" s="13"/>
       <c r="H238" s="11" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="I238" s="13"/>
       <c r="J238" s="13"/>
@@ -20415,7 +20397,7 @@
       <c r="F239" s="14"/>
       <c r="G239" s="13"/>
       <c r="H239" s="11" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="I239" s="13"/>
       <c r="J239" s="13"/>
@@ -20449,7 +20431,7 @@
       <c r="F240" s="14"/>
       <c r="G240" s="13"/>
       <c r="H240" s="11" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="I240" s="13"/>
       <c r="J240" s="13"/>
@@ -20483,7 +20465,7 @@
       <c r="F241" s="14"/>
       <c r="G241" s="13"/>
       <c r="H241" s="11" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="I241" s="13"/>
       <c r="J241" s="13"/>
@@ -20517,7 +20499,7 @@
       <c r="F242" s="14"/>
       <c r="G242" s="13"/>
       <c r="H242" s="11" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="I242" s="13"/>
       <c r="J242" s="13"/>
@@ -20551,7 +20533,7 @@
       <c r="F243" s="14"/>
       <c r="G243" s="13"/>
       <c r="H243" s="11" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="I243" s="13"/>
       <c r="J243" s="13"/>
@@ -20585,7 +20567,7 @@
       <c r="F244" s="14"/>
       <c r="G244" s="13"/>
       <c r="H244" s="11" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="I244" s="13"/>
       <c r="J244" s="13"/>
@@ -20619,7 +20601,7 @@
       <c r="F245" s="14"/>
       <c r="G245" s="13"/>
       <c r="H245" s="11" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="I245" s="13"/>
       <c r="J245" s="13"/>
@@ -20653,7 +20635,7 @@
       <c r="F246" s="14"/>
       <c r="G246" s="13"/>
       <c r="H246" s="11" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="I246" s="13"/>
       <c r="J246" s="13"/>
@@ -20687,7 +20669,7 @@
       <c r="F247" s="14"/>
       <c r="G247" s="13"/>
       <c r="H247" s="11" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="I247" s="13"/>
       <c r="J247" s="13"/>
@@ -20721,7 +20703,7 @@
       <c r="F248" s="14"/>
       <c r="G248" s="13"/>
       <c r="H248" s="11" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="I248" s="13"/>
       <c r="J248" s="13"/>
@@ -20755,7 +20737,7 @@
       <c r="F249" s="14"/>
       <c r="G249" s="13"/>
       <c r="H249" s="11" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="I249" s="13"/>
       <c r="J249" s="13"/>
@@ -20789,7 +20771,7 @@
       <c r="F250" s="14"/>
       <c r="G250" s="13"/>
       <c r="H250" s="11" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="I250" s="13"/>
       <c r="J250" s="13"/>
@@ -20823,7 +20805,7 @@
       <c r="F251" s="14"/>
       <c r="G251" s="13"/>
       <c r="H251" s="11" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I251" s="13"/>
       <c r="J251" s="13"/>
@@ -20857,7 +20839,7 @@
       <c r="F252" s="14"/>
       <c r="G252" s="13"/>
       <c r="H252" s="11" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="I252" s="13"/>
       <c r="J252" s="13"/>
@@ -20891,7 +20873,7 @@
       <c r="F253" s="14"/>
       <c r="G253" s="13"/>
       <c r="H253" s="11" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I253" s="13"/>
       <c r="J253" s="13"/>

--- a/opportunity-samples/Opportunity-FieldsAndStandardValues-DiffWithPrevVersion-V14.3.xlsx
+++ b/opportunity-samples/Opportunity-FieldsAndStandardValues-DiffWithPrevVersion-V14.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksmenon/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE07265E-F170-474E-B592-B9458EEA99B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84350E9-DEEC-3147-A2D8-FB68395198DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
@@ -4278,12 +4278,6 @@
     <t xml:space="preserve">Enables the linkage of solutions or offerings to opportunities. Insert the Offering IDs associated with the solutions being evaluated for addressing the customer's business problem. When an Offering ID isn't accessible, input "Other" and provide details in the "otherSolutionOffered" field. Offering IDs can be found AWS Partner Central &gt; Build &gt; Offering &gt; Offering Detail Page. The ID's format follows S-1234567 pattern. </t>
   </si>
   <si>
-    <t xml:space="preserve">New Field that takes multiple values separated by comma.
-For example, "awsProducts" : ["Lambda", "AWSManagedServices" , "WorkLink"]
-For obtaining the complete list of AWS Products, visit Partner Central &gt; Sell &gt; Opportunity Management. Click on Bulk Actions &gt; Import Opportunities &gt; Start Import. Link: https://partnercentral-uat.awspartner.aws.dev/OpportunityBulkImportPage
-Under Products and Offerings, Click on the link "Your Products and Offerings can be viewed here. </t>
-  </si>
-  <si>
     <t>If partner does not send a value for this field, AWS defaults it to "Net New Business"
 For backward compatability:
 For partners using version 1.0 payload, the field will default to  "Net New Business".</t>
@@ -4687,6 +4681,12 @@
   </si>
   <si>
     <t>Finalized Deployment Need</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Field that takes multiple values separated by comma.
+For example, "awsProducts" : ["Lambda", "AWSManagedServices" , "WorkLink"]
+For obtaining the complete list of AWS Products, visit Partner Central &gt; Sell &gt; Opportunity Management. Click on Bulk Actions &gt; Import Opportunities &gt; Start Import. Link: https://partnercentral.awspartner.com/OpportunityBulkImportPage
+Under Products and Offerings, Click on the link "Your Products and Offerings can be viewed here. </t>
   </si>
 </sst>
 </file>
@@ -5650,7 +5650,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
       <c r="B2" s="63" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="31"/>
@@ -5665,7 +5665,7 @@
       <c r="A4" s="31"/>
       <c r="B4" s="47"/>
       <c r="C4" s="39" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D4" s="31"/>
     </row>
@@ -5673,7 +5673,7 @@
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
       <c r="C5" s="33" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D5" s="31"/>
     </row>
@@ -5681,7 +5681,7 @@
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D6" s="31"/>
     </row>
@@ -5689,7 +5689,7 @@
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
       <c r="C7" s="33" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D7" s="31"/>
     </row>
@@ -5697,7 +5697,7 @@
       <c r="A8" s="31"/>
       <c r="B8" s="32"/>
       <c r="C8" s="33" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D8" s="31"/>
     </row>
@@ -5711,7 +5711,7 @@
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D10" s="31"/>
     </row>
@@ -5727,7 +5727,7 @@
       <c r="A12" s="31"/>
       <c r="B12" s="32"/>
       <c r="C12" s="33" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D12" s="31"/>
     </row>
@@ -5735,7 +5735,7 @@
       <c r="A13" s="31"/>
       <c r="B13" s="32"/>
       <c r="C13" s="33" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D13" s="31"/>
     </row>
@@ -5743,7 +5743,7 @@
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D14" s="31"/>
     </row>
@@ -5751,7 +5751,7 @@
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="33" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D15" s="31"/>
     </row>
@@ -5759,7 +5759,7 @@
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="33" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D16" s="31"/>
     </row>
@@ -5772,7 +5772,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
       <c r="B18" s="65" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="31"/>
@@ -5821,7 +5821,7 @@
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="33" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D24" s="31"/>
     </row>
@@ -5829,7 +5829,7 @@
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
       <c r="C25" s="33" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D25" s="31"/>
     </row>
@@ -5869,7 +5869,7 @@
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="33" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D30" s="31"/>
     </row>
@@ -5885,14 +5885,14 @@
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="33" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="31"/>
       <c r="B33" s="65" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C33" s="66"/>
       <c r="D33" s="31"/>
@@ -5901,7 +5901,7 @@
       <c r="A34" s="31"/>
       <c r="B34" s="47"/>
       <c r="C34" s="33" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D34" s="31"/>
     </row>
@@ -5909,7 +5909,7 @@
       <c r="A35" s="31"/>
       <c r="B35" s="47"/>
       <c r="C35" s="33" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D35" s="31"/>
     </row>
@@ -5957,9 +5957,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A48" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H73" sqref="H73"/>
+      <selection pane="topRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6007,16 +6007,16 @@
         <v>5</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="18" t="s">
+        <v>1395</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>1396</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>1397</v>
       </c>
       <c r="M1" s="18" t="s">
         <v>7</v>
@@ -6151,7 +6151,7 @@
         <v>33</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>34</v>
@@ -6608,7 +6608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="238" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>84</v>
       </c>
@@ -6628,8 +6628,8 @@
       <c r="G14" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>1385</v>
+      <c r="H14" s="20" t="s">
+        <v>1429</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>28</v>
@@ -6778,7 +6778,7 @@
         <v>104</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="I17" s="40" t="s">
         <v>34</v>
@@ -6971,7 +6971,7 @@
       </c>
       <c r="H21" s="36"/>
       <c r="I21" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="3" t="s">
@@ -7060,7 +7060,7 @@
         <v>132</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>28</v>
@@ -7109,7 +7109,7 @@
         <v>137</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>19</v>
@@ -7448,13 +7448,13 @@
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G31" s="19" t="s">
         <v>1384</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>34</v>
@@ -7823,7 +7823,7 @@
       </c>
       <c r="H39" s="36"/>
       <c r="I39" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>35</v>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="H40" s="36"/>
       <c r="I40" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>35</v>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="H41" s="36"/>
       <c r="I41" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>35</v>
@@ -7926,7 +7926,7 @@
         <v>28</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>123</v>
@@ -7964,7 +7964,7 @@
       </c>
       <c r="H42" s="36"/>
       <c r="I42" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>35</v>
@@ -7973,7 +7973,7 @@
         <v>28</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>123</v>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="H43" s="36"/>
       <c r="I43" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>35</v>
@@ -8058,7 +8058,7 @@
       </c>
       <c r="H44" s="36"/>
       <c r="I44" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>35</v>
@@ -8104,7 +8104,7 @@
         <v>240</v>
       </c>
       <c r="H45" s="44" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I45" s="40" t="s">
         <v>28</v>
@@ -8149,7 +8149,7 @@
         <v>244</v>
       </c>
       <c r="H46" s="44" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I46" s="40" t="s">
         <v>28</v>
@@ -8194,7 +8194,7 @@
         <v>248</v>
       </c>
       <c r="H47" s="44" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I47" s="40" t="s">
         <v>28</v>
@@ -8239,7 +8239,7 @@
         <v>253</v>
       </c>
       <c r="H48" s="44" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I48" s="40" t="s">
         <v>28</v>
@@ -8284,7 +8284,7 @@
         <v>257</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I49" s="40" t="s">
         <v>28</v>
@@ -8330,14 +8330,14 @@
       </c>
       <c r="H50" s="36"/>
       <c r="I50" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="M50" s="3" t="s">
         <v>123</v>
@@ -8375,14 +8375,14 @@
       </c>
       <c r="H51" s="36"/>
       <c r="I51" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>123</v>
@@ -8651,7 +8651,7 @@
       </c>
       <c r="H57" s="36"/>
       <c r="I57" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>35</v>
@@ -8660,7 +8660,7 @@
         <v>28</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>123</v>
@@ -8698,7 +8698,7 @@
       </c>
       <c r="H58" s="36"/>
       <c r="I58" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>35</v>
@@ -8707,7 +8707,7 @@
         <v>28</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>123</v>
@@ -8745,7 +8745,7 @@
       </c>
       <c r="H59" s="36"/>
       <c r="I59" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>35</v>
@@ -8754,7 +8754,7 @@
         <v>28</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>123</v>
@@ -8792,7 +8792,7 @@
       </c>
       <c r="H60" s="36"/>
       <c r="I60" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>35</v>
@@ -8801,7 +8801,7 @@
         <v>28</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>123</v>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="H62" s="36"/>
       <c r="I62" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="3" t="s">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J65" s="19"/>
       <c r="K65" s="19" t="s">
@@ -9074,7 +9074,7 @@
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J66" s="19"/>
       <c r="K66" s="19" t="s">
@@ -9128,7 +9128,7 @@
         <v>34</v>
       </c>
       <c r="L67" s="36" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>21</v>
@@ -9168,7 +9168,7 @@
       </c>
       <c r="H68" s="36"/>
       <c r="I68" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>35</v>
@@ -9265,7 +9265,7 @@
         <v>19</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>28</v>
@@ -9275,7 +9275,7 @@
         <v>21</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="O70" s="3" t="s">
         <v>22</v>
@@ -9312,7 +9312,7 @@
         <v>19</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>28</v>
@@ -9322,7 +9322,7 @@
         <v>21</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="O71" s="3" t="s">
         <v>22</v>
@@ -9357,7 +9357,7 @@
         <v>19</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>28</v>
@@ -9367,7 +9367,7 @@
         <v>21</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>22</v>
@@ -9402,7 +9402,7 @@
         <v>19</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>28</v>
@@ -9412,7 +9412,7 @@
         <v>21</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="O73" s="3" t="s">
         <v>22</v>
@@ -9449,7 +9449,7 @@
         <v>19</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>28</v>
@@ -9459,7 +9459,7 @@
         <v>21</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="O74" s="3" t="s">
         <v>22</v>
@@ -9493,7 +9493,7 @@
       </c>
       <c r="H75" s="36"/>
       <c r="I75" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="38" t="s">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="H78" s="36"/>
       <c r="I78" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="38" t="s">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="H81" s="36"/>
       <c r="I81" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>35</v>
@@ -9816,7 +9816,7 @@
       </c>
       <c r="H82" s="36"/>
       <c r="I82" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>35</v>
@@ -9863,7 +9863,7 @@
       </c>
       <c r="H83" s="36"/>
       <c r="I83" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>35</v>
@@ -9910,7 +9910,7 @@
       </c>
       <c r="H84" s="36"/>
       <c r="I84" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>35</v>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="H85" s="36"/>
       <c r="I85" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>35</v>
@@ -10004,7 +10004,7 @@
       </c>
       <c r="H86" s="36"/>
       <c r="I86" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="38" t="s">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="H87" s="36"/>
       <c r="I87" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="38" t="s">
@@ -10087,7 +10087,7 @@
         <v>415</v>
       </c>
       <c r="H88" s="21" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I88" s="21" t="s">
         <v>34</v>
@@ -10180,14 +10180,14 @@
         <v>138</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J90" s="19"/>
       <c r="K90" s="19" t="s">
         <v>19</v>
       </c>
       <c r="L90" s="19" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="M90" s="19" t="s">
         <v>123</v>
@@ -10223,14 +10223,14 @@
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J91" s="19"/>
       <c r="K91" s="19" t="s">
         <v>19</v>
       </c>
       <c r="L91" s="19" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="M91" s="19" t="s">
         <v>123</v>
@@ -10811,7 +10811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD253"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -11480,7 +11480,7 @@
     </row>
     <row r="9" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -12108,7 +12108,7 @@
         <v>732</v>
       </c>
       <c r="O20" s="46" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>

--- a/opportunity-samples/Opportunity-FieldsAndStandardValues-DiffWithPrevVersion-V14.3.xlsx
+++ b/opportunity-samples/Opportunity-FieldsAndStandardValues-DiffWithPrevVersion-V14.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksmenon/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84350E9-DEEC-3147-A2D8-FB68395198DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CE17B8-7911-0D46-89DA-04314B1E5E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4329,13 +4329,6 @@
     </r>
   </si>
   <si>
-    <t>To get a list of solutions in your Partner Central Account, visit Partner Central &gt; Sell &gt; Opportunity Management. Click on Bulk Actions &gt; Import Opportunities &gt; Start Import. Link: https://partnercentral-uat.awspartner.aws.dev/OpportunityBulkImportPage
-Under Products and Offerings, Click on the link "Your Products and Offerings can be viewed here. 
-When an AWS Originated Opportunity is shared, this field is masked and comes with a value null. This field is mandatory in the payload from Partner to AWS and but may be null in the payload from AWS to Partner.
-For backward compatability:
-For partners in old verison, the value will be deafulted to "Other"</t>
-  </si>
-  <si>
     <t>Inbound - Mandatory / Conditionally Mandatory / Optional</t>
   </si>
   <si>
@@ -4683,10 +4676,17 @@
     <t>Finalized Deployment Need</t>
   </si>
   <si>
-    <t xml:space="preserve">New Field that takes multiple values separated by comma.
+    <t>To get a list of solutions in your Partner Central Account, visit Partner Central &gt; Sell &gt; Opportunity Management. Click on Bulk Actions &gt; Import Opportunities &gt; Start Import. Link: https://partnercentral.awspartner.com/OpportunityBulkImportPage
+Use the solutionID values.
+When an AWS Originated Opportunity is shared, this field is masked and comes with a value null. This field is mandatory in the payload from Partner to AWS and but may be null in the payload from AWS to Partner.
+For backward compatability:
+For partners in old verison, the value will be deafulted to "Other"</t>
+  </si>
+  <si>
+    <t>New Field that takes multiple values separated by comma.
 For example, "awsProducts" : ["Lambda", "AWSManagedServices" , "WorkLink"]
 For obtaining the complete list of AWS Products, visit Partner Central &gt; Sell &gt; Opportunity Management. Click on Bulk Actions &gt; Import Opportunities &gt; Start Import. Link: https://partnercentral.awspartner.com/OpportunityBulkImportPage
-Under Products and Offerings, Click on the link "Your Products and Offerings can be viewed here. </t>
+Under Products and Offerings, Click on the link "Your Products and Offerings can be viewed here. Use the Product Codes and not the Product Names.</t>
   </si>
 </sst>
 </file>
@@ -5650,7 +5650,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
       <c r="B2" s="63" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="31"/>
@@ -5665,7 +5665,7 @@
       <c r="A4" s="31"/>
       <c r="B4" s="47"/>
       <c r="C4" s="39" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D4" s="31"/>
     </row>
@@ -5673,7 +5673,7 @@
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
       <c r="C5" s="33" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D5" s="31"/>
     </row>
@@ -5681,7 +5681,7 @@
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D6" s="31"/>
     </row>
@@ -5689,7 +5689,7 @@
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
       <c r="C7" s="33" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D7" s="31"/>
     </row>
@@ -5697,7 +5697,7 @@
       <c r="A8" s="31"/>
       <c r="B8" s="32"/>
       <c r="C8" s="33" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D8" s="31"/>
     </row>
@@ -5711,7 +5711,7 @@
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D10" s="31"/>
     </row>
@@ -5727,7 +5727,7 @@
       <c r="A12" s="31"/>
       <c r="B12" s="32"/>
       <c r="C12" s="33" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D12" s="31"/>
     </row>
@@ -5735,7 +5735,7 @@
       <c r="A13" s="31"/>
       <c r="B13" s="32"/>
       <c r="C13" s="33" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D13" s="31"/>
     </row>
@@ -5743,7 +5743,7 @@
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D14" s="31"/>
     </row>
@@ -5751,7 +5751,7 @@
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="33" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D15" s="31"/>
     </row>
@@ -5759,7 +5759,7 @@
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="33" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D16" s="31"/>
     </row>
@@ -5772,7 +5772,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
       <c r="B18" s="65" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="31"/>
@@ -5821,7 +5821,7 @@
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="33" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D24" s="31"/>
     </row>
@@ -5869,7 +5869,7 @@
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="33" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D30" s="31"/>
     </row>
@@ -5892,7 +5892,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="31"/>
       <c r="B33" s="65" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C33" s="66"/>
       <c r="D33" s="31"/>
@@ -5901,7 +5901,7 @@
       <c r="A34" s="31"/>
       <c r="B34" s="47"/>
       <c r="C34" s="33" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D34" s="31"/>
     </row>
@@ -5909,7 +5909,7 @@
       <c r="A35" s="31"/>
       <c r="B35" s="47"/>
       <c r="C35" s="33" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D35" s="31"/>
     </row>
@@ -5958,8 +5958,8 @@
   <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H14" sqref="H14"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6007,16 +6007,16 @@
         <v>5</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="18" t="s">
+        <v>1394</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>1395</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>1396</v>
       </c>
       <c r="M1" s="18" t="s">
         <v>7</v>
@@ -6608,7 +6608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="238" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="255" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>84</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>104</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I17" s="40" t="s">
         <v>34</v>
@@ -6971,7 +6971,7 @@
       </c>
       <c r="H21" s="36"/>
       <c r="I21" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="3" t="s">
@@ -7433,7 +7433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="255" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>176</v>
       </c>
@@ -7448,13 +7448,13 @@
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G31" s="19" t="s">
         <v>1384</v>
       </c>
-      <c r="H31" s="19" t="s">
-        <v>1393</v>
+      <c r="H31" s="20" t="s">
+        <v>1428</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>34</v>
@@ -7823,7 +7823,7 @@
       </c>
       <c r="H39" s="36"/>
       <c r="I39" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>35</v>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="H40" s="36"/>
       <c r="I40" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>35</v>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="H41" s="36"/>
       <c r="I41" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>35</v>
@@ -7926,7 +7926,7 @@
         <v>28</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>123</v>
@@ -7964,7 +7964,7 @@
       </c>
       <c r="H42" s="36"/>
       <c r="I42" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>35</v>
@@ -7973,7 +7973,7 @@
         <v>28</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>123</v>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="H43" s="36"/>
       <c r="I43" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>35</v>
@@ -8058,7 +8058,7 @@
       </c>
       <c r="H44" s="36"/>
       <c r="I44" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>35</v>
@@ -8330,14 +8330,14 @@
       </c>
       <c r="H50" s="36"/>
       <c r="I50" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="M50" s="3" t="s">
         <v>123</v>
@@ -8375,14 +8375,14 @@
       </c>
       <c r="H51" s="36"/>
       <c r="I51" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>123</v>
@@ -8651,7 +8651,7 @@
       </c>
       <c r="H57" s="36"/>
       <c r="I57" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>35</v>
@@ -8660,7 +8660,7 @@
         <v>28</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>123</v>
@@ -8698,7 +8698,7 @@
       </c>
       <c r="H58" s="36"/>
       <c r="I58" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>35</v>
@@ -8707,7 +8707,7 @@
         <v>28</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>123</v>
@@ -8745,7 +8745,7 @@
       </c>
       <c r="H59" s="36"/>
       <c r="I59" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>35</v>
@@ -8754,7 +8754,7 @@
         <v>28</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>123</v>
@@ -8792,7 +8792,7 @@
       </c>
       <c r="H60" s="36"/>
       <c r="I60" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>35</v>
@@ -8801,7 +8801,7 @@
         <v>28</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>123</v>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="H62" s="36"/>
       <c r="I62" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="3" t="s">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J65" s="19"/>
       <c r="K65" s="19" t="s">
@@ -9074,7 +9074,7 @@
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J66" s="19"/>
       <c r="K66" s="19" t="s">
@@ -9128,7 +9128,7 @@
         <v>34</v>
       </c>
       <c r="L67" s="36" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>21</v>
@@ -9168,7 +9168,7 @@
       </c>
       <c r="H68" s="36"/>
       <c r="I68" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>35</v>
@@ -9265,7 +9265,7 @@
         <v>19</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>28</v>
@@ -9275,7 +9275,7 @@
         <v>21</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="O70" s="3" t="s">
         <v>22</v>
@@ -9312,7 +9312,7 @@
         <v>19</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>28</v>
@@ -9322,7 +9322,7 @@
         <v>21</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="O71" s="3" t="s">
         <v>22</v>
@@ -9357,7 +9357,7 @@
         <v>19</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>28</v>
@@ -9367,7 +9367,7 @@
         <v>21</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>22</v>
@@ -9402,7 +9402,7 @@
         <v>19</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>28</v>
@@ -9412,7 +9412,7 @@
         <v>21</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="O73" s="3" t="s">
         <v>22</v>
@@ -9449,7 +9449,7 @@
         <v>19</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>28</v>
@@ -9459,7 +9459,7 @@
         <v>21</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="O74" s="3" t="s">
         <v>22</v>
@@ -9493,7 +9493,7 @@
       </c>
       <c r="H75" s="36"/>
       <c r="I75" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="38" t="s">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="H78" s="36"/>
       <c r="I78" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="38" t="s">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="H81" s="36"/>
       <c r="I81" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>35</v>
@@ -9816,7 +9816,7 @@
       </c>
       <c r="H82" s="36"/>
       <c r="I82" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>35</v>
@@ -9863,7 +9863,7 @@
       </c>
       <c r="H83" s="36"/>
       <c r="I83" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>35</v>
@@ -9910,7 +9910,7 @@
       </c>
       <c r="H84" s="36"/>
       <c r="I84" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>35</v>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="H85" s="36"/>
       <c r="I85" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>35</v>
@@ -10004,7 +10004,7 @@
       </c>
       <c r="H86" s="36"/>
       <c r="I86" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="38" t="s">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="H87" s="36"/>
       <c r="I87" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="38" t="s">
@@ -10180,14 +10180,14 @@
         <v>138</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J90" s="19"/>
       <c r="K90" s="19" t="s">
         <v>19</v>
       </c>
       <c r="L90" s="19" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="M90" s="19" t="s">
         <v>123</v>
@@ -10223,14 +10223,14 @@
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J91" s="19"/>
       <c r="K91" s="19" t="s">
         <v>19</v>
       </c>
       <c r="L91" s="19" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="M91" s="19" t="s">
         <v>123</v>
@@ -11480,7 +11480,7 @@
     </row>
     <row r="9" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -12108,7 +12108,7 @@
         <v>732</v>
       </c>
       <c r="O20" s="46" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
